--- a/STUDIO/org.openl.rules.test/test-resources/functionality/EPBDS-10769_Binding_Test_Tables.xlsx
+++ b/STUDIO/org.openl.rules.test/test-resources/functionality/EPBDS-10769_Binding_Test_Tables.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23426"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mkama\.openl\user-workspace\DEFAULT\EPBDS-10769\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Diana\.openl\user-workspace\DEFAULT\test1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C4A42D35-15B4-4CB8-BEA0-E635C5B0A46B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0B8390BC-98B5-44EA-B6A0-805AD4368B1E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11710" yWindow="2440" windowWidth="18260" windowHeight="15560" xr2:uid="{121C95DA-9E03-40E1-ACB0-FFEFA2DDA280}"/>
+    <workbookView xWindow="5205" yWindow="1410" windowWidth="22080" windowHeight="12990" xr2:uid="{121C95DA-9E03-40E1-ACB0-FFEFA2DDA280}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -20,12 +20,21 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="191" uniqueCount="58">
   <si>
     <t>SmartRules Double MyRule1(Double param1, Double param2)</t>
   </si>
@@ -69,9 +78,6 @@
     <t xml:space="preserve">2. Case2 </t>
   </si>
   <si>
-    <t xml:space="preserve">2. Case3 </t>
-  </si>
-  <si>
     <t>SmartRules Double MyRule3(Double param1, Double param2)</t>
   </si>
   <si>
@@ -83,12 +89,137 @@
   <si>
     <t>SmartRules Double MyRule3(Double param1, Double param2, Double param3)</t>
   </si>
+  <si>
+    <t xml:space="preserve">3. Case3 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">4. Case4 </t>
+  </si>
+  <si>
+    <t>abc</t>
+  </si>
+  <si>
+    <t>dfg</t>
+  </si>
+  <si>
+    <t>SmartRules Double MyRule4(Double param1, Double param2)</t>
+  </si>
+  <si>
+    <t>SmartRules Double MyRule4(Double param1, String param2)</t>
+  </si>
+  <si>
+    <t>Test MyRule4</t>
+  </si>
+  <si>
+    <t>SmartRules Double MyRule5(Double param1, Double param2)</t>
+  </si>
+  <si>
+    <t>SmartRules Double MyRule5(Double param1, String param2)</t>
+  </si>
+  <si>
+    <t>Test MyRule5</t>
+  </si>
+  <si>
+    <t>SmartRules Double MyRule11(Double param1, Double param2, Double param3)</t>
+  </si>
+  <si>
+    <t>SmartRules Double MyRule11(Double param1, Double param2)</t>
+  </si>
+  <si>
+    <t>Test MyRule11</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5. Case5 </t>
+  </si>
+  <si>
+    <t>SimpleRules Double MyRule6(Double param1, Double param2)</t>
+  </si>
+  <si>
+    <t>SimpleRules Double MyRule6(Double param1, Double param2, Double param3)</t>
+  </si>
+  <si>
+    <t>Test MyRule6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6. Case6 </t>
+  </si>
+  <si>
+    <t>C1</t>
+  </si>
+  <si>
+    <t>C2</t>
+  </si>
+  <si>
+    <t>RET1</t>
+  </si>
+  <si>
+    <t>Double</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7. Case7 </t>
+  </si>
+  <si>
+    <t>C3</t>
+  </si>
+  <si>
+    <t>Rules Double  MyRule7 (Double param1, Double param2, Double param3)</t>
+  </si>
+  <si>
+    <t>Test MyRule7</t>
+  </si>
+  <si>
+    <t>Step</t>
+  </si>
+  <si>
+    <t>RETURN</t>
+  </si>
+  <si>
+    <t>Spreadsheet Double MyRule8 (Double param1, Double param2)</t>
+  </si>
+  <si>
+    <t>value</t>
+  </si>
+  <si>
+    <t>value1</t>
+  </si>
+  <si>
+    <t>Test MyRule8</t>
+  </si>
+  <si>
+    <t>=param1</t>
+  </si>
+  <si>
+    <t>Spreadsheet Double  MyRule8 (Double param1, Double param2, Double param3)</t>
+  </si>
+  <si>
+    <t>=param2</t>
+  </si>
+  <si>
+    <t>=$param1+$param2</t>
+  </si>
+  <si>
+    <t>=param3</t>
+  </si>
+  <si>
+    <t>=$param1+$param2+$param3</t>
+  </si>
+  <si>
+    <t>Rules DoubleValue  MyRule7 (Double param1, Double param2)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DoubleValue  </t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <numFmts count="3">
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="170" formatCode="_-* #,##0.00_р_._-;\-* #,##0.00_р_._-;_-* &quot;-&quot;??_р_._-;_-@_-"/>
+    <numFmt numFmtId="171" formatCode="[$-409]d\-mmm\-yyyy;@"/>
+  </numFmts>
+  <fonts count="41" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -97,16 +228,424 @@
       <charset val="204"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <name val="Franklin Gothic Book"/>
+      <family val="2"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Palatino Linotype"/>
+      <family val="1"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color indexed="56"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="186"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="9"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="20"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color indexed="52"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color indexed="9"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <i/>
+      <u/>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color indexed="23"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="17"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color indexed="56"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color indexed="56"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color indexed="56"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color indexed="56"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="186"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="62"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="52"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="60"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color indexed="63"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <name val="Verdana"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color indexed="56"/>
+      <name val="Cambria"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color indexed="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="186"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <u/>
+      <sz val="11"/>
+      <color theme="3" tint="0.39997558519241921"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="9"/>
+      <color theme="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="29">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.34998626667073579"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="31"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="45"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="46"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="27"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="47"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="44"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="29"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="11"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="51"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="30"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="36"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="49"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="52"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="62"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="10"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="57"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="53"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="44"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="22"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="55"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="43"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="26"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="22"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="14">
     <border>
       <left/>
       <right/>
@@ -114,15 +653,3965 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thick">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="23"/>
+      </left>
+      <right style="thin">
+        <color indexed="23"/>
+      </right>
+      <top style="thin">
+        <color indexed="23"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="23"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color indexed="63"/>
+      </left>
+      <right style="double">
+        <color indexed="63"/>
+      </right>
+      <top style="double">
+        <color indexed="63"/>
+      </top>
+      <bottom style="double">
+        <color indexed="63"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thick">
+        <color indexed="62"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thick">
+        <color indexed="22"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="30"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color indexed="52"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="22"/>
+      </left>
+      <right style="thin">
+        <color indexed="22"/>
+      </right>
+      <top style="thin">
+        <color indexed="22"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="22"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="63"/>
+      </left>
+      <right style="thin">
+        <color indexed="63"/>
+      </right>
+      <top style="thin">
+        <color indexed="63"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="63"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="62"/>
+      </top>
+      <bottom style="double">
+        <color indexed="62"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="1886">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="170" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="44" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="171" fontId="14" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="171" fontId="14" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="171" fontId="14" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="171" fontId="14" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="171" fontId="14" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="171" fontId="14" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="171" fontId="14" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="171" fontId="14" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="171" fontId="14" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="171" fontId="14" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="171" fontId="14" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="171" fontId="14" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="171" fontId="14" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="171" fontId="14" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="171" fontId="14" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="171" fontId="14" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="171" fontId="14" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="171" fontId="14" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="171" fontId="14" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="171" fontId="14" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="171" fontId="14" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="171" fontId="14" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="171" fontId="14" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="171" fontId="14" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="171" fontId="14" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="171" fontId="14" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="171" fontId="14" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="171" fontId="14" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="171" fontId="14" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="171" fontId="14" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="171" fontId="14" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="171" fontId="14" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="171" fontId="14" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="171" fontId="14" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="171" fontId="14" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="171" fontId="14" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="171" fontId="14" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="171" fontId="14" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="171" fontId="14" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="171" fontId="14" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="171" fontId="14" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="171" fontId="14" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="171" fontId="14" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="171" fontId="14" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="171" fontId="14" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="171" fontId="14" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="171" fontId="14" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="171" fontId="14" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="171" fontId="14" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="171" fontId="14" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="171" fontId="14" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="171" fontId="14" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="171" fontId="14" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="171" fontId="14" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="171" fontId="14" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="171" fontId="14" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="171" fontId="14" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="171" fontId="14" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="171" fontId="14" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="171" fontId="14" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="171" fontId="14" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="171" fontId="14" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="171" fontId="14" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="171" fontId="14" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="171" fontId="14" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="171" fontId="14" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="171" fontId="14" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="171" fontId="14" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="171" fontId="14" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="171" fontId="14" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="171" fontId="14" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="171" fontId="14" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="171" fontId="14" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="171" fontId="14" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="171" fontId="14" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="171" fontId="14" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="171" fontId="14" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="171" fontId="14" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="171" fontId="14" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="171" fontId="14" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="171" fontId="14" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="171" fontId="14" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="171" fontId="14" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="171" fontId="14" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="171" fontId="14" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="171" fontId="14" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="171" fontId="14" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="171" fontId="14" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="171" fontId="14" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="171" fontId="14" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="171" fontId="14" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="171" fontId="14" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="171" fontId="14" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="171" fontId="14" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="171" fontId="14" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="171" fontId="14" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="171" fontId="14" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="171" fontId="14" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="171" fontId="14" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="171" fontId="14" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="171" fontId="14" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="171" fontId="14" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="171" fontId="14" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="171" fontId="14" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="171" fontId="14" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="171" fontId="14" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="171" fontId="14" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="171" fontId="14" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="171" fontId="15" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="171" fontId="15" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="171" fontId="15" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="171" fontId="15" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="171" fontId="15" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="171" fontId="15" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="171" fontId="15" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="171" fontId="15" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="171" fontId="15" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="171" fontId="15" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="171" fontId="15" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="171" fontId="15" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="171" fontId="15" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="171" fontId="15" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="171" fontId="15" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="171" fontId="15" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="171" fontId="15" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="171" fontId="15" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="171" fontId="15" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="171" fontId="15" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="171" fontId="15" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="171" fontId="15" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="171" fontId="15" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="171" fontId="15" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="171" fontId="15" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="171" fontId="15" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="171" fontId="15" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="171" fontId="15" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="171" fontId="15" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="171" fontId="15" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="171" fontId="15" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="171" fontId="15" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="171" fontId="15" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="171" fontId="15" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="171" fontId="15" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="171" fontId="15" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="171" fontId="15" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="171" fontId="15" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="171" fontId="15" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="171" fontId="15" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="171" fontId="15" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="171" fontId="15" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="171" fontId="15" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="171" fontId="15" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="171" fontId="15" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="171" fontId="15" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="171" fontId="15" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="171" fontId="15" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="171" fontId="15" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="171" fontId="15" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="171" fontId="15" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="171" fontId="15" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="171" fontId="15" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="171" fontId="15" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="171" fontId="15" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="171" fontId="15" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="171" fontId="15" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="171" fontId="15" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="171" fontId="15" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="171" fontId="15" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="171" fontId="15" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="171" fontId="15" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="171" fontId="15" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="171" fontId="15" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="171" fontId="15" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="171" fontId="15" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="171" fontId="15" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="171" fontId="15" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="171" fontId="15" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="171" fontId="15" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="171" fontId="15" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="171" fontId="15" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="171" fontId="15" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="171" fontId="15" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="171" fontId="15" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="171" fontId="15" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="171" fontId="15" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="171" fontId="15" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="171" fontId="15" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="171" fontId="15" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="171" fontId="15" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="171" fontId="15" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="171" fontId="15" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="171" fontId="15" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="171" fontId="15" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="171" fontId="15" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="171" fontId="15" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="171" fontId="15" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="171" fontId="15" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="171" fontId="15" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="171" fontId="15" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="171" fontId="15" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="171" fontId="15" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="171" fontId="15" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="171" fontId="15" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="171" fontId="15" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="171" fontId="15" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="171" fontId="15" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="171" fontId="15" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="171" fontId="15" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="171" fontId="15" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="171" fontId="15" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="171" fontId="15" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="171" fontId="15" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="171" fontId="15" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="171" fontId="15" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="171" fontId="15" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="171" fontId="15" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyProtection="0">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="171" fontId="16" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="171" fontId="16" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="171" fontId="16" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="171" fontId="16" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="171" fontId="16" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="171" fontId="16" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="171" fontId="16" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="171" fontId="16" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="171" fontId="16" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="171" fontId="13" fillId="23" borderId="0">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="171" fontId="17" fillId="24" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="171" fontId="17" fillId="24" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="171" fontId="17" fillId="24" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="171" fontId="17" fillId="24" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="171" fontId="17" fillId="24" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="171" fontId="17" fillId="24" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="171" fontId="17" fillId="24" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="171" fontId="17" fillId="24" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="171" fontId="17" fillId="24" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="171" fontId="17" fillId="24" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="171" fontId="17" fillId="24" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="171" fontId="17" fillId="24" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="171" fontId="17" fillId="24" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="171" fontId="17" fillId="24" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="171" fontId="17" fillId="24" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="171" fontId="17" fillId="24" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="171" fontId="17" fillId="24" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="171" fontId="17" fillId="24" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="171" fontId="17" fillId="24" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="171" fontId="17" fillId="24" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="171" fontId="17" fillId="24" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="171" fontId="17" fillId="24" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="171" fontId="17" fillId="24" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="171" fontId="17" fillId="24" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="171" fontId="17" fillId="24" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="171" fontId="17" fillId="24" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="171" fontId="17" fillId="24" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="171" fontId="17" fillId="24" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="171" fontId="17" fillId="24" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="171" fontId="17" fillId="24" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="171" fontId="35" fillId="2" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="171" fontId="17" fillId="24" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="171" fontId="17" fillId="24" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="171" fontId="17" fillId="24" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="171" fontId="17" fillId="24" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="171" fontId="17" fillId="24" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="171" fontId="17" fillId="24" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="171" fontId="17" fillId="24" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="171" fontId="17" fillId="24" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="171" fontId="17" fillId="24" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="171" fontId="17" fillId="24" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="171" fontId="17" fillId="24" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="171" fontId="17" fillId="24" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="171" fontId="17" fillId="24" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="171" fontId="17" fillId="24" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="171" fontId="17" fillId="24" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="171" fontId="17" fillId="24" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="171" fontId="17" fillId="24" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="171" fontId="17" fillId="24" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="171" fontId="17" fillId="24" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="171" fontId="17" fillId="24" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="171" fontId="17" fillId="24" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="171" fontId="17" fillId="24" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="171" fontId="17" fillId="24" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="171" fontId="17" fillId="24" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="171" fontId="17" fillId="24" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="171" fontId="17" fillId="24" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="171" fontId="17" fillId="24" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="171" fontId="17" fillId="24" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="171" fontId="17" fillId="24" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="171" fontId="17" fillId="24" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="171" fontId="17" fillId="24" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="171" fontId="17" fillId="24" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="171" fontId="17" fillId="24" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="171" fontId="17" fillId="24" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="171" fontId="17" fillId="24" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="171" fontId="17" fillId="24" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="171" fontId="17" fillId="24" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="171" fontId="17" fillId="24" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="171" fontId="17" fillId="24" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="171" fontId="17" fillId="24" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="171" fontId="17" fillId="24" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="171" fontId="17" fillId="24" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="171" fontId="17" fillId="24" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="171" fontId="17" fillId="24" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="171" fontId="17" fillId="24" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="171" fontId="17" fillId="24" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="171" fontId="17" fillId="24" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="171" fontId="17" fillId="24" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="171" fontId="17" fillId="24" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="171" fontId="17" fillId="24" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="171" fontId="17" fillId="24" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="171" fontId="17" fillId="24" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="171" fontId="17" fillId="24" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="171" fontId="17" fillId="24" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="171" fontId="17" fillId="24" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="171" fontId="17" fillId="24" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="171" fontId="17" fillId="24" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="171" fontId="17" fillId="24" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="171" fontId="17" fillId="24" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="171" fontId="17" fillId="24" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="171" fontId="17" fillId="24" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="171" fontId="17" fillId="24" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="171" fontId="17" fillId="24" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="171" fontId="17" fillId="24" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="171" fontId="17" fillId="24" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="171" fontId="17" fillId="24" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="171" fontId="17" fillId="24" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="171" fontId="17" fillId="24" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="171" fontId="17" fillId="24" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="171" fontId="17" fillId="24" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="171" fontId="17" fillId="24" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="171" fontId="17" fillId="24" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="171" fontId="17" fillId="24" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="171" fontId="17" fillId="24" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="171" fontId="17" fillId="24" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="171" fontId="17" fillId="24" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="171" fontId="17" fillId="24" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="171" fontId="17" fillId="24" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="171" fontId="17" fillId="24" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="171" fontId="17" fillId="24" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="171" fontId="17" fillId="24" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="171" fontId="17" fillId="24" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="171" fontId="17" fillId="24" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="171" fontId="17" fillId="24" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="171" fontId="17" fillId="24" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="171" fontId="17" fillId="24" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="171" fontId="17" fillId="24" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="171" fontId="17" fillId="24" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="171" fontId="17" fillId="24" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="171" fontId="17" fillId="24" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="171" fontId="17" fillId="24" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="171" fontId="17" fillId="24" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="171" fontId="17" fillId="24" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="171" fontId="17" fillId="24" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="171" fontId="17" fillId="24" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="171" fontId="17" fillId="24" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="171" fontId="17" fillId="24" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="171" fontId="17" fillId="24" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="171" fontId="17" fillId="24" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="171" fontId="17" fillId="24" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="171" fontId="17" fillId="24" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="171" fontId="17" fillId="24" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="171" fontId="17" fillId="24" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="171" fontId="17" fillId="24" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="171" fontId="17" fillId="24" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="171" fontId="17" fillId="24" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="171" fontId="17" fillId="24" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="171" fontId="17" fillId="24" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="171" fontId="17" fillId="24" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="171" fontId="17" fillId="24" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="171" fontId="17" fillId="24" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="171" fontId="17" fillId="24" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="171" fontId="17" fillId="24" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="171" fontId="17" fillId="24" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="171" fontId="17" fillId="24" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="171" fontId="17" fillId="24" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="171" fontId="17" fillId="24" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="171" fontId="17" fillId="24" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="171" fontId="17" fillId="24" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="171" fontId="17" fillId="24" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="171" fontId="17" fillId="24" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="171" fontId="17" fillId="24" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="171" fontId="17" fillId="24" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="171" fontId="17" fillId="24" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="171" fontId="17" fillId="24" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="171" fontId="17" fillId="24" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="171" fontId="17" fillId="24" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="171" fontId="17" fillId="24" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="171" fontId="17" fillId="24" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="171" fontId="17" fillId="24" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="171" fontId="17" fillId="24" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="171" fontId="17" fillId="24" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="171" fontId="17" fillId="24" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="171" fontId="17" fillId="24" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="171" fontId="17" fillId="24" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="171" fontId="17" fillId="24" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="171" fontId="17" fillId="24" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="171" fontId="17" fillId="24" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="171" fontId="17" fillId="24" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="171" fontId="17" fillId="24" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="171" fontId="17" fillId="24" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="171" fontId="17" fillId="24" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="171" fontId="17" fillId="24" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="171" fontId="17" fillId="24" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="171" fontId="17" fillId="24" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="171" fontId="17" fillId="24" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="171" fontId="17" fillId="24" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="171" fontId="17" fillId="24" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="171" fontId="17" fillId="24" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="171" fontId="17" fillId="24" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="171" fontId="17" fillId="24" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="171" fontId="17" fillId="24" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="171" fontId="17" fillId="24" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="171" fontId="17" fillId="24" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="171" fontId="17" fillId="24" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="171" fontId="17" fillId="24" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="171" fontId="17" fillId="24" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="171" fontId="17" fillId="24" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="171" fontId="17" fillId="24" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="171" fontId="17" fillId="24" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="171" fontId="17" fillId="24" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="171" fontId="17" fillId="24" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="171" fontId="17" fillId="24" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="171" fontId="17" fillId="24" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="171" fontId="17" fillId="24" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="171" fontId="17" fillId="24" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="171" fontId="17" fillId="24" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="171" fontId="17" fillId="24" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="171" fontId="17" fillId="24" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="171" fontId="17" fillId="24" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="171" fontId="17" fillId="24" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="171" fontId="17" fillId="24" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="171" fontId="17" fillId="24" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="171" fontId="17" fillId="24" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="171" fontId="17" fillId="24" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="171" fontId="17" fillId="24" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="171" fontId="17" fillId="24" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="171" fontId="17" fillId="24" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="171" fontId="17" fillId="24" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="171" fontId="17" fillId="24" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="171" fontId="17" fillId="24" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="171" fontId="17" fillId="24" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="171" fontId="17" fillId="24" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="171" fontId="17" fillId="24" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="171" fontId="17" fillId="24" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="171" fontId="17" fillId="24" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="171" fontId="17" fillId="24" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="171" fontId="17" fillId="24" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="171" fontId="17" fillId="24" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="171" fontId="17" fillId="24" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="171" fontId="17" fillId="24" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="171" fontId="17" fillId="24" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="171" fontId="17" fillId="24" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="171" fontId="17" fillId="24" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="171" fontId="17" fillId="24" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="171" fontId="17" fillId="24" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="171" fontId="17" fillId="24" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="171" fontId="17" fillId="24" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="171" fontId="17" fillId="24" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="171" fontId="17" fillId="24" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="171" fontId="17" fillId="24" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="171" fontId="17" fillId="24" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="171" fontId="17" fillId="24" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="171" fontId="17" fillId="24" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="171" fontId="17" fillId="24" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="171" fontId="17" fillId="24" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="171" fontId="17" fillId="24" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="171" fontId="17" fillId="24" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="171" fontId="17" fillId="24" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="171" fontId="17" fillId="24" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="171" fontId="17" fillId="24" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="171" fontId="17" fillId="24" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="171" fontId="17" fillId="24" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="171" fontId="17" fillId="24" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="171" fontId="17" fillId="24" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="171" fontId="17" fillId="24" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="171" fontId="17" fillId="24" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="171" fontId="17" fillId="24" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="171" fontId="17" fillId="24" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="171" fontId="17" fillId="24" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="171" fontId="17" fillId="24" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="171" fontId="17" fillId="24" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="171" fontId="17" fillId="24" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="171" fontId="17" fillId="24" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="171" fontId="17" fillId="24" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="171" fontId="17" fillId="24" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="171" fontId="17" fillId="24" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="171" fontId="17" fillId="24" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="171" fontId="17" fillId="24" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="171" fontId="17" fillId="24" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="171" fontId="17" fillId="24" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="171" fontId="17" fillId="24" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="171" fontId="17" fillId="24" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="171" fontId="17" fillId="24" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="171" fontId="17" fillId="24" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="171" fontId="17" fillId="24" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="171" fontId="17" fillId="24" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="171" fontId="17" fillId="24" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="171" fontId="17" fillId="24" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="171" fontId="17" fillId="24" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="171" fontId="18" fillId="25" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="171" fontId="18" fillId="25" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="171" fontId="18" fillId="25" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="171" fontId="18" fillId="25" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="171" fontId="18" fillId="25" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="171" fontId="18" fillId="25" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="171" fontId="18" fillId="25" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="171" fontId="18" fillId="25" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="171" fontId="18" fillId="25" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="171" fontId="13" fillId="0" borderId="0">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="171" fontId="36" fillId="4" borderId="0"/>
+    <xf numFmtId="171" fontId="19" fillId="0" borderId="0">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="171" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="171" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="171" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="171" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="171" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="171" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="171" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="171" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="171" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="171" fontId="37" fillId="0" borderId="4"/>
+    <xf numFmtId="171" fontId="21" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="171" fontId="21" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="171" fontId="21" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="171" fontId="21" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="171" fontId="21" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="171" fontId="21" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="171" fontId="21" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="171" fontId="21" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="171" fontId="21" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="171" fontId="22" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="171" fontId="22" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="171" fontId="22" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="171" fontId="22" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="171" fontId="22" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="171" fontId="22" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="171" fontId="22" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="171" fontId="22" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="171" fontId="22" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="171" fontId="23" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="171" fontId="11" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="171" fontId="11" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="171" fontId="23" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="171" fontId="23" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="171" fontId="23" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="171" fontId="23" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="171" fontId="23" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="171" fontId="23" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="171" fontId="23" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="171" fontId="24" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="171" fontId="25" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="171" fontId="25" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="171" fontId="24" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="171" fontId="24" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="171" fontId="24" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="171" fontId="24" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="171" fontId="24" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="171" fontId="24" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="171" fontId="24" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="171" fontId="24" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="171" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="171" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="171" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="171" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="171" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="171" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="171" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="171" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="171" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="171" fontId="26" fillId="0" borderId="0"/>
+    <xf numFmtId="171" fontId="38" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="171" fontId="38" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="171" fontId="39" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="171" fontId="27" fillId="10" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="171" fontId="27" fillId="10" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="171" fontId="27" fillId="10" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="171" fontId="27" fillId="10" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="171" fontId="27" fillId="10" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="171" fontId="27" fillId="10" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="171" fontId="27" fillId="10" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="171" fontId="27" fillId="10" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="171" fontId="27" fillId="10" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="171" fontId="27" fillId="10" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="171" fontId="27" fillId="10" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="171" fontId="27" fillId="10" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="171" fontId="27" fillId="10" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="171" fontId="27" fillId="10" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="171" fontId="27" fillId="10" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="171" fontId="27" fillId="10" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="171" fontId="27" fillId="10" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="171" fontId="27" fillId="10" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="171" fontId="27" fillId="10" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="171" fontId="27" fillId="10" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="171" fontId="27" fillId="10" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="171" fontId="27" fillId="10" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="171" fontId="27" fillId="10" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="171" fontId="27" fillId="10" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="171" fontId="27" fillId="10" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="171" fontId="27" fillId="10" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="171" fontId="27" fillId="10" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="171" fontId="27" fillId="10" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="171" fontId="27" fillId="10" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="171" fontId="27" fillId="10" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="171" fontId="27" fillId="10" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="171" fontId="27" fillId="10" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="171" fontId="27" fillId="10" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="171" fontId="27" fillId="10" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="171" fontId="27" fillId="10" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="171" fontId="27" fillId="10" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="171" fontId="27" fillId="10" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="171" fontId="27" fillId="10" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="171" fontId="27" fillId="10" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="171" fontId="27" fillId="10" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="171" fontId="27" fillId="10" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="171" fontId="27" fillId="10" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="171" fontId="27" fillId="10" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="171" fontId="27" fillId="10" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="171" fontId="27" fillId="10" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="171" fontId="27" fillId="10" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="171" fontId="27" fillId="10" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="171" fontId="27" fillId="10" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="171" fontId="27" fillId="10" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="171" fontId="27" fillId="10" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="171" fontId="27" fillId="10" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="171" fontId="27" fillId="10" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="171" fontId="27" fillId="10" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="171" fontId="27" fillId="10" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="171" fontId="27" fillId="10" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="171" fontId="27" fillId="10" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="171" fontId="27" fillId="10" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="171" fontId="27" fillId="10" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="171" fontId="27" fillId="10" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="171" fontId="27" fillId="10" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="171" fontId="27" fillId="10" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="171" fontId="27" fillId="10" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="171" fontId="27" fillId="10" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="171" fontId="27" fillId="10" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="171" fontId="27" fillId="10" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="171" fontId="27" fillId="10" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="171" fontId="27" fillId="10" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="171" fontId="27" fillId="10" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="171" fontId="27" fillId="10" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="171" fontId="27" fillId="10" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="171" fontId="27" fillId="10" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="171" fontId="27" fillId="10" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="171" fontId="27" fillId="10" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="171" fontId="27" fillId="10" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="171" fontId="27" fillId="10" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="171" fontId="27" fillId="10" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="171" fontId="27" fillId="10" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="171" fontId="27" fillId="10" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="171" fontId="27" fillId="10" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="171" fontId="27" fillId="10" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="171" fontId="27" fillId="10" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="171" fontId="27" fillId="10" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="171" fontId="27" fillId="10" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="171" fontId="27" fillId="10" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="171" fontId="27" fillId="10" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="171" fontId="27" fillId="10" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="171" fontId="27" fillId="10" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="171" fontId="27" fillId="10" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="171" fontId="27" fillId="10" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="171" fontId="27" fillId="10" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="171" fontId="27" fillId="10" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="171" fontId="27" fillId="10" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="171" fontId="27" fillId="10" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="171" fontId="27" fillId="10" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="171" fontId="27" fillId="10" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="171" fontId="27" fillId="10" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="171" fontId="27" fillId="10" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="171" fontId="27" fillId="10" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="171" fontId="27" fillId="10" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="171" fontId="27" fillId="10" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="171" fontId="27" fillId="10" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="171" fontId="27" fillId="10" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="171" fontId="27" fillId="10" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="171" fontId="27" fillId="10" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="171" fontId="27" fillId="10" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="171" fontId="27" fillId="10" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="171" fontId="27" fillId="10" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="171" fontId="27" fillId="10" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="171" fontId="27" fillId="10" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="171" fontId="27" fillId="10" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="171" fontId="27" fillId="10" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="171" fontId="27" fillId="10" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="171" fontId="27" fillId="10" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="171" fontId="27" fillId="10" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="171" fontId="27" fillId="10" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="171" fontId="27" fillId="10" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="171" fontId="27" fillId="10" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="171" fontId="27" fillId="10" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="171" fontId="27" fillId="10" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="171" fontId="27" fillId="10" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="171" fontId="27" fillId="10" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="171" fontId="27" fillId="10" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="171" fontId="27" fillId="10" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="171" fontId="27" fillId="10" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="171" fontId="27" fillId="10" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="171" fontId="27" fillId="10" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="171" fontId="27" fillId="10" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="171" fontId="27" fillId="10" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="171" fontId="27" fillId="10" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="171" fontId="27" fillId="10" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="171" fontId="27" fillId="10" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="171" fontId="27" fillId="10" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="171" fontId="27" fillId="10" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="171" fontId="27" fillId="10" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="171" fontId="27" fillId="10" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="171" fontId="27" fillId="10" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="171" fontId="27" fillId="10" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="171" fontId="27" fillId="10" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="171" fontId="27" fillId="10" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="171" fontId="27" fillId="10" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="171" fontId="27" fillId="10" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="171" fontId="27" fillId="10" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="171" fontId="27" fillId="10" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="171" fontId="27" fillId="10" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="171" fontId="27" fillId="10" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="171" fontId="27" fillId="10" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="171" fontId="27" fillId="10" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="171" fontId="27" fillId="10" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="171" fontId="27" fillId="10" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="171" fontId="27" fillId="10" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="171" fontId="27" fillId="10" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="171" fontId="27" fillId="10" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="171" fontId="27" fillId="10" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="171" fontId="27" fillId="10" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="171" fontId="27" fillId="10" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="171" fontId="27" fillId="10" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="171" fontId="27" fillId="10" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="171" fontId="27" fillId="10" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="171" fontId="27" fillId="10" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="171" fontId="27" fillId="10" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="171" fontId="27" fillId="10" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="171" fontId="27" fillId="10" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="171" fontId="27" fillId="10" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="171" fontId="27" fillId="10" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="171" fontId="27" fillId="10" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="171" fontId="27" fillId="10" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="171" fontId="27" fillId="10" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="171" fontId="27" fillId="10" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="171" fontId="27" fillId="10" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="171" fontId="27" fillId="10" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="171" fontId="27" fillId="10" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="171" fontId="27" fillId="10" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="171" fontId="27" fillId="10" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="171" fontId="27" fillId="10" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="171" fontId="27" fillId="10" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="171" fontId="27" fillId="10" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="171" fontId="27" fillId="10" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="171" fontId="27" fillId="10" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="171" fontId="27" fillId="10" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="171" fontId="27" fillId="10" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="171" fontId="27" fillId="10" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="171" fontId="27" fillId="10" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="171" fontId="27" fillId="10" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="171" fontId="27" fillId="10" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="171" fontId="27" fillId="10" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="171" fontId="27" fillId="10" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="171" fontId="27" fillId="10" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="171" fontId="27" fillId="10" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="171" fontId="27" fillId="10" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="171" fontId="27" fillId="10" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="171" fontId="27" fillId="10" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="171" fontId="27" fillId="10" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="171" fontId="27" fillId="10" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="171" fontId="27" fillId="10" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="171" fontId="27" fillId="10" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="171" fontId="27" fillId="10" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="171" fontId="27" fillId="10" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="171" fontId="27" fillId="10" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="171" fontId="27" fillId="10" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="171" fontId="27" fillId="10" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="171" fontId="27" fillId="10" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="171" fontId="27" fillId="10" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="171" fontId="27" fillId="10" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="171" fontId="27" fillId="10" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="171" fontId="27" fillId="10" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="171" fontId="27" fillId="10" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="171" fontId="27" fillId="10" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="171" fontId="27" fillId="10" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="171" fontId="27" fillId="10" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="171" fontId="27" fillId="10" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="171" fontId="27" fillId="10" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="171" fontId="27" fillId="10" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="171" fontId="27" fillId="10" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="171" fontId="27" fillId="10" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="171" fontId="27" fillId="10" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="171" fontId="27" fillId="10" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="171" fontId="27" fillId="10" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="171" fontId="27" fillId="10" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="171" fontId="27" fillId="10" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="171" fontId="27" fillId="10" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="171" fontId="27" fillId="10" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="171" fontId="27" fillId="10" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="171" fontId="27" fillId="10" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="171" fontId="27" fillId="10" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="171" fontId="27" fillId="10" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="171" fontId="27" fillId="10" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="171" fontId="27" fillId="10" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="171" fontId="27" fillId="10" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="171" fontId="27" fillId="10" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="171" fontId="27" fillId="10" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="171" fontId="27" fillId="10" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="171" fontId="27" fillId="10" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="171" fontId="27" fillId="10" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="171" fontId="27" fillId="10" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="171" fontId="27" fillId="10" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="171" fontId="27" fillId="10" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="171" fontId="27" fillId="10" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="171" fontId="27" fillId="10" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="171" fontId="27" fillId="10" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="171" fontId="27" fillId="10" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="171" fontId="27" fillId="10" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="171" fontId="27" fillId="10" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="171" fontId="27" fillId="10" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="171" fontId="27" fillId="10" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="171" fontId="27" fillId="10" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="171" fontId="27" fillId="10" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="171" fontId="27" fillId="10" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="171" fontId="27" fillId="10" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="171" fontId="27" fillId="10" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="171" fontId="27" fillId="10" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="171" fontId="27" fillId="10" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="171" fontId="27" fillId="10" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="171" fontId="27" fillId="10" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="171" fontId="27" fillId="10" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="171" fontId="27" fillId="10" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="171" fontId="27" fillId="10" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="171" fontId="27" fillId="10" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="171" fontId="27" fillId="10" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="171" fontId="27" fillId="10" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="171" fontId="27" fillId="10" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="171" fontId="27" fillId="10" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="171" fontId="27" fillId="10" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="171" fontId="27" fillId="10" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="171" fontId="27" fillId="10" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="171" fontId="27" fillId="10" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="171" fontId="27" fillId="10" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="171" fontId="27" fillId="10" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="171" fontId="27" fillId="10" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="171" fontId="27" fillId="10" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="171" fontId="27" fillId="10" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="171" fontId="28" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="171" fontId="28" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="171" fontId="28" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="171" fontId="28" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="171" fontId="28" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="171" fontId="28" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="171" fontId="28" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="171" fontId="28" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="171" fontId="28" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="171" fontId="29" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="171" fontId="29" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="171" fontId="29" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="171" fontId="29" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="171" fontId="29" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="171" fontId="29" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="171" fontId="29" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="171" fontId="29" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="171" fontId="29" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="171" fontId="8" fillId="0" borderId="0"/>
+    <xf numFmtId="171" fontId="8" fillId="0" borderId="0"/>
+    <xf numFmtId="171" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="171" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="171" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="171" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="171" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="171" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="171" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="171" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="171" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="171" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="171" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="171" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="171" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="171" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="171" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="171" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="171" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="171" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="171" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="171" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="171" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="171" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="171" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="171" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="171" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="171" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="171" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="171" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="171" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="171" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="171" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="171" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="171" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="171" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="171" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="171" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="171" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="171" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="171" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="171" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="171" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="171" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="171" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="171" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="171" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="171" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="171" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="171" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="171" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="171" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="171" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="171" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="171" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="171" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="171" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="171" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="171" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="171" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="171" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="171" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="171" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="171" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="171" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="171" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="171" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="171" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="171" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="171" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="171" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="171" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="171" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="171" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="171" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="171" fontId="8" fillId="0" borderId="0"/>
+    <xf numFmtId="171" fontId="8" fillId="0" borderId="0"/>
+    <xf numFmtId="171" fontId="8" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="171" fontId="8" fillId="0" borderId="0"/>
+    <xf numFmtId="171" fontId="8" fillId="0" borderId="0"/>
+    <xf numFmtId="171" fontId="8" fillId="0" borderId="0"/>
+    <xf numFmtId="171" fontId="8" fillId="0" borderId="0"/>
+    <xf numFmtId="171" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="171" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="171" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="171" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="171" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="171" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="171" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="171" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="171" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="171" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="171" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="171" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="171" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="171" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="171" fontId="40" fillId="0" borderId="0"/>
+    <xf numFmtId="171" fontId="8" fillId="0" borderId="0"/>
+    <xf numFmtId="171" fontId="8" fillId="0" borderId="0"/>
+    <xf numFmtId="171" fontId="8" fillId="0" borderId="0"/>
+    <xf numFmtId="171" fontId="8" fillId="0" borderId="0"/>
+    <xf numFmtId="171" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="171" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="171" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="171" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="171" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="171" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="171" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="171" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="171" fontId="8" fillId="0" borderId="0"/>
+    <xf numFmtId="171" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="171" fontId="8" fillId="0" borderId="0"/>
+    <xf numFmtId="171" fontId="14" fillId="0" borderId="0"/>
+    <xf numFmtId="171" fontId="14" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="171" fontId="8" fillId="0" borderId="0"/>
+    <xf numFmtId="171" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="171" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="171" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="171" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="171" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="171" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="171" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="171" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="171" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="171" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="171" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="171" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="171" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="171" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="171" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="171" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="171" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="171" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="171" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="171" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="171" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="171" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="171" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="171" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="171" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="171" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="171" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="171" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="171" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="171" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="171" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="171" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="171" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="171" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="171" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="171" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="171" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="171" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="171" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="171" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="171" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="171" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="171" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="171" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="171" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="171" fontId="8" fillId="0" borderId="0"/>
+    <xf numFmtId="171" fontId="8" fillId="0" borderId="0"/>
+    <xf numFmtId="171" fontId="8" fillId="27" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="171" fontId="8" fillId="27" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="171" fontId="8" fillId="27" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="171" fontId="8" fillId="27" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="171" fontId="8" fillId="27" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="171" fontId="8" fillId="27" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="171" fontId="8" fillId="27" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="171" fontId="8" fillId="27" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="171" fontId="8" fillId="27" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="171" fontId="8" fillId="27" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="171" fontId="8" fillId="27" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="171" fontId="8" fillId="27" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="171" fontId="8" fillId="27" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="171" fontId="8" fillId="27" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="171" fontId="8" fillId="27" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="171" fontId="8" fillId="27" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="171" fontId="8" fillId="27" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="171" fontId="8" fillId="27" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="171" fontId="8" fillId="27" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="171" fontId="8" fillId="27" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="171" fontId="8" fillId="27" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="171" fontId="8" fillId="27" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="171" fontId="8" fillId="27" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="171" fontId="8" fillId="27" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="171" fontId="8" fillId="27" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="171" fontId="8" fillId="27" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="171" fontId="8" fillId="27" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="171" fontId="8" fillId="27" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="171" fontId="8" fillId="27" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="171" fontId="8" fillId="27" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="171" fontId="8" fillId="27" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="171" fontId="8" fillId="27" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="171" fontId="8" fillId="27" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="171" fontId="8" fillId="27" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="171" fontId="8" fillId="27" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="171" fontId="8" fillId="27" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="171" fontId="8" fillId="27" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="171" fontId="8" fillId="27" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="171" fontId="8" fillId="27" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="171" fontId="8" fillId="27" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="171" fontId="8" fillId="27" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="171" fontId="8" fillId="27" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="171" fontId="8" fillId="27" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="171" fontId="8" fillId="27" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="171" fontId="8" fillId="27" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="171" fontId="8" fillId="27" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="171" fontId="8" fillId="27" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="171" fontId="8" fillId="27" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="171" fontId="8" fillId="27" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="171" fontId="8" fillId="27" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="171" fontId="8" fillId="27" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="171" fontId="8" fillId="27" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="171" fontId="8" fillId="27" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="171" fontId="8" fillId="27" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="171" fontId="8" fillId="27" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="171" fontId="8" fillId="27" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="171" fontId="8" fillId="27" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="171" fontId="8" fillId="27" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="171" fontId="8" fillId="27" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="171" fontId="8" fillId="27" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="171" fontId="8" fillId="27" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="171" fontId="8" fillId="27" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="171" fontId="8" fillId="27" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="171" fontId="8" fillId="27" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="171" fontId="8" fillId="27" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="171" fontId="8" fillId="27" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="171" fontId="8" fillId="27" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="171" fontId="8" fillId="27" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="171" fontId="8" fillId="27" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="171" fontId="8" fillId="27" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="171" fontId="8" fillId="27" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="171" fontId="8" fillId="27" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="171" fontId="8" fillId="27" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="171" fontId="8" fillId="27" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="171" fontId="8" fillId="27" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="171" fontId="8" fillId="27" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="171" fontId="8" fillId="27" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="171" fontId="8" fillId="27" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="171" fontId="8" fillId="27" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="171" fontId="8" fillId="27" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="171" fontId="8" fillId="27" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="171" fontId="8" fillId="27" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="171" fontId="8" fillId="27" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="171" fontId="8" fillId="27" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="171" fontId="8" fillId="27" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="171" fontId="8" fillId="27" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="171" fontId="8" fillId="27" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="171" fontId="8" fillId="27" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="171" fontId="8" fillId="27" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="171" fontId="8" fillId="27" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="171" fontId="8" fillId="27" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="171" fontId="8" fillId="27" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="171" fontId="8" fillId="27" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="171" fontId="8" fillId="27" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="171" fontId="8" fillId="27" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="171" fontId="8" fillId="27" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="171" fontId="8" fillId="27" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="171" fontId="8" fillId="27" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="171" fontId="8" fillId="27" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="171" fontId="8" fillId="27" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="171" fontId="8" fillId="27" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="171" fontId="8" fillId="27" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="171" fontId="8" fillId="27" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="171" fontId="8" fillId="27" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="171" fontId="8" fillId="27" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="171" fontId="8" fillId="27" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="171" fontId="8" fillId="27" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="171" fontId="8" fillId="27" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="171" fontId="8" fillId="27" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="171" fontId="8" fillId="27" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="171" fontId="8" fillId="27" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="171" fontId="8" fillId="27" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="171" fontId="8" fillId="27" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="171" fontId="8" fillId="27" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="171" fontId="8" fillId="27" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="171" fontId="8" fillId="27" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="171" fontId="8" fillId="27" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="171" fontId="8" fillId="27" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="171" fontId="8" fillId="27" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="171" fontId="8" fillId="27" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="171" fontId="8" fillId="27" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="171" fontId="8" fillId="27" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="171" fontId="8" fillId="27" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="171" fontId="8" fillId="27" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="171" fontId="8" fillId="27" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="171" fontId="8" fillId="27" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="171" fontId="8" fillId="27" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="171" fontId="8" fillId="27" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="171" fontId="8" fillId="27" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="171" fontId="8" fillId="27" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="171" fontId="8" fillId="27" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="171" fontId="8" fillId="27" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="171" fontId="8" fillId="27" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="171" fontId="8" fillId="27" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="171" fontId="8" fillId="27" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="171" fontId="8" fillId="27" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="171" fontId="8" fillId="27" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="171" fontId="8" fillId="27" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="171" fontId="8" fillId="27" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="171" fontId="8" fillId="27" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="171" fontId="8" fillId="27" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="171" fontId="8" fillId="27" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="171" fontId="8" fillId="27" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="171" fontId="8" fillId="27" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="171" fontId="8" fillId="27" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="171" fontId="8" fillId="27" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="171" fontId="8" fillId="27" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="171" fontId="8" fillId="27" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="171" fontId="8" fillId="27" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="171" fontId="8" fillId="27" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="171" fontId="8" fillId="27" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="171" fontId="8" fillId="27" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="171" fontId="8" fillId="27" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="171" fontId="8" fillId="27" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="171" fontId="8" fillId="27" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="171" fontId="8" fillId="27" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="171" fontId="8" fillId="27" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="171" fontId="8" fillId="27" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="171" fontId="8" fillId="27" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="171" fontId="8" fillId="27" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="171" fontId="8" fillId="27" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="171" fontId="8" fillId="27" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="171" fontId="8" fillId="27" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="171" fontId="8" fillId="27" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="171" fontId="8" fillId="27" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="171" fontId="8" fillId="27" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="171" fontId="8" fillId="27" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="171" fontId="8" fillId="27" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="171" fontId="8" fillId="27" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="171" fontId="8" fillId="27" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="171" fontId="8" fillId="27" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="171" fontId="8" fillId="27" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="171" fontId="8" fillId="27" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="171" fontId="8" fillId="27" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="171" fontId="8" fillId="27" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="171" fontId="8" fillId="27" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="171" fontId="8" fillId="27" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="171" fontId="8" fillId="27" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="171" fontId="8" fillId="27" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="171" fontId="8" fillId="27" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="171" fontId="8" fillId="27" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="171" fontId="8" fillId="27" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="171" fontId="8" fillId="27" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="171" fontId="8" fillId="27" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="171" fontId="8" fillId="27" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="171" fontId="8" fillId="27" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="171" fontId="8" fillId="27" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="171" fontId="8" fillId="27" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="171" fontId="8" fillId="27" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="171" fontId="8" fillId="27" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="171" fontId="8" fillId="27" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="171" fontId="8" fillId="27" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="171" fontId="8" fillId="27" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="171" fontId="8" fillId="27" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="171" fontId="8" fillId="27" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="171" fontId="8" fillId="27" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="171" fontId="8" fillId="27" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="171" fontId="8" fillId="27" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="171" fontId="8" fillId="27" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="171" fontId="8" fillId="27" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="171" fontId="8" fillId="27" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="171" fontId="8" fillId="27" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="171" fontId="8" fillId="27" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="171" fontId="8" fillId="27" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="171" fontId="8" fillId="27" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="171" fontId="8" fillId="27" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="171" fontId="8" fillId="27" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="171" fontId="8" fillId="27" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="171" fontId="8" fillId="27" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="171" fontId="8" fillId="27" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="171" fontId="8" fillId="27" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="171" fontId="8" fillId="27" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="171" fontId="8" fillId="27" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="171" fontId="8" fillId="27" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="171" fontId="8" fillId="27" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="171" fontId="8" fillId="27" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="171" fontId="8" fillId="27" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="171" fontId="8" fillId="27" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="171" fontId="8" fillId="27" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="171" fontId="8" fillId="27" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="171" fontId="8" fillId="27" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="171" fontId="8" fillId="27" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="171" fontId="8" fillId="27" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="171" fontId="8" fillId="27" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="171" fontId="8" fillId="27" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="171" fontId="8" fillId="27" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="171" fontId="8" fillId="27" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="171" fontId="8" fillId="27" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="171" fontId="8" fillId="27" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="171" fontId="8" fillId="27" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="171" fontId="8" fillId="27" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="171" fontId="8" fillId="27" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="171" fontId="8" fillId="27" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="171" fontId="8" fillId="27" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="171" fontId="8" fillId="27" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="171" fontId="8" fillId="27" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="171" fontId="8" fillId="27" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="171" fontId="8" fillId="27" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="171" fontId="8" fillId="27" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="171" fontId="8" fillId="27" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="171" fontId="8" fillId="27" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="171" fontId="8" fillId="27" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="171" fontId="8" fillId="27" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="171" fontId="8" fillId="27" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="171" fontId="8" fillId="27" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="171" fontId="8" fillId="27" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="171" fontId="8" fillId="27" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="171" fontId="8" fillId="27" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="171" fontId="8" fillId="27" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="171" fontId="8" fillId="27" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="171" fontId="8" fillId="27" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="171" fontId="8" fillId="27" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="171" fontId="8" fillId="27" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="171" fontId="8" fillId="27" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="171" fontId="8" fillId="27" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="171" fontId="8" fillId="27" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="171" fontId="8" fillId="27" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="171" fontId="8" fillId="27" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="171" fontId="8" fillId="27" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="171" fontId="8" fillId="27" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="171" fontId="8" fillId="27" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="171" fontId="8" fillId="27" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="171" fontId="8" fillId="27" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="171" fontId="8" fillId="27" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="171" fontId="8" fillId="27" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="171" fontId="8" fillId="27" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="171" fontId="8" fillId="27" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="171" fontId="8" fillId="27" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="171" fontId="8" fillId="27" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="171" fontId="8" fillId="27" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="171" fontId="30" fillId="24" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="171" fontId="30" fillId="24" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="171" fontId="30" fillId="24" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="171" fontId="30" fillId="24" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="171" fontId="30" fillId="24" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="171" fontId="30" fillId="24" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="171" fontId="30" fillId="24" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="171" fontId="30" fillId="24" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="171" fontId="30" fillId="24" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="171" fontId="30" fillId="24" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="171" fontId="30" fillId="24" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="171" fontId="30" fillId="24" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="171" fontId="30" fillId="24" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="171" fontId="30" fillId="24" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="171" fontId="30" fillId="24" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="171" fontId="30" fillId="24" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="171" fontId="30" fillId="24" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="171" fontId="30" fillId="24" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="171" fontId="30" fillId="24" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="171" fontId="30" fillId="24" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="171" fontId="30" fillId="24" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="171" fontId="30" fillId="24" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="171" fontId="30" fillId="24" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="171" fontId="30" fillId="24" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="171" fontId="30" fillId="24" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="171" fontId="30" fillId="24" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="171" fontId="30" fillId="24" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="171" fontId="30" fillId="24" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="171" fontId="30" fillId="24" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="171" fontId="30" fillId="24" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="171" fontId="30" fillId="24" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="171" fontId="30" fillId="24" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="171" fontId="30" fillId="24" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="171" fontId="30" fillId="24" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="171" fontId="30" fillId="24" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="171" fontId="30" fillId="24" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="171" fontId="30" fillId="24" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="171" fontId="30" fillId="24" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="171" fontId="30" fillId="24" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="171" fontId="30" fillId="24" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="171" fontId="30" fillId="24" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="171" fontId="30" fillId="24" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="171" fontId="30" fillId="24" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="171" fontId="30" fillId="24" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="171" fontId="30" fillId="24" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="171" fontId="30" fillId="24" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="171" fontId="30" fillId="24" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="171" fontId="30" fillId="24" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="171" fontId="30" fillId="24" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="171" fontId="30" fillId="24" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="171" fontId="30" fillId="24" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="171" fontId="30" fillId="24" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="171" fontId="30" fillId="24" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="171" fontId="30" fillId="24" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="171" fontId="30" fillId="24" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="171" fontId="30" fillId="24" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="171" fontId="30" fillId="24" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="171" fontId="30" fillId="24" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="171" fontId="30" fillId="24" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="171" fontId="30" fillId="24" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="171" fontId="30" fillId="24" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="171" fontId="30" fillId="24" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="171" fontId="30" fillId="24" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="171" fontId="30" fillId="24" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="171" fontId="30" fillId="24" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="171" fontId="30" fillId="24" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="171" fontId="30" fillId="24" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="171" fontId="30" fillId="24" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="171" fontId="30" fillId="24" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="171" fontId="30" fillId="24" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="171" fontId="30" fillId="24" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="171" fontId="30" fillId="24" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="171" fontId="30" fillId="24" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="171" fontId="30" fillId="24" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="171" fontId="30" fillId="24" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="171" fontId="30" fillId="24" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="171" fontId="30" fillId="24" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="171" fontId="30" fillId="24" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="171" fontId="30" fillId="24" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="171" fontId="30" fillId="24" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="171" fontId="30" fillId="24" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="171" fontId="30" fillId="24" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="171" fontId="30" fillId="24" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="171" fontId="30" fillId="24" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="171" fontId="30" fillId="24" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="171" fontId="30" fillId="24" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="171" fontId="30" fillId="24" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="171" fontId="30" fillId="24" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="171" fontId="30" fillId="24" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="171" fontId="30" fillId="24" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="171" fontId="30" fillId="24" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="171" fontId="30" fillId="24" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="171" fontId="30" fillId="24" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="171" fontId="30" fillId="24" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="171" fontId="30" fillId="24" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="171" fontId="30" fillId="24" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="171" fontId="30" fillId="24" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="171" fontId="30" fillId="24" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="171" fontId="30" fillId="24" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="171" fontId="30" fillId="24" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="171" fontId="30" fillId="24" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="171" fontId="30" fillId="24" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="171" fontId="30" fillId="24" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="171" fontId="30" fillId="24" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="171" fontId="30" fillId="24" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="171" fontId="30" fillId="24" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="171" fontId="30" fillId="24" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="171" fontId="30" fillId="24" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="171" fontId="30" fillId="24" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="171" fontId="30" fillId="24" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="171" fontId="30" fillId="24" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="171" fontId="30" fillId="24" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="171" fontId="30" fillId="24" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="171" fontId="30" fillId="24" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="171" fontId="30" fillId="24" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="171" fontId="30" fillId="24" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="171" fontId="30" fillId="24" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="171" fontId="30" fillId="24" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="171" fontId="30" fillId="24" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="171" fontId="30" fillId="24" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="171" fontId="30" fillId="24" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="171" fontId="30" fillId="24" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="171" fontId="30" fillId="24" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="171" fontId="30" fillId="24" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="171" fontId="30" fillId="24" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="171" fontId="30" fillId="24" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="171" fontId="30" fillId="24" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="171" fontId="30" fillId="24" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="171" fontId="30" fillId="24" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="171" fontId="30" fillId="24" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="171" fontId="30" fillId="24" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="171" fontId="30" fillId="24" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="171" fontId="30" fillId="24" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="171" fontId="30" fillId="24" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="171" fontId="30" fillId="24" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="171" fontId="30" fillId="24" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="171" fontId="30" fillId="24" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="171" fontId="30" fillId="24" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="171" fontId="30" fillId="24" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="171" fontId="30" fillId="24" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="171" fontId="30" fillId="24" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="171" fontId="30" fillId="24" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="171" fontId="30" fillId="24" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="171" fontId="30" fillId="24" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="171" fontId="30" fillId="24" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="171" fontId="30" fillId="24" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="171" fontId="30" fillId="24" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="171" fontId="30" fillId="24" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="171" fontId="30" fillId="24" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="171" fontId="30" fillId="24" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="171" fontId="30" fillId="24" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="171" fontId="30" fillId="24" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="171" fontId="30" fillId="24" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="171" fontId="30" fillId="24" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="171" fontId="30" fillId="24" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="171" fontId="30" fillId="24" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="171" fontId="30" fillId="24" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="171" fontId="30" fillId="24" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="171" fontId="30" fillId="24" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="171" fontId="30" fillId="24" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="171" fontId="30" fillId="24" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="171" fontId="30" fillId="24" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="171" fontId="30" fillId="24" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="171" fontId="30" fillId="24" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="171" fontId="30" fillId="24" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="171" fontId="30" fillId="24" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="171" fontId="30" fillId="24" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="171" fontId="30" fillId="24" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="171" fontId="30" fillId="24" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="171" fontId="30" fillId="24" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="171" fontId="30" fillId="24" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="171" fontId="30" fillId="24" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="171" fontId="30" fillId="24" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="171" fontId="30" fillId="24" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="171" fontId="30" fillId="24" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="171" fontId="30" fillId="24" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="171" fontId="30" fillId="24" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="171" fontId="30" fillId="24" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="171" fontId="30" fillId="24" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="171" fontId="30" fillId="24" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="171" fontId="30" fillId="24" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="171" fontId="30" fillId="24" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="171" fontId="30" fillId="24" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="171" fontId="30" fillId="24" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="171" fontId="30" fillId="24" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="171" fontId="30" fillId="24" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="171" fontId="30" fillId="24" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="171" fontId="30" fillId="24" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="171" fontId="30" fillId="24" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="171" fontId="30" fillId="24" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="171" fontId="30" fillId="24" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="171" fontId="30" fillId="24" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="171" fontId="30" fillId="24" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="171" fontId="30" fillId="24" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="171" fontId="30" fillId="24" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="171" fontId="30" fillId="24" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="171" fontId="30" fillId="24" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="171" fontId="30" fillId="24" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="171" fontId="30" fillId="24" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="171" fontId="30" fillId="24" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="171" fontId="30" fillId="24" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="171" fontId="30" fillId="24" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="171" fontId="30" fillId="24" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="171" fontId="30" fillId="24" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="171" fontId="30" fillId="24" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="171" fontId="30" fillId="24" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="171" fontId="30" fillId="24" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="171" fontId="30" fillId="24" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="171" fontId="30" fillId="24" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="171" fontId="30" fillId="24" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="171" fontId="30" fillId="24" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="171" fontId="30" fillId="24" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="171" fontId="30" fillId="24" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="171" fontId="30" fillId="24" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="171" fontId="30" fillId="24" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="171" fontId="30" fillId="24" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="171" fontId="30" fillId="24" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="171" fontId="30" fillId="24" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="171" fontId="30" fillId="24" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="171" fontId="30" fillId="24" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="171" fontId="30" fillId="24" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="171" fontId="30" fillId="24" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="171" fontId="30" fillId="24" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="171" fontId="30" fillId="24" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="171" fontId="30" fillId="24" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="171" fontId="30" fillId="24" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="171" fontId="30" fillId="24" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="171" fontId="30" fillId="24" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="171" fontId="30" fillId="24" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="171" fontId="30" fillId="24" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="171" fontId="30" fillId="24" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="171" fontId="30" fillId="24" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="171" fontId="30" fillId="24" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="171" fontId="30" fillId="24" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="171" fontId="30" fillId="24" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="171" fontId="30" fillId="24" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="171" fontId="30" fillId="24" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="171" fontId="30" fillId="24" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="171" fontId="30" fillId="24" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="171" fontId="30" fillId="24" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="171" fontId="30" fillId="24" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="171" fontId="30" fillId="24" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="171" fontId="30" fillId="24" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="171" fontId="30" fillId="24" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="171" fontId="30" fillId="24" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="171" fontId="30" fillId="24" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="171" fontId="30" fillId="24" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="171" fontId="30" fillId="24" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="171" fontId="30" fillId="24" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="171" fontId="30" fillId="24" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="171" fontId="30" fillId="24" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="171" fontId="30" fillId="24" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="171" fontId="30" fillId="24" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="171" fontId="30" fillId="24" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="171" fontId="30" fillId="24" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="171" fontId="30" fillId="24" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="171" fontId="30" fillId="24" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="171" fontId="30" fillId="24" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="171" fontId="30" fillId="24" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="171" fontId="30" fillId="24" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="171" fontId="30" fillId="24" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="171" fontId="30" fillId="24" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="171" fontId="30" fillId="24" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="171" fontId="30" fillId="24" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="171" fontId="30" fillId="24" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="171" fontId="30" fillId="24" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="171" fontId="30" fillId="24" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="171" fontId="30" fillId="24" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="171" fontId="30" fillId="24" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="171" fontId="30" fillId="24" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="171" fontId="31" fillId="28" borderId="0"/>
+    <xf numFmtId="171" fontId="32" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="171" fontId="32" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="171" fontId="32" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="171" fontId="32" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="171" fontId="32" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="171" fontId="32" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="171" fontId="32" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="171" fontId="32" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="171" fontId="32" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="171" fontId="33" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="171" fontId="33" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="171" fontId="33" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="171" fontId="33" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="171" fontId="33" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="171" fontId="33" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="171" fontId="33" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="171" fontId="33" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="171" fontId="33" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="171" fontId="33" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="171" fontId="33" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="171" fontId="33" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="171" fontId="33" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="171" fontId="33" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="171" fontId="33" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="171" fontId="33" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="171" fontId="33" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="171" fontId="33" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="171" fontId="33" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="171" fontId="33" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="171" fontId="33" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="171" fontId="33" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="171" fontId="33" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="171" fontId="33" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="171" fontId="33" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="171" fontId="33" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="171" fontId="33" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="171" fontId="33" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="171" fontId="33" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="171" fontId="33" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="171" fontId="33" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="171" fontId="33" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="171" fontId="33" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="171" fontId="33" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="171" fontId="33" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="171" fontId="33" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="171" fontId="33" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="171" fontId="33" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="171" fontId="33" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="171" fontId="33" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="171" fontId="33" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="171" fontId="33" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="171" fontId="33" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="171" fontId="33" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="171" fontId="33" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="171" fontId="33" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="171" fontId="33" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="171" fontId="33" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="171" fontId="33" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="171" fontId="33" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="171" fontId="33" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="171" fontId="33" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="171" fontId="33" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="171" fontId="33" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="171" fontId="33" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="171" fontId="33" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="171" fontId="33" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="171" fontId="33" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="171" fontId="33" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="171" fontId="33" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="171" fontId="33" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="171" fontId="33" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="171" fontId="33" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="171" fontId="33" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="171" fontId="33" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="171" fontId="33" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="171" fontId="33" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="171" fontId="33" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="171" fontId="33" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="171" fontId="33" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="171" fontId="33" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="171" fontId="33" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="171" fontId="33" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="171" fontId="33" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="171" fontId="33" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="171" fontId="33" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="171" fontId="33" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="171" fontId="33" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="171" fontId="33" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="171" fontId="33" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="171" fontId="33" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="171" fontId="33" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="171" fontId="33" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="171" fontId="33" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="171" fontId="33" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="171" fontId="33" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="171" fontId="33" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="171" fontId="33" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="171" fontId="33" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="171" fontId="33" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="171" fontId="33" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="171" fontId="33" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="171" fontId="33" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="171" fontId="33" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="171" fontId="33" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="171" fontId="33" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="171" fontId="33" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="171" fontId="33" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="171" fontId="33" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="171" fontId="33" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="171" fontId="33" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="171" fontId="33" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="171" fontId="33" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="171" fontId="33" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="171" fontId="33" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="171" fontId="33" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="171" fontId="33" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="171" fontId="33" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="171" fontId="33" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="171" fontId="33" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="171" fontId="33" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="171" fontId="33" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="171" fontId="33" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="171" fontId="33" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="171" fontId="33" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="171" fontId="33" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="171" fontId="33" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="171" fontId="33" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="171" fontId="33" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="171" fontId="33" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="171" fontId="33" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="171" fontId="33" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="171" fontId="33" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="171" fontId="33" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="171" fontId="33" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="171" fontId="33" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="171" fontId="33" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="171" fontId="33" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="171" fontId="33" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="171" fontId="33" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="171" fontId="33" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="171" fontId="33" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="171" fontId="33" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="171" fontId="33" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="171" fontId="33" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="171" fontId="33" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="171" fontId="33" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="171" fontId="33" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="171" fontId="33" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="171" fontId="33" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="171" fontId="33" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="171" fontId="33" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="171" fontId="33" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="171" fontId="33" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="171" fontId="33" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="171" fontId="33" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="171" fontId="33" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="171" fontId="33" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="171" fontId="33" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="171" fontId="33" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="171" fontId="33" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="171" fontId="33" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="171" fontId="33" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="171" fontId="33" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="171" fontId="33" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="171" fontId="33" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="171" fontId="33" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="171" fontId="33" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="171" fontId="33" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="171" fontId="33" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="171" fontId="33" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="171" fontId="33" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="171" fontId="33" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="171" fontId="33" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="171" fontId="33" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="171" fontId="33" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="171" fontId="33" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="171" fontId="33" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="171" fontId="33" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="171" fontId="33" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="171" fontId="33" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="171" fontId="33" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="171" fontId="33" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="171" fontId="33" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="171" fontId="33" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="171" fontId="33" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="171" fontId="33" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="171" fontId="33" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="171" fontId="33" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="171" fontId="33" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="171" fontId="33" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="171" fontId="33" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="171" fontId="33" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="171" fontId="33" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="171" fontId="33" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="171" fontId="33" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="171" fontId="33" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="171" fontId="33" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="171" fontId="33" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="171" fontId="33" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="171" fontId="33" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="171" fontId="33" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="171" fontId="33" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="171" fontId="33" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="171" fontId="33" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="171" fontId="33" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="171" fontId="33" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="171" fontId="33" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="171" fontId="33" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="171" fontId="33" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="171" fontId="33" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="171" fontId="33" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="171" fontId="33" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="171" fontId="33" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="171" fontId="33" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="171" fontId="33" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="171" fontId="33" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="171" fontId="33" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="171" fontId="33" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="171" fontId="33" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="171" fontId="33" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="171" fontId="33" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="171" fontId="33" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="171" fontId="33" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="171" fontId="33" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="171" fontId="33" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="171" fontId="33" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="171" fontId="33" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="171" fontId="33" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="171" fontId="33" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="171" fontId="33" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="171" fontId="33" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="171" fontId="33" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="171" fontId="33" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="171" fontId="33" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="171" fontId="33" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="171" fontId="33" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="171" fontId="33" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="171" fontId="33" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="171" fontId="33" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="171" fontId="33" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="171" fontId="33" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="171" fontId="33" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="171" fontId="33" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="171" fontId="33" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="171" fontId="33" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="171" fontId="33" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="171" fontId="33" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="171" fontId="33" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="171" fontId="33" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="171" fontId="33" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="171" fontId="33" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="171" fontId="33" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="171" fontId="33" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="171" fontId="33" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="171" fontId="33" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="171" fontId="33" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="171" fontId="33" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="171" fontId="33" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="171" fontId="33" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="171" fontId="33" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="171" fontId="33" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="171" fontId="33" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="171" fontId="33" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="171" fontId="33" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="171" fontId="33" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="171" fontId="33" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="171" fontId="33" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="171" fontId="33" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="171" fontId="33" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="171" fontId="33" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="171" fontId="33" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="171" fontId="33" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="171" fontId="33" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="171" fontId="33" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="171" fontId="33" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="171" fontId="33" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="171" fontId="33" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="171" fontId="33" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="171" fontId="33" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="171" fontId="34" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="171" fontId="34" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="171" fontId="34" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="171" fontId="34" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="171" fontId="34" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="171" fontId="34" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="171" fontId="34" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="171" fontId="34" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="171" fontId="34" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="3" xfId="3" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
   </cellXfs>
-  <cellStyles count="1">
-    <cellStyle name="Обычный" xfId="0" builtinId="0"/>
+  <cellStyles count="1886">
+    <cellStyle name="20% - Accent1 10" xfId="45" xr:uid="{EAD947FF-3E7B-45D8-A6E5-1A7FB5F9C926}"/>
+    <cellStyle name="20% - Accent1 2" xfId="44" xr:uid="{547F8F08-9D8B-474B-9E17-84910D17C6B7}"/>
+    <cellStyle name="20% - Accent1 3" xfId="43" xr:uid="{0CA21674-64EA-460A-AD06-A150C9A2DC07}"/>
+    <cellStyle name="20% - Accent1 4" xfId="42" xr:uid="{36DF83F6-874D-499E-821B-BE75BA64EFE3}"/>
+    <cellStyle name="20% - Accent1 5" xfId="41" xr:uid="{3A798526-4E99-443C-8D6C-F7CCD7928DCA}"/>
+    <cellStyle name="20% - Accent1 6" xfId="40" xr:uid="{B26C1844-B2E9-4C75-B2E7-9D4F7B0BF1BD}"/>
+    <cellStyle name="20% - Accent1 7" xfId="39" xr:uid="{AEBB8743-9089-4DCD-9B51-891F5D4E8D04}"/>
+    <cellStyle name="20% - Accent1 8" xfId="38" xr:uid="{EE3B9393-5174-4453-98AB-CA580A92046C}"/>
+    <cellStyle name="20% - Accent1 9" xfId="37" xr:uid="{50B4AC3E-B2FF-44A7-AB75-E4ECDC8AB030}"/>
+    <cellStyle name="20% - Accent2 10" xfId="36" xr:uid="{3C2A60DE-ABB9-4EED-8CE2-2A2B2F090863}"/>
+    <cellStyle name="20% - Accent2 2" xfId="28" xr:uid="{32B3D688-5F15-4090-8447-2A065149ACD5}"/>
+    <cellStyle name="20% - Accent2 3" xfId="35" xr:uid="{0C8DECE3-8051-4D4F-9B7B-E50A035D8102}"/>
+    <cellStyle name="20% - Accent2 4" xfId="34" xr:uid="{FB17B28E-DC49-42C0-ADE0-053602CB4F70}"/>
+    <cellStyle name="20% - Accent2 5" xfId="27" xr:uid="{683B6882-A1C9-4106-8177-D7C23AA5CE47}"/>
+    <cellStyle name="20% - Accent2 6" xfId="33" xr:uid="{31B1DC05-8010-4B05-8021-BBC4CCE31977}"/>
+    <cellStyle name="20% - Accent2 7" xfId="32" xr:uid="{6C098274-9A7E-4E76-9B79-060BEC14A72A}"/>
+    <cellStyle name="20% - Accent2 8" xfId="29" xr:uid="{2904F35F-5609-4980-8B9B-6AD738BFFE83}"/>
+    <cellStyle name="20% - Accent2 9" xfId="31" xr:uid="{5B2B9AC1-5082-411F-81C6-C9E4E19CDCA2}"/>
+    <cellStyle name="20% - Accent3 10" xfId="30" xr:uid="{E03F4C0A-C5A6-47BF-A132-BB56DA46E280}"/>
+    <cellStyle name="20% - Accent3 2" xfId="46" xr:uid="{F6B33AFD-C254-4DE4-ABE2-DF6E2479BDBB}"/>
+    <cellStyle name="20% - Accent3 3" xfId="47" xr:uid="{0F1083BD-DFA0-484F-AFB0-6E152072FC32}"/>
+    <cellStyle name="20% - Accent3 4" xfId="48" xr:uid="{399200AF-37FF-404F-BBD5-BF45930A8B55}"/>
+    <cellStyle name="20% - Accent3 5" xfId="49" xr:uid="{5B72F2F7-50BF-4AEC-A12B-3533FE738516}"/>
+    <cellStyle name="20% - Accent3 6" xfId="50" xr:uid="{C7E27017-8CCC-4B0F-B508-533484ED22FB}"/>
+    <cellStyle name="20% - Accent3 7" xfId="51" xr:uid="{06A76552-16A2-4964-93C4-0D4DDA7B18E6}"/>
+    <cellStyle name="20% - Accent3 8" xfId="52" xr:uid="{3F27A809-C8F9-453B-98B0-9D516C70BB74}"/>
+    <cellStyle name="20% - Accent3 9" xfId="53" xr:uid="{06EB02BD-9795-4C34-B293-3B9BA85D5E0C}"/>
+    <cellStyle name="20% - Accent4 10" xfId="54" xr:uid="{CE2DA70C-CC04-4006-B2CF-7025F1D29AB9}"/>
+    <cellStyle name="20% - Accent4 2" xfId="55" xr:uid="{8765FA2E-C6D9-4FA1-BE87-8985304B2172}"/>
+    <cellStyle name="20% - Accent4 3" xfId="56" xr:uid="{66AA3F42-32DA-46FC-B8F3-3DDA8B5AEAE2}"/>
+    <cellStyle name="20% - Accent4 4" xfId="57" xr:uid="{7D2D0FED-267B-4AC0-8418-199CDDF8AA84}"/>
+    <cellStyle name="20% - Accent4 5" xfId="58" xr:uid="{07EF84B7-C5FD-4C20-A325-DB78F4F8047F}"/>
+    <cellStyle name="20% - Accent4 6" xfId="59" xr:uid="{203E3B3C-D68B-4EC1-9BD4-401CFDF54181}"/>
+    <cellStyle name="20% - Accent4 7" xfId="60" xr:uid="{B5049653-DFA2-4655-BC7D-E1262FC079DF}"/>
+    <cellStyle name="20% - Accent4 8" xfId="61" xr:uid="{546B3137-676C-413E-954D-1A5853067DC2}"/>
+    <cellStyle name="20% - Accent4 9" xfId="62" xr:uid="{EF14A973-BF66-4FCC-8FF0-3BF1FF4DDCB3}"/>
+    <cellStyle name="20% - Accent5 10" xfId="63" xr:uid="{87FF80D5-3FD6-4C5D-9F19-1E43A353B391}"/>
+    <cellStyle name="20% - Accent5 2" xfId="64" xr:uid="{8DBB2CDA-D84F-4C02-B166-4AD121A5344B}"/>
+    <cellStyle name="20% - Accent5 3" xfId="65" xr:uid="{EDB557A1-7A6C-4D83-9E53-C02EFDF2E520}"/>
+    <cellStyle name="20% - Accent5 4" xfId="66" xr:uid="{09607880-1AD5-42FE-B172-B6D4159CCE1C}"/>
+    <cellStyle name="20% - Accent5 5" xfId="67" xr:uid="{9A9B7D82-363F-46A3-B463-E51D43F5F72E}"/>
+    <cellStyle name="20% - Accent5 6" xfId="68" xr:uid="{487D71C3-A550-47FD-9545-4BB351AA9E77}"/>
+    <cellStyle name="20% - Accent5 7" xfId="69" xr:uid="{F902D4BF-31E2-41DE-A9C4-8F75191CF7A7}"/>
+    <cellStyle name="20% - Accent5 8" xfId="70" xr:uid="{5E0BA729-2A3F-42F7-8B53-D655D9CD3414}"/>
+    <cellStyle name="20% - Accent5 9" xfId="71" xr:uid="{F54ADBF5-6F4F-4635-8293-15E3581F782E}"/>
+    <cellStyle name="20% - Accent6 10" xfId="72" xr:uid="{1A57E52B-B30D-4B66-A42F-6485DFCFB610}"/>
+    <cellStyle name="20% - Accent6 2" xfId="73" xr:uid="{DCCC4C7F-8D73-406F-AAFB-7D6CB59F00FB}"/>
+    <cellStyle name="20% - Accent6 3" xfId="74" xr:uid="{CC2D49BF-A666-41B8-AA41-9933E370887D}"/>
+    <cellStyle name="20% - Accent6 4" xfId="75" xr:uid="{AB24B8ED-009F-47E1-A5BC-58ACC04A43FF}"/>
+    <cellStyle name="20% - Accent6 5" xfId="76" xr:uid="{ECCF9C4C-7715-4ECE-ACC9-9E2FE1DAEECE}"/>
+    <cellStyle name="20% - Accent6 6" xfId="77" xr:uid="{F940DF74-F82F-45CC-9800-C5D32F008E86}"/>
+    <cellStyle name="20% - Accent6 7" xfId="78" xr:uid="{5E41EF77-8052-4698-9057-807990C4D350}"/>
+    <cellStyle name="20% - Accent6 8" xfId="79" xr:uid="{AC1F9371-C1B5-450C-B472-09AFE68F5720}"/>
+    <cellStyle name="20% - Accent6 9" xfId="80" xr:uid="{82275390-2E9D-44F8-B31D-45850345CC60}"/>
+    <cellStyle name="40% - Accent1 10" xfId="81" xr:uid="{9472A569-4DB8-4001-89BF-B3D484AB6639}"/>
+    <cellStyle name="40% - Accent1 2" xfId="82" xr:uid="{2D30EBD4-F2C6-4133-9CC0-CB5655DE936D}"/>
+    <cellStyle name="40% - Accent1 3" xfId="83" xr:uid="{56695B8F-419D-4766-9E39-8B287D0350EF}"/>
+    <cellStyle name="40% - Accent1 4" xfId="84" xr:uid="{F17F6B60-A7AD-491D-A0C4-01397D090853}"/>
+    <cellStyle name="40% - Accent1 5" xfId="85" xr:uid="{CBDC4D47-1657-4545-BA9D-676ADD40D741}"/>
+    <cellStyle name="40% - Accent1 6" xfId="86" xr:uid="{F2DE7631-423D-47F6-AD46-81ED67D25AB4}"/>
+    <cellStyle name="40% - Accent1 7" xfId="87" xr:uid="{CA0E55CF-79D9-4C81-9B67-F7E44FEE5100}"/>
+    <cellStyle name="40% - Accent1 8" xfId="88" xr:uid="{8D59389B-B27B-4A32-8CF8-614A81FE7ECA}"/>
+    <cellStyle name="40% - Accent1 9" xfId="89" xr:uid="{392155CD-80E8-4805-A585-F12301C9606F}"/>
+    <cellStyle name="40% - Accent2 10" xfId="90" xr:uid="{73410513-EB40-4C24-A8AE-B6B832992D2C}"/>
+    <cellStyle name="40% - Accent2 2" xfId="91" xr:uid="{835A8331-5BC9-421A-8E8B-B848D0F1728C}"/>
+    <cellStyle name="40% - Accent2 3" xfId="92" xr:uid="{A6B70ECC-8B12-4F30-BF0C-7310EA412686}"/>
+    <cellStyle name="40% - Accent2 4" xfId="93" xr:uid="{E9AF9DFE-814E-418D-9277-E7759658E719}"/>
+    <cellStyle name="40% - Accent2 5" xfId="94" xr:uid="{8C473A59-C2FE-413C-88B3-8AE0E01AFDB6}"/>
+    <cellStyle name="40% - Accent2 6" xfId="95" xr:uid="{082DB0FA-2581-4A43-A56F-BF7BB1D971E7}"/>
+    <cellStyle name="40% - Accent2 7" xfId="96" xr:uid="{5987049A-7E3F-4C36-9E7F-4B88668DD1D8}"/>
+    <cellStyle name="40% - Accent2 8" xfId="97" xr:uid="{5C2A5BB5-565B-453D-83AB-F576C946902A}"/>
+    <cellStyle name="40% - Accent2 9" xfId="98" xr:uid="{05593299-3B92-4C3B-B923-A6ACDA2A8540}"/>
+    <cellStyle name="40% - Accent3 10" xfId="99" xr:uid="{A9D0CCB9-8311-408C-9C9C-F9CCBE12BDB4}"/>
+    <cellStyle name="40% - Accent3 2" xfId="100" xr:uid="{9B98D31F-02B3-4B6C-812A-B5AAF7283F12}"/>
+    <cellStyle name="40% - Accent3 3" xfId="101" xr:uid="{893D1EA7-3276-4F2A-882E-7A74B1E87286}"/>
+    <cellStyle name="40% - Accent3 4" xfId="102" xr:uid="{1CD7D4E4-6504-48BA-9117-2CFF39BF2607}"/>
+    <cellStyle name="40% - Accent3 5" xfId="103" xr:uid="{E7B747FF-7720-4050-BE96-630C1043F820}"/>
+    <cellStyle name="40% - Accent3 6" xfId="104" xr:uid="{F007875E-6C47-4167-903B-6518873A9B56}"/>
+    <cellStyle name="40% - Accent3 7" xfId="105" xr:uid="{DAFABD91-3A78-42CB-9D41-EB3A69E469B5}"/>
+    <cellStyle name="40% - Accent3 8" xfId="106" xr:uid="{3E568499-17A2-47DC-AFC2-ED12D38DDB1E}"/>
+    <cellStyle name="40% - Accent3 9" xfId="107" xr:uid="{1816B49B-BCDB-4F49-BE27-B283C108CE8C}"/>
+    <cellStyle name="40% - Accent4 10" xfId="108" xr:uid="{3FDAD52B-1EC4-4230-B9ED-E50A4CFDF11C}"/>
+    <cellStyle name="40% - Accent4 2" xfId="109" xr:uid="{AA565826-7F0D-41AD-9A91-94179B6AB850}"/>
+    <cellStyle name="40% - Accent4 3" xfId="110" xr:uid="{AEEFF14D-0E80-487A-A8FF-ED9103060AF3}"/>
+    <cellStyle name="40% - Accent4 4" xfId="111" xr:uid="{5F516416-435C-41A7-B0EE-64A9FD3C0AAE}"/>
+    <cellStyle name="40% - Accent4 5" xfId="112" xr:uid="{9A7866B4-0A31-44FF-8EA2-6AB867D62438}"/>
+    <cellStyle name="40% - Accent4 6" xfId="113" xr:uid="{8225F64F-9EC4-4854-801E-789297382C86}"/>
+    <cellStyle name="40% - Accent4 7" xfId="114" xr:uid="{A9C3EA4F-7924-4DFB-897C-84CD2D746D3A}"/>
+    <cellStyle name="40% - Accent4 8" xfId="115" xr:uid="{AED73084-9501-4DD0-B13E-5A6009DDF589}"/>
+    <cellStyle name="40% - Accent4 9" xfId="116" xr:uid="{862BDE0A-CC00-4C24-AB9A-4534B73BE5FA}"/>
+    <cellStyle name="40% - Accent5 10" xfId="117" xr:uid="{72D5BE2F-392A-41C9-A45F-8511D4433659}"/>
+    <cellStyle name="40% - Accent5 2" xfId="118" xr:uid="{B5617301-1479-40E4-8B9D-59F5803D7561}"/>
+    <cellStyle name="40% - Accent5 3" xfId="119" xr:uid="{F1BC3323-7BA4-4B47-8B6D-4845A0CE43D3}"/>
+    <cellStyle name="40% - Accent5 4" xfId="120" xr:uid="{F1638843-7404-4305-9D3D-F2FAFD3952D9}"/>
+    <cellStyle name="40% - Accent5 5" xfId="121" xr:uid="{BCCB1100-DC29-4168-A69D-8DC290E405BE}"/>
+    <cellStyle name="40% - Accent5 6" xfId="122" xr:uid="{CBB742A2-F749-4F70-86A1-99F36BA1BCD2}"/>
+    <cellStyle name="40% - Accent5 7" xfId="123" xr:uid="{50825D55-2D24-49A1-978F-7E9AB3D3554D}"/>
+    <cellStyle name="40% - Accent5 8" xfId="124" xr:uid="{A5A0D4C6-94A2-4551-A981-C2C1BAB82C36}"/>
+    <cellStyle name="40% - Accent5 9" xfId="125" xr:uid="{3121F13F-D723-425B-BEAF-DBFC08601316}"/>
+    <cellStyle name="40% - Accent6 10" xfId="126" xr:uid="{B4326E4B-86FD-4B96-A05B-9DFD04F14649}"/>
+    <cellStyle name="40% - Accent6 2" xfId="127" xr:uid="{CC561FC8-0BEA-4952-B43C-F993E1BC1D5B}"/>
+    <cellStyle name="40% - Accent6 3" xfId="128" xr:uid="{ADCF2111-CCE6-4F79-825B-EFC87C20C082}"/>
+    <cellStyle name="40% - Accent6 4" xfId="129" xr:uid="{5B3B716C-9A72-4BD1-9C91-17FA01EF46EE}"/>
+    <cellStyle name="40% - Accent6 5" xfId="130" xr:uid="{D8F935A2-52CA-49AB-9C0E-82E6B3E205E6}"/>
+    <cellStyle name="40% - Accent6 6" xfId="131" xr:uid="{A21AA424-50A9-4228-AC98-4EA9185AA27D}"/>
+    <cellStyle name="40% - Accent6 7" xfId="132" xr:uid="{58122C39-B851-4A7D-ADBA-CBE5AED48A1F}"/>
+    <cellStyle name="40% - Accent6 8" xfId="133" xr:uid="{963A1EEA-0AEA-43E6-A52A-E8994DF8C164}"/>
+    <cellStyle name="40% - Accent6 9" xfId="134" xr:uid="{57F7CC57-FC54-4F89-83D3-8BEDB42A106A}"/>
+    <cellStyle name="60% - Accent1 10" xfId="135" xr:uid="{97CEA395-A3C4-4EDE-8055-AE14633D44D7}"/>
+    <cellStyle name="60% - Accent1 2" xfId="136" xr:uid="{E157B8B1-E015-4C1E-A090-EB72757DA16B}"/>
+    <cellStyle name="60% - Accent1 3" xfId="137" xr:uid="{4E78C0F0-9957-46CA-801C-6A6BC8F7683B}"/>
+    <cellStyle name="60% - Accent1 4" xfId="138" xr:uid="{D1EF4642-18AB-417C-BF25-2AFFE7378C47}"/>
+    <cellStyle name="60% - Accent1 5" xfId="139" xr:uid="{9CD7EFE7-1041-4FBD-975E-B6D3A24BB804}"/>
+    <cellStyle name="60% - Accent1 6" xfId="140" xr:uid="{D60ADA6A-CAF0-4A02-92BB-EF2A95804891}"/>
+    <cellStyle name="60% - Accent1 7" xfId="141" xr:uid="{8FB54EBB-92D9-4C48-BB74-5561700584F8}"/>
+    <cellStyle name="60% - Accent1 8" xfId="142" xr:uid="{FFEF3387-015F-4754-85A2-24BC487067CA}"/>
+    <cellStyle name="60% - Accent1 9" xfId="143" xr:uid="{F0E0856D-902E-4933-8DB2-52248C3B3EDB}"/>
+    <cellStyle name="60% - Accent2 10" xfId="144" xr:uid="{04EB90CD-1F7B-4492-A782-199FBC8F8478}"/>
+    <cellStyle name="60% - Accent2 2" xfId="145" xr:uid="{ECEF428D-1F6F-4C82-AD5B-EE11D8912F1F}"/>
+    <cellStyle name="60% - Accent2 3" xfId="146" xr:uid="{97530BE2-34CB-4779-A18C-CCBE88052D58}"/>
+    <cellStyle name="60% - Accent2 4" xfId="147" xr:uid="{FBE8632D-3C00-4E0D-A265-C5B47F3176AD}"/>
+    <cellStyle name="60% - Accent2 5" xfId="148" xr:uid="{D7D9A4A1-BEAC-4347-9CAF-D15CCD552046}"/>
+    <cellStyle name="60% - Accent2 6" xfId="149" xr:uid="{D004449A-3ACF-437C-BB06-B38A9EA41634}"/>
+    <cellStyle name="60% - Accent2 7" xfId="150" xr:uid="{CC0EB9CD-53F2-43F6-8A02-D65585D720D9}"/>
+    <cellStyle name="60% - Accent2 8" xfId="151" xr:uid="{24A56BC9-647D-401D-9BA5-24B7CEA08B33}"/>
+    <cellStyle name="60% - Accent2 9" xfId="152" xr:uid="{8B7EDAD5-EEDB-498F-9751-0C62A89E3B8F}"/>
+    <cellStyle name="60% - Accent3 10" xfId="153" xr:uid="{FC2044FB-37F7-43CE-9D9F-840973C1A622}"/>
+    <cellStyle name="60% - Accent3 2" xfId="154" xr:uid="{CF8EF6AD-BCCB-4DC5-BB88-33CA5A9881D9}"/>
+    <cellStyle name="60% - Accent3 3" xfId="155" xr:uid="{3BC93839-347C-410E-9ECB-BBA9850AB35F}"/>
+    <cellStyle name="60% - Accent3 4" xfId="156" xr:uid="{C41A3D6C-A2F7-449B-A60A-A29314D78FC3}"/>
+    <cellStyle name="60% - Accent3 5" xfId="157" xr:uid="{4D6D1292-77B7-4ECA-A1B4-F14631BE746F}"/>
+    <cellStyle name="60% - Accent3 6" xfId="158" xr:uid="{68CDFCA8-9D91-4E95-B802-4893F2910785}"/>
+    <cellStyle name="60% - Accent3 7" xfId="159" xr:uid="{CDD1F41E-A1BE-4093-A323-AF4CAD43C4C2}"/>
+    <cellStyle name="60% - Accent3 8" xfId="160" xr:uid="{90747341-3256-4E8A-9F47-CF0B980817D5}"/>
+    <cellStyle name="60% - Accent3 9" xfId="161" xr:uid="{C6AD8151-441D-40BB-833C-ADE827E54504}"/>
+    <cellStyle name="60% - Accent4 10" xfId="162" xr:uid="{14711D93-520F-448D-89C0-A61F0587D00F}"/>
+    <cellStyle name="60% - Accent4 2" xfId="163" xr:uid="{C5E2A9AA-F59C-4A27-8FB3-A727B2185814}"/>
+    <cellStyle name="60% - Accent4 3" xfId="164" xr:uid="{66B40E86-0C62-43FB-B978-BFB0BC5DDEBC}"/>
+    <cellStyle name="60% - Accent4 4" xfId="165" xr:uid="{396EBAAE-4994-47DF-B288-42CE26AE7093}"/>
+    <cellStyle name="60% - Accent4 5" xfId="166" xr:uid="{EAEBD106-4B6A-45E4-BB21-1B20D9A287FB}"/>
+    <cellStyle name="60% - Accent4 6" xfId="167" xr:uid="{5A595276-0FEA-4793-A27F-45B8295E026F}"/>
+    <cellStyle name="60% - Accent4 7" xfId="168" xr:uid="{DFCC94E7-5FBE-44F8-A6BD-B70F1E0476A1}"/>
+    <cellStyle name="60% - Accent4 8" xfId="169" xr:uid="{1D92BF3F-798E-4F7C-98EB-6EF50DEBE102}"/>
+    <cellStyle name="60% - Accent4 9" xfId="170" xr:uid="{3F13CC3F-91CB-4101-9125-2F569474BFFF}"/>
+    <cellStyle name="60% - Accent5 10" xfId="171" xr:uid="{E2FE5722-A18F-44D5-8E31-BFC307E17BFA}"/>
+    <cellStyle name="60% - Accent5 2" xfId="172" xr:uid="{F958EC08-EF82-4F36-BA62-CB60A17F16EE}"/>
+    <cellStyle name="60% - Accent5 3" xfId="173" xr:uid="{60392B7F-5498-4E04-A1C7-CBAC296F59D8}"/>
+    <cellStyle name="60% - Accent5 4" xfId="174" xr:uid="{C5E065B0-4D25-4B1E-9BB7-3E66F673B0D1}"/>
+    <cellStyle name="60% - Accent5 5" xfId="175" xr:uid="{3AB1C1D4-65B1-429F-A81B-DC78BB2D3C7C}"/>
+    <cellStyle name="60% - Accent5 6" xfId="176" xr:uid="{9E593730-D3DC-4234-B3A1-236DABB33A12}"/>
+    <cellStyle name="60% - Accent5 7" xfId="177" xr:uid="{78676FFC-BA66-4038-814C-37975082A6D6}"/>
+    <cellStyle name="60% - Accent5 8" xfId="178" xr:uid="{3FB9BC37-B452-4382-83A3-20A2B97579C5}"/>
+    <cellStyle name="60% - Accent5 9" xfId="179" xr:uid="{C3C41932-A5BD-466F-B752-B37935803723}"/>
+    <cellStyle name="60% - Accent6 10" xfId="180" xr:uid="{E28C6280-0922-46CD-85B4-42526C8CFF7E}"/>
+    <cellStyle name="60% - Accent6 2" xfId="181" xr:uid="{7311CFAC-20B6-41B1-BD83-8DD9E4B8104F}"/>
+    <cellStyle name="60% - Accent6 3" xfId="182" xr:uid="{0DC5B5B8-D2B9-44E8-B71F-B3A6AD371F30}"/>
+    <cellStyle name="60% - Accent6 4" xfId="183" xr:uid="{C1C51069-6355-4068-9516-7B457BC7AF73}"/>
+    <cellStyle name="60% - Accent6 5" xfId="184" xr:uid="{46DEEA98-83EC-4C48-977B-8862F134499D}"/>
+    <cellStyle name="60% - Accent6 6" xfId="185" xr:uid="{B9FDD4A1-0DF0-491C-B2DF-73D5D99F4333}"/>
+    <cellStyle name="60% - Accent6 7" xfId="186" xr:uid="{0F07CFF6-F955-459E-8F0E-4D9F3CE27B4D}"/>
+    <cellStyle name="60% - Accent6 8" xfId="187" xr:uid="{666E4D25-2765-4FD2-A91E-8CF056F05F62}"/>
+    <cellStyle name="60% - Accent6 9" xfId="188" xr:uid="{C7DAAD4B-633C-4079-B32F-52A4862D0861}"/>
+    <cellStyle name="Accent1 10" xfId="189" xr:uid="{E825C0B6-D8F6-4B6F-9B37-76276DF99C6D}"/>
+    <cellStyle name="Accent1 2" xfId="190" xr:uid="{6DD0AD7A-D896-4635-96A2-E6141088BC62}"/>
+    <cellStyle name="Accent1 3" xfId="191" xr:uid="{8CF87B6E-F733-494A-9AC9-CD54E974ACF2}"/>
+    <cellStyle name="Accent1 4" xfId="192" xr:uid="{00E2DAF8-65ED-4179-A520-5F55173923AE}"/>
+    <cellStyle name="Accent1 5" xfId="193" xr:uid="{3475FAEE-DB31-4796-A407-D8AF7A8BB7B7}"/>
+    <cellStyle name="Accent1 6" xfId="194" xr:uid="{CD38ADED-F05C-4C3D-8046-7617B739E111}"/>
+    <cellStyle name="Accent1 7" xfId="195" xr:uid="{8E8A3F02-6DDD-4053-BF42-C076D432A66C}"/>
+    <cellStyle name="Accent1 8" xfId="196" xr:uid="{659B992C-B9B7-4C50-AAA3-FFD118F26F10}"/>
+    <cellStyle name="Accent1 9" xfId="197" xr:uid="{EEF4A5BD-1EC3-4C9A-A358-88E3595BF566}"/>
+    <cellStyle name="Accent2 10" xfId="198" xr:uid="{F1AC62EC-8F64-4DDE-9C86-F4AA6AA821E8}"/>
+    <cellStyle name="Accent2 2" xfId="199" xr:uid="{33C72744-DC7A-4468-921A-E94F8988F847}"/>
+    <cellStyle name="Accent2 3" xfId="200" xr:uid="{40E5F0CE-EEBB-4F1A-8E64-9234B07FE3E6}"/>
+    <cellStyle name="Accent2 4" xfId="201" xr:uid="{3DFCAE7A-AC53-40FC-B1D2-8986A242A8D5}"/>
+    <cellStyle name="Accent2 5" xfId="202" xr:uid="{E4A18D2C-653C-44E8-9447-211FDA54FAE8}"/>
+    <cellStyle name="Accent2 6" xfId="203" xr:uid="{B037B702-4DA3-44C7-B992-AE9651D3E4C3}"/>
+    <cellStyle name="Accent2 7" xfId="204" xr:uid="{BC54E7A1-6DA2-48C8-B8DB-63AFCD82560F}"/>
+    <cellStyle name="Accent2 8" xfId="205" xr:uid="{B3D3D6FB-A88C-4ADF-A670-5034DC6CA2B8}"/>
+    <cellStyle name="Accent2 9" xfId="206" xr:uid="{3EFFFE78-34A6-4C08-910F-7FF9255E43E7}"/>
+    <cellStyle name="Accent3 10" xfId="207" xr:uid="{F44CEF08-57B0-47F1-8CA7-963BAD33F55F}"/>
+    <cellStyle name="Accent3 2" xfId="208" xr:uid="{CDB19B06-CE48-4387-BDED-399B00A2074A}"/>
+    <cellStyle name="Accent3 3" xfId="209" xr:uid="{BADA0D4C-8999-4FB6-8C30-764D832F8126}"/>
+    <cellStyle name="Accent3 4" xfId="210" xr:uid="{904D1658-A397-4DC9-A1FC-F8FF374E39FB}"/>
+    <cellStyle name="Accent3 5" xfId="211" xr:uid="{1CC82578-4805-45D0-B8E3-59402DD9CC5C}"/>
+    <cellStyle name="Accent3 6" xfId="212" xr:uid="{A6150823-6839-443F-BCDF-7EE16998DDFF}"/>
+    <cellStyle name="Accent3 7" xfId="213" xr:uid="{09845A47-3357-4D8E-BAC8-226719639318}"/>
+    <cellStyle name="Accent3 8" xfId="214" xr:uid="{EBE07201-C1AC-48BC-A570-87C99EF286A4}"/>
+    <cellStyle name="Accent3 9" xfId="215" xr:uid="{59E8C094-DF4B-4286-B8CD-345A624C224B}"/>
+    <cellStyle name="Accent4 10" xfId="216" xr:uid="{B6B0CA37-7A43-48A1-92DC-CD33B2EF42AF}"/>
+    <cellStyle name="Accent4 2" xfId="217" xr:uid="{8065225D-ECA4-488A-B026-B705CF535771}"/>
+    <cellStyle name="Accent4 3" xfId="218" xr:uid="{25495CAF-3ECD-4508-8498-BA697C2A5280}"/>
+    <cellStyle name="Accent4 4" xfId="219" xr:uid="{A2F2CE76-A543-4DA0-A334-9CDA8EBBE03D}"/>
+    <cellStyle name="Accent4 5" xfId="220" xr:uid="{34CEEB8D-2C88-43B3-9AC8-085ECB067D42}"/>
+    <cellStyle name="Accent4 6" xfId="221" xr:uid="{61CBD809-1FBA-45C2-8839-64F4D99C98C9}"/>
+    <cellStyle name="Accent4 7" xfId="222" xr:uid="{650D83D3-9223-4B1B-8B98-8FF7485037F2}"/>
+    <cellStyle name="Accent4 8" xfId="223" xr:uid="{C9751ED1-89DF-41D1-8FD0-CA70F208E4A1}"/>
+    <cellStyle name="Accent4 9" xfId="224" xr:uid="{DFD6CBB7-6779-4DC6-9981-4EEB8B88FBE0}"/>
+    <cellStyle name="Accent5 10" xfId="225" xr:uid="{2DE3AFD5-EC1F-4961-B8F0-4484FC689946}"/>
+    <cellStyle name="Accent5 2" xfId="226" xr:uid="{3A06AED6-8CF2-451C-A8B6-41C107B6840A}"/>
+    <cellStyle name="Accent5 3" xfId="227" xr:uid="{E0FF7197-EE45-43AC-A287-384E7E759364}"/>
+    <cellStyle name="Accent5 4" xfId="228" xr:uid="{288EC40D-D9EE-4800-B892-15D8F898CDEE}"/>
+    <cellStyle name="Accent5 5" xfId="229" xr:uid="{D75CBFF0-AD38-4CAB-95A3-249B5804EB93}"/>
+    <cellStyle name="Accent5 6" xfId="230" xr:uid="{82D90CF9-324D-47AB-90BD-797EB4C64DDF}"/>
+    <cellStyle name="Accent5 7" xfId="231" xr:uid="{105CD282-69DC-44A4-A7AB-092B7007612B}"/>
+    <cellStyle name="Accent5 8" xfId="232" xr:uid="{CC9C5C87-300B-4797-95B5-7204DAA644BF}"/>
+    <cellStyle name="Accent5 9" xfId="233" xr:uid="{2A4B2FEF-D28A-49FE-AE20-B19AD7E37E58}"/>
+    <cellStyle name="Accent6 10" xfId="234" xr:uid="{37EDC91A-0FDB-4DBD-ADB3-3134470B9DE9}"/>
+    <cellStyle name="Accent6 2" xfId="235" xr:uid="{DBF0E5D7-CF91-4221-9A5F-44BF741EC5B9}"/>
+    <cellStyle name="Accent6 3" xfId="236" xr:uid="{587D7DB7-615D-4487-A6EC-721047A97ADC}"/>
+    <cellStyle name="Accent6 4" xfId="237" xr:uid="{7A96ADB3-7335-4DBF-AF41-1D5A9DDA598F}"/>
+    <cellStyle name="Accent6 5" xfId="238" xr:uid="{BBF07E53-7CAF-47F3-9935-A69ADC0020A1}"/>
+    <cellStyle name="Accent6 6" xfId="239" xr:uid="{1AF77E7D-6A08-4727-97B2-804BE2C1C3E0}"/>
+    <cellStyle name="Accent6 7" xfId="240" xr:uid="{FB664C46-D8CD-4262-8DFB-66C51517DF94}"/>
+    <cellStyle name="Accent6 8" xfId="241" xr:uid="{C1B21829-82DE-48DB-A578-383DB75D6547}"/>
+    <cellStyle name="Accent6 9" xfId="242" xr:uid="{39D15DB4-EB92-4031-93FE-21EAA5CACF69}"/>
+    <cellStyle name="AFE" xfId="243" xr:uid="{866A299F-5159-4DD9-8557-BEF95EE8F7E4}"/>
+    <cellStyle name="Bad 10" xfId="244" xr:uid="{7AF2F215-2DF8-483A-9694-BFC36CE0A66C}"/>
+    <cellStyle name="Bad 2" xfId="245" xr:uid="{72699F28-2365-424D-94C1-053206FE3116}"/>
+    <cellStyle name="Bad 3" xfId="246" xr:uid="{1724B150-EE71-42E7-8DAE-1B1E6DE8E4A3}"/>
+    <cellStyle name="Bad 4" xfId="247" xr:uid="{C7606CCF-B9D1-40E7-B84A-74C121AA73F3}"/>
+    <cellStyle name="Bad 5" xfId="248" xr:uid="{0086A2EE-08A5-49C8-86D3-0A7E66792C6A}"/>
+    <cellStyle name="Bad 6" xfId="249" xr:uid="{E0F77315-0335-4554-8FB5-02FE7FFD786B}"/>
+    <cellStyle name="Bad 7" xfId="250" xr:uid="{6CC31F8B-D676-4672-81A4-C57EEE5B55E4}"/>
+    <cellStyle name="Bad 8" xfId="251" xr:uid="{01080168-D742-4DE8-B998-E41B21DFFC9B}"/>
+    <cellStyle name="Bad 9" xfId="252" xr:uid="{AD009935-356E-4C75-8C38-D36950802F34}"/>
+    <cellStyle name="Button" xfId="253" xr:uid="{BB72DB1D-77A3-4AE2-9B1A-9CF375074C3B}"/>
+    <cellStyle name="Calculation 10" xfId="254" xr:uid="{FBDB0BBA-3DAE-443E-AE24-8B7272C2936A}"/>
+    <cellStyle name="Calculation 10 10" xfId="255" xr:uid="{419DD168-5949-412D-84EF-1B8954C99147}"/>
+    <cellStyle name="Calculation 10 11" xfId="256" xr:uid="{9B28888C-71C4-428C-A682-C43D0ACAED58}"/>
+    <cellStyle name="Calculation 10 12" xfId="257" xr:uid="{3CAF4CAB-C19D-4D8E-A6BE-5DE80499D4D9}"/>
+    <cellStyle name="Calculation 10 2" xfId="258" xr:uid="{0122BF03-FE3E-4BEE-B32D-9E5EC99736DC}"/>
+    <cellStyle name="Calculation 10 2 10" xfId="259" xr:uid="{DD4E740B-C94F-4F7E-9903-1CC5BE9C1937}"/>
+    <cellStyle name="Calculation 10 2 2" xfId="260" xr:uid="{53FEB422-E0DC-425C-A136-512E16545A28}"/>
+    <cellStyle name="Calculation 10 2 3" xfId="261" xr:uid="{23E88001-2AFB-4189-82FD-38C57FD03ED9}"/>
+    <cellStyle name="Calculation 10 2 4" xfId="262" xr:uid="{9E02D369-8D61-4EF5-A9E2-21B697E02BFF}"/>
+    <cellStyle name="Calculation 10 2 5" xfId="263" xr:uid="{5D0083D9-A0A5-4BA9-9167-1D63B826A49A}"/>
+    <cellStyle name="Calculation 10 2 6" xfId="264" xr:uid="{CEAB8A97-F5CA-4E39-9201-7E89E4A82442}"/>
+    <cellStyle name="Calculation 10 2 7" xfId="265" xr:uid="{EEBD94AF-EDAB-433E-8102-B28B4B03B0DD}"/>
+    <cellStyle name="Calculation 10 2 8" xfId="266" xr:uid="{B4B75679-8DE7-4EF2-A87F-4A8969227F4F}"/>
+    <cellStyle name="Calculation 10 2 9" xfId="267" xr:uid="{B12AF9A2-4B44-4B9A-A697-D584193CA278}"/>
+    <cellStyle name="Calculation 10 3" xfId="268" xr:uid="{7047E866-8DD6-49EE-BBBC-F6347E91B463}"/>
+    <cellStyle name="Calculation 10 3 10" xfId="269" xr:uid="{20C7B2DA-88F2-4A20-A485-8964772A245E}"/>
+    <cellStyle name="Calculation 10 3 2" xfId="270" xr:uid="{9C1193BE-E10E-4446-BD71-1DF6D2699283}"/>
+    <cellStyle name="Calculation 10 3 3" xfId="271" xr:uid="{49181B5E-758A-453A-8C3E-CB8FC04D8DE4}"/>
+    <cellStyle name="Calculation 10 3 4" xfId="272" xr:uid="{E8A97C64-3777-4F8D-B4DE-3ED7F425D64A}"/>
+    <cellStyle name="Calculation 10 3 5" xfId="273" xr:uid="{5840C1B6-8663-4702-8FDF-A8EBF8ACD9A6}"/>
+    <cellStyle name="Calculation 10 3 6" xfId="274" xr:uid="{E3CC37AE-34C0-4E3B-A145-AAE811B79CD3}"/>
+    <cellStyle name="Calculation 10 3 7" xfId="275" xr:uid="{8FF67697-6EF4-4D5D-91D3-85611556A9CD}"/>
+    <cellStyle name="Calculation 10 3 8" xfId="276" xr:uid="{DFF44979-E55E-445C-A79D-32B2D69D40D7}"/>
+    <cellStyle name="Calculation 10 3 9" xfId="277" xr:uid="{C4FE42EF-CA7B-4A91-A318-0F93D366252C}"/>
+    <cellStyle name="Calculation 10 4" xfId="278" xr:uid="{75A3703A-D87B-43CB-A143-5778B7013D23}"/>
+    <cellStyle name="Calculation 10 5" xfId="279" xr:uid="{45361788-D522-4D3B-8CA7-6E5B7EC87405}"/>
+    <cellStyle name="Calculation 10 6" xfId="280" xr:uid="{ED321BEE-B754-4F41-BCBE-B7553D79A95C}"/>
+    <cellStyle name="Calculation 10 7" xfId="281" xr:uid="{5151C012-63D5-4C25-8039-826722DB536D}"/>
+    <cellStyle name="Calculation 10 8" xfId="282" xr:uid="{A1CABA6D-DB97-4DDD-90F3-E365D7E9E79D}"/>
+    <cellStyle name="Calculation 10 9" xfId="283" xr:uid="{120576EB-7D2E-4C39-955A-133F7DBEAA8A}"/>
+    <cellStyle name="Calculation 11" xfId="284" xr:uid="{B8EC2F75-F707-4ED9-9958-B0B6BFD5AF01}"/>
+    <cellStyle name="Calculation 2" xfId="285" xr:uid="{D751C8B3-969E-454A-8B96-88C89186B260}"/>
+    <cellStyle name="Calculation 2 10" xfId="286" xr:uid="{67C7AFAE-F300-45B3-84E4-32FBC1E879CC}"/>
+    <cellStyle name="Calculation 2 11" xfId="287" xr:uid="{B3508E8B-6CD7-4EE0-A7DF-0AC839C32431}"/>
+    <cellStyle name="Calculation 2 12" xfId="288" xr:uid="{11312323-7536-41DE-B449-A99F086241E7}"/>
+    <cellStyle name="Calculation 2 2" xfId="289" xr:uid="{CDA9DA23-69D8-4C88-824C-4676F5AFB6EC}"/>
+    <cellStyle name="Calculation 2 2 10" xfId="290" xr:uid="{829CF9E2-119D-42DE-868D-706E97000104}"/>
+    <cellStyle name="Calculation 2 2 2" xfId="291" xr:uid="{6A087C16-CF65-4C40-8556-91E39B78F97A}"/>
+    <cellStyle name="Calculation 2 2 3" xfId="292" xr:uid="{44EC4F3D-F425-423D-8CB0-E297CFF1ADE1}"/>
+    <cellStyle name="Calculation 2 2 4" xfId="293" xr:uid="{F1351411-7985-4D0E-923B-D8FEF722108B}"/>
+    <cellStyle name="Calculation 2 2 5" xfId="294" xr:uid="{B894C56C-D53C-4C78-B2F5-86F89EB2827A}"/>
+    <cellStyle name="Calculation 2 2 6" xfId="295" xr:uid="{27F868B7-3CDD-46C1-A07B-72801A1A025F}"/>
+    <cellStyle name="Calculation 2 2 7" xfId="296" xr:uid="{9C9444BE-31F7-431D-8FCD-E0E29C87BFB6}"/>
+    <cellStyle name="Calculation 2 2 8" xfId="297" xr:uid="{1D844FEE-4ACC-47EC-BE55-9605E199C1E5}"/>
+    <cellStyle name="Calculation 2 2 9" xfId="298" xr:uid="{DB78A161-86BF-495D-AC7D-351E09074429}"/>
+    <cellStyle name="Calculation 2 3" xfId="299" xr:uid="{8E31425D-B4FD-47B6-87F4-AB38F6E78CE7}"/>
+    <cellStyle name="Calculation 2 3 10" xfId="300" xr:uid="{109E10F7-22DC-480E-9011-C76994EE9A4A}"/>
+    <cellStyle name="Calculation 2 3 2" xfId="301" xr:uid="{F94EC8F3-0CC8-42F4-B124-07CF74FC2BEE}"/>
+    <cellStyle name="Calculation 2 3 3" xfId="302" xr:uid="{AFC4D211-E9CC-44F8-A7CA-01F4FB579933}"/>
+    <cellStyle name="Calculation 2 3 4" xfId="303" xr:uid="{9701462B-A2DA-432F-A69C-E21EB7C5034C}"/>
+    <cellStyle name="Calculation 2 3 5" xfId="304" xr:uid="{7FCA4959-2BB0-4C70-B566-DF49988F60BC}"/>
+    <cellStyle name="Calculation 2 3 6" xfId="305" xr:uid="{1B96EA85-7E3A-4665-A328-AFBEBB98DCA5}"/>
+    <cellStyle name="Calculation 2 3 7" xfId="306" xr:uid="{B0FCDF3F-29FC-4B97-BDE7-9EA0FB27CFDD}"/>
+    <cellStyle name="Calculation 2 3 8" xfId="307" xr:uid="{D4B049E8-325A-427D-AF63-5605609FF1B5}"/>
+    <cellStyle name="Calculation 2 3 9" xfId="308" xr:uid="{35EA6AB7-6291-4438-8512-1A99793DB1CB}"/>
+    <cellStyle name="Calculation 2 4" xfId="309" xr:uid="{1698CA74-1F75-471A-A5B4-9D7472F0C242}"/>
+    <cellStyle name="Calculation 2 5" xfId="310" xr:uid="{827FA99B-5B71-48B3-AE7B-CE0B3FD431AC}"/>
+    <cellStyle name="Calculation 2 6" xfId="311" xr:uid="{E0024E26-4A38-4FAC-8882-6C048BD0855F}"/>
+    <cellStyle name="Calculation 2 7" xfId="312" xr:uid="{DF10445B-4E89-4A5B-831A-9F650D65A336}"/>
+    <cellStyle name="Calculation 2 8" xfId="313" xr:uid="{122D3E2A-00E1-42BB-B34A-77952C456799}"/>
+    <cellStyle name="Calculation 2 9" xfId="314" xr:uid="{6FF19F65-9326-4DB8-A569-CCE0B7B6BDEA}"/>
+    <cellStyle name="Calculation 3" xfId="315" xr:uid="{170D1EE3-FE74-45E3-BC77-32627B96611E}"/>
+    <cellStyle name="Calculation 3 10" xfId="316" xr:uid="{30570898-3E2C-4D5E-A12D-68B3EE554E56}"/>
+    <cellStyle name="Calculation 3 11" xfId="317" xr:uid="{99DA9453-E0FE-4581-9199-B3C763619D9D}"/>
+    <cellStyle name="Calculation 3 12" xfId="318" xr:uid="{DAB16E64-DE6E-475A-A04A-FD1C7CEA1A2B}"/>
+    <cellStyle name="Calculation 3 2" xfId="319" xr:uid="{F76FC5A1-1D12-4ACA-A8F8-AE1AC3CAA43D}"/>
+    <cellStyle name="Calculation 3 2 10" xfId="320" xr:uid="{438827ED-6F9D-4857-A540-B3DFF54E293D}"/>
+    <cellStyle name="Calculation 3 2 2" xfId="321" xr:uid="{C550A794-B63C-431C-95F4-C50612C29F95}"/>
+    <cellStyle name="Calculation 3 2 3" xfId="322" xr:uid="{494C9498-1C1C-448A-9D6D-CDD5C2BFB484}"/>
+    <cellStyle name="Calculation 3 2 4" xfId="323" xr:uid="{8DC3AF91-F09C-4D91-8679-D0D6B25F33D7}"/>
+    <cellStyle name="Calculation 3 2 5" xfId="324" xr:uid="{F3F58DC7-3C30-4907-8DFF-AB9345E65FFF}"/>
+    <cellStyle name="Calculation 3 2 6" xfId="325" xr:uid="{A0423995-1B2F-4FB5-8B1E-06474C2FD006}"/>
+    <cellStyle name="Calculation 3 2 7" xfId="326" xr:uid="{315EB5DF-F6F8-484C-9D37-C66F2A08634C}"/>
+    <cellStyle name="Calculation 3 2 8" xfId="327" xr:uid="{C0C8F899-1005-4D5B-AE41-D529CF752AE7}"/>
+    <cellStyle name="Calculation 3 2 9" xfId="328" xr:uid="{28DD6066-D65B-482A-83EC-9389D28B3C4F}"/>
+    <cellStyle name="Calculation 3 3" xfId="329" xr:uid="{D78B84E9-0AA9-4B2A-81C2-73419006E296}"/>
+    <cellStyle name="Calculation 3 3 10" xfId="330" xr:uid="{97B7F945-CC95-4C3F-88BB-DDFE580A653D}"/>
+    <cellStyle name="Calculation 3 3 2" xfId="331" xr:uid="{65D1777E-006B-4BE9-8DF7-0BF17AD65CF8}"/>
+    <cellStyle name="Calculation 3 3 3" xfId="332" xr:uid="{46F0C5FA-79A9-4A7F-8068-DA34FA435F3F}"/>
+    <cellStyle name="Calculation 3 3 4" xfId="333" xr:uid="{613E6473-F68F-4B94-AF55-C77605DE0E9E}"/>
+    <cellStyle name="Calculation 3 3 5" xfId="334" xr:uid="{823DFAD5-CE20-444E-B531-25E43DE72BBF}"/>
+    <cellStyle name="Calculation 3 3 6" xfId="335" xr:uid="{2AD864ED-404D-4BB1-9BCF-9446CE6B0204}"/>
+    <cellStyle name="Calculation 3 3 7" xfId="336" xr:uid="{2A3F75F3-FAAF-48DD-9897-9F7868B71E7B}"/>
+    <cellStyle name="Calculation 3 3 8" xfId="337" xr:uid="{681FB3C3-7B03-4BA5-8AF8-88C0D325977C}"/>
+    <cellStyle name="Calculation 3 3 9" xfId="338" xr:uid="{0048E798-7D23-46E3-9F09-B8068E2492DF}"/>
+    <cellStyle name="Calculation 3 4" xfId="339" xr:uid="{9997D68D-FFBD-4A6D-A9E6-E864C566A037}"/>
+    <cellStyle name="Calculation 3 5" xfId="340" xr:uid="{01C6B491-9FE1-40CE-BCFE-CD23DC0918EF}"/>
+    <cellStyle name="Calculation 3 6" xfId="341" xr:uid="{13C97614-676A-43E2-912B-635F419009B9}"/>
+    <cellStyle name="Calculation 3 7" xfId="342" xr:uid="{F943B4FA-08D5-4741-BB52-649E550C18E7}"/>
+    <cellStyle name="Calculation 3 8" xfId="343" xr:uid="{5F6F501C-B1D5-46F7-BBD6-D819B3B288F7}"/>
+    <cellStyle name="Calculation 3 9" xfId="344" xr:uid="{7C56F492-5BA1-44DF-9744-394B855EF897}"/>
+    <cellStyle name="Calculation 4" xfId="345" xr:uid="{FF36AA6A-F569-4327-8B7D-240B8C8B8992}"/>
+    <cellStyle name="Calculation 4 10" xfId="346" xr:uid="{5C9B6F34-4162-43B3-A8F2-5DE6563C0EE4}"/>
+    <cellStyle name="Calculation 4 11" xfId="347" xr:uid="{E2A3D20F-FDC1-4899-BD72-E33E329D39A9}"/>
+    <cellStyle name="Calculation 4 12" xfId="348" xr:uid="{36820E03-977C-451E-A554-F4ECC1F9C4C1}"/>
+    <cellStyle name="Calculation 4 2" xfId="349" xr:uid="{62E42168-0D5F-4093-8D64-014F11F99D12}"/>
+    <cellStyle name="Calculation 4 2 10" xfId="350" xr:uid="{64982F58-6683-4E4D-9F66-A37C8E7BD4EA}"/>
+    <cellStyle name="Calculation 4 2 2" xfId="351" xr:uid="{018903A6-C4CF-4DC8-88DC-A0FE80116245}"/>
+    <cellStyle name="Calculation 4 2 3" xfId="352" xr:uid="{3E9F348D-A1C3-4828-9F35-8DA99A641174}"/>
+    <cellStyle name="Calculation 4 2 4" xfId="353" xr:uid="{9C61FFD3-424C-471D-9C4C-631958BCF353}"/>
+    <cellStyle name="Calculation 4 2 5" xfId="354" xr:uid="{E43FF05A-1516-47D5-BB5B-DA850770741A}"/>
+    <cellStyle name="Calculation 4 2 6" xfId="355" xr:uid="{5C1A99BC-0D1B-46C6-B948-6AAFA38A71E6}"/>
+    <cellStyle name="Calculation 4 2 7" xfId="356" xr:uid="{FEE2606B-78FC-4B15-BDE1-E28AEC4CDC04}"/>
+    <cellStyle name="Calculation 4 2 8" xfId="357" xr:uid="{F6268CDB-77FA-4491-8099-0E083C4AAA06}"/>
+    <cellStyle name="Calculation 4 2 9" xfId="358" xr:uid="{A94B8172-63C2-4EA1-881E-395333BD574E}"/>
+    <cellStyle name="Calculation 4 3" xfId="359" xr:uid="{0624F990-B695-4E41-B158-B07F5590F67C}"/>
+    <cellStyle name="Calculation 4 3 10" xfId="360" xr:uid="{BE594AF5-36AB-4704-9BDD-D8EBF179A8E2}"/>
+    <cellStyle name="Calculation 4 3 2" xfId="361" xr:uid="{7EA250D1-7568-42E3-A11A-C3BE309FAD2F}"/>
+    <cellStyle name="Calculation 4 3 3" xfId="362" xr:uid="{26588230-8710-4FD9-8B1F-BF9AF2D165CB}"/>
+    <cellStyle name="Calculation 4 3 4" xfId="363" xr:uid="{C87738A9-F92F-421A-A709-908295DB52C1}"/>
+    <cellStyle name="Calculation 4 3 5" xfId="364" xr:uid="{F49171A5-AD58-4A54-BF2E-08211CBBA03B}"/>
+    <cellStyle name="Calculation 4 3 6" xfId="365" xr:uid="{D5205663-59D7-454E-80D4-0937249F9E01}"/>
+    <cellStyle name="Calculation 4 3 7" xfId="366" xr:uid="{636BD8DF-5E8A-4E90-BACD-FCF4DD3DCE21}"/>
+    <cellStyle name="Calculation 4 3 8" xfId="367" xr:uid="{9E7377BD-D4E6-45F1-86EC-A28F7B6F9B46}"/>
+    <cellStyle name="Calculation 4 3 9" xfId="368" xr:uid="{19FAC395-EA11-45E8-AF73-F1E647F3B168}"/>
+    <cellStyle name="Calculation 4 4" xfId="369" xr:uid="{1922A97E-2FCB-4941-98D6-9F643B6020D6}"/>
+    <cellStyle name="Calculation 4 5" xfId="370" xr:uid="{FD0AC33F-7B2E-4761-B054-DCF226A7E7D7}"/>
+    <cellStyle name="Calculation 4 6" xfId="371" xr:uid="{F35BC84D-3DF9-4CDF-BF66-408646DDD2F9}"/>
+    <cellStyle name="Calculation 4 7" xfId="372" xr:uid="{9D90DC4E-927E-4743-8BAC-AA3A880AD600}"/>
+    <cellStyle name="Calculation 4 8" xfId="373" xr:uid="{E8CD3C23-7DA8-47FD-B7FE-07BD90C18518}"/>
+    <cellStyle name="Calculation 4 9" xfId="374" xr:uid="{2E6FC1F4-CF04-4ACA-91E7-438C84A11A49}"/>
+    <cellStyle name="Calculation 5" xfId="375" xr:uid="{64878FCF-972E-45DD-908B-25A380F905AF}"/>
+    <cellStyle name="Calculation 5 10" xfId="376" xr:uid="{0D7FB668-8E50-45F0-AFE2-3249A606C197}"/>
+    <cellStyle name="Calculation 5 11" xfId="377" xr:uid="{B338692F-A2F5-49BE-A306-8CD32BEDBBA5}"/>
+    <cellStyle name="Calculation 5 12" xfId="378" xr:uid="{192B7E32-1D47-4D7D-9B05-566F79EB2F46}"/>
+    <cellStyle name="Calculation 5 2" xfId="379" xr:uid="{092593E8-E01D-401B-B372-40CB6D18FA75}"/>
+    <cellStyle name="Calculation 5 2 10" xfId="380" xr:uid="{34198283-F176-4B18-8E48-2C1C84B6DA1D}"/>
+    <cellStyle name="Calculation 5 2 2" xfId="381" xr:uid="{6DA1D673-37AF-4650-9869-2CA0CB3CE097}"/>
+    <cellStyle name="Calculation 5 2 3" xfId="382" xr:uid="{05F90F47-C18C-4BDE-BD54-210267E456A9}"/>
+    <cellStyle name="Calculation 5 2 4" xfId="383" xr:uid="{8D4C9127-7510-4AAD-A152-A4F874B3DF02}"/>
+    <cellStyle name="Calculation 5 2 5" xfId="384" xr:uid="{A0F896EC-6CBC-4319-A390-611ECFB31046}"/>
+    <cellStyle name="Calculation 5 2 6" xfId="385" xr:uid="{A1241205-5F72-408A-93D4-D5104A0C6DA6}"/>
+    <cellStyle name="Calculation 5 2 7" xfId="386" xr:uid="{127CF606-728B-49A5-9DAA-362C4D055D2E}"/>
+    <cellStyle name="Calculation 5 2 8" xfId="387" xr:uid="{C1100EF7-16C9-4542-82AA-06B0C99CFDB0}"/>
+    <cellStyle name="Calculation 5 2 9" xfId="388" xr:uid="{8A226B8F-205B-46AB-AD18-ABE98845BE54}"/>
+    <cellStyle name="Calculation 5 3" xfId="389" xr:uid="{703A2E8E-01E2-45BB-B637-5F90863FB121}"/>
+    <cellStyle name="Calculation 5 3 10" xfId="390" xr:uid="{306D4E33-54C5-47DD-BB2E-175F559BCF7B}"/>
+    <cellStyle name="Calculation 5 3 2" xfId="391" xr:uid="{0C65A09B-41D2-45E4-9EFE-83C0585B5224}"/>
+    <cellStyle name="Calculation 5 3 3" xfId="392" xr:uid="{4DB75B64-C046-411B-B368-65D858EF61AD}"/>
+    <cellStyle name="Calculation 5 3 4" xfId="393" xr:uid="{6C786BFE-8818-4DA6-9F62-7EF9122C660B}"/>
+    <cellStyle name="Calculation 5 3 5" xfId="394" xr:uid="{998C1FFD-81A5-41EF-BAA7-84A46AB2F882}"/>
+    <cellStyle name="Calculation 5 3 6" xfId="395" xr:uid="{5935DE76-91CA-458C-B9E3-6B02C78BC755}"/>
+    <cellStyle name="Calculation 5 3 7" xfId="396" xr:uid="{12029A41-4557-4702-984F-1FBD7D90FD0A}"/>
+    <cellStyle name="Calculation 5 3 8" xfId="397" xr:uid="{3DFBFDD9-9E48-4E74-B923-FF215426B9E5}"/>
+    <cellStyle name="Calculation 5 3 9" xfId="398" xr:uid="{FB0F270B-6CFD-4AAB-8841-CBB7C17A7FA9}"/>
+    <cellStyle name="Calculation 5 4" xfId="399" xr:uid="{D9AD8590-BC7D-4873-8A0C-125C2F27799A}"/>
+    <cellStyle name="Calculation 5 5" xfId="400" xr:uid="{2673C70E-3690-42E7-8D8C-B783A55D53CD}"/>
+    <cellStyle name="Calculation 5 6" xfId="401" xr:uid="{A5EEB214-D782-4542-A19E-4BFB3B0B18B0}"/>
+    <cellStyle name="Calculation 5 7" xfId="402" xr:uid="{C252BEB6-A3E8-41C1-873B-600F984C0E78}"/>
+    <cellStyle name="Calculation 5 8" xfId="403" xr:uid="{52D83C86-4F97-4A10-803B-7AD6ACDD2E8F}"/>
+    <cellStyle name="Calculation 5 9" xfId="404" xr:uid="{2AF27906-E45E-4AFF-901F-9190F77617EA}"/>
+    <cellStyle name="Calculation 6" xfId="405" xr:uid="{A39C2876-19D9-4FC1-8AC5-839DC3A605A0}"/>
+    <cellStyle name="Calculation 6 10" xfId="406" xr:uid="{00DFB9A0-F5C2-442D-9A33-DAD939AE926C}"/>
+    <cellStyle name="Calculation 6 11" xfId="407" xr:uid="{D1A350BD-FAA5-42C7-8F13-E92A2B1040D3}"/>
+    <cellStyle name="Calculation 6 12" xfId="408" xr:uid="{FF8E9611-BF11-4B75-BD81-9FB136A781DF}"/>
+    <cellStyle name="Calculation 6 2" xfId="409" xr:uid="{1B45A1EE-5A29-4D86-8512-379A19D8C89C}"/>
+    <cellStyle name="Calculation 6 2 10" xfId="410" xr:uid="{CE274C83-E54A-4C75-B38F-8E9553E516AC}"/>
+    <cellStyle name="Calculation 6 2 2" xfId="411" xr:uid="{ECF063F5-4F94-4C9F-8C7A-40A819846FAE}"/>
+    <cellStyle name="Calculation 6 2 3" xfId="412" xr:uid="{3F487BCF-1D48-4A74-98F7-EA776C3C2CA8}"/>
+    <cellStyle name="Calculation 6 2 4" xfId="413" xr:uid="{159305EC-2E5E-470D-9CAB-ADC620CD5B1D}"/>
+    <cellStyle name="Calculation 6 2 5" xfId="414" xr:uid="{1C60668F-7568-4775-9F8A-9E9A979D5368}"/>
+    <cellStyle name="Calculation 6 2 6" xfId="415" xr:uid="{7BDAFBE4-1B25-4C7F-92B3-B9E7F886A907}"/>
+    <cellStyle name="Calculation 6 2 7" xfId="416" xr:uid="{6C8F4113-BD8A-47BC-AD8E-4EEC3B07C608}"/>
+    <cellStyle name="Calculation 6 2 8" xfId="417" xr:uid="{7CAC9ABD-B083-44A9-B5CA-96B9E77E5234}"/>
+    <cellStyle name="Calculation 6 2 9" xfId="418" xr:uid="{AD714820-2DDA-4F44-B65F-5CA6DCFB9993}"/>
+    <cellStyle name="Calculation 6 3" xfId="419" xr:uid="{5778D798-49A8-41B8-A7B1-AB393774B818}"/>
+    <cellStyle name="Calculation 6 3 10" xfId="420" xr:uid="{AB46CA82-F818-4CD7-A71B-623AC51A1552}"/>
+    <cellStyle name="Calculation 6 3 2" xfId="421" xr:uid="{D0858396-D98B-4E4A-9ECA-0A318296AACC}"/>
+    <cellStyle name="Calculation 6 3 3" xfId="422" xr:uid="{C25BC70F-0076-4793-99E1-66274BFB505C}"/>
+    <cellStyle name="Calculation 6 3 4" xfId="423" xr:uid="{95E3FABD-32FB-4779-B5B2-3B9FA3C64568}"/>
+    <cellStyle name="Calculation 6 3 5" xfId="424" xr:uid="{6B4BADE6-E6CB-496F-98C4-C394DC4F6126}"/>
+    <cellStyle name="Calculation 6 3 6" xfId="425" xr:uid="{1DA98D33-5B6C-4E48-B749-DF48F0E0E161}"/>
+    <cellStyle name="Calculation 6 3 7" xfId="426" xr:uid="{F1F62512-89D0-4905-AF9F-1A1E6CC76243}"/>
+    <cellStyle name="Calculation 6 3 8" xfId="427" xr:uid="{27BFD4FB-AD09-4A15-B46C-8ACE545564D4}"/>
+    <cellStyle name="Calculation 6 3 9" xfId="428" xr:uid="{57D43117-49E3-4237-A5A6-A7A6364113C2}"/>
+    <cellStyle name="Calculation 6 4" xfId="429" xr:uid="{EA173D07-8317-4449-B7AF-DBCDD70942EA}"/>
+    <cellStyle name="Calculation 6 5" xfId="430" xr:uid="{6A0486B4-F850-4E75-8D44-3287FD5A4E46}"/>
+    <cellStyle name="Calculation 6 6" xfId="431" xr:uid="{5A11115E-B028-49E0-BAB1-C3CE8798E48D}"/>
+    <cellStyle name="Calculation 6 7" xfId="432" xr:uid="{CCA45A5B-8D41-490E-994D-4F978CE69CB8}"/>
+    <cellStyle name="Calculation 6 8" xfId="433" xr:uid="{EBACF640-DB00-41FD-BDCD-209DBB4E7C5C}"/>
+    <cellStyle name="Calculation 6 9" xfId="434" xr:uid="{314B5546-C36E-4354-8E92-56BF3D79967C}"/>
+    <cellStyle name="Calculation 7" xfId="435" xr:uid="{C10F0C52-04C4-4201-828D-001C7A544498}"/>
+    <cellStyle name="Calculation 7 10" xfId="436" xr:uid="{B8125C3B-919C-4561-9827-71A09EFF3BDF}"/>
+    <cellStyle name="Calculation 7 11" xfId="437" xr:uid="{2B2A18FD-D1D2-4F43-BAD2-4326506AA823}"/>
+    <cellStyle name="Calculation 7 12" xfId="438" xr:uid="{DC04AB6A-2358-464F-8459-37A08FB6A513}"/>
+    <cellStyle name="Calculation 7 2" xfId="439" xr:uid="{BCF97F0C-A2C2-48B3-BB22-54EEA74C8EE6}"/>
+    <cellStyle name="Calculation 7 2 10" xfId="440" xr:uid="{96806216-84FD-47EB-8B96-740448DCD7AF}"/>
+    <cellStyle name="Calculation 7 2 2" xfId="441" xr:uid="{72D16174-6BD4-49D1-A985-6B7AF62D0B26}"/>
+    <cellStyle name="Calculation 7 2 3" xfId="442" xr:uid="{3BDFD85C-FF03-48DE-B151-600DA5AEE63C}"/>
+    <cellStyle name="Calculation 7 2 4" xfId="443" xr:uid="{B7EB67D0-D91B-480A-8687-9772775BFF3C}"/>
+    <cellStyle name="Calculation 7 2 5" xfId="444" xr:uid="{104CD51D-560C-47B1-BCFD-4D59DD0EDA52}"/>
+    <cellStyle name="Calculation 7 2 6" xfId="445" xr:uid="{DBE631C1-D93E-47F5-BDD0-C3B08A3AFFE7}"/>
+    <cellStyle name="Calculation 7 2 7" xfId="446" xr:uid="{81ED916E-592E-4DEB-A511-D0E6B43FA887}"/>
+    <cellStyle name="Calculation 7 2 8" xfId="447" xr:uid="{8AFADEE1-E313-4F82-8906-893E35DFDDDF}"/>
+    <cellStyle name="Calculation 7 2 9" xfId="448" xr:uid="{76B0848B-B03F-42BC-9907-35C397C6CEC5}"/>
+    <cellStyle name="Calculation 7 3" xfId="449" xr:uid="{22E21B81-4A4D-4230-ADCC-020532FBEB92}"/>
+    <cellStyle name="Calculation 7 3 10" xfId="450" xr:uid="{C5B26E35-0269-438C-8546-4E2CF3E66217}"/>
+    <cellStyle name="Calculation 7 3 2" xfId="451" xr:uid="{F11B038D-E57B-450D-BF04-88B41FE664A6}"/>
+    <cellStyle name="Calculation 7 3 3" xfId="452" xr:uid="{2E4B830A-97AB-44FD-92A5-BA5D174C3244}"/>
+    <cellStyle name="Calculation 7 3 4" xfId="453" xr:uid="{993639ED-1F28-4173-B2BD-AF024A147942}"/>
+    <cellStyle name="Calculation 7 3 5" xfId="454" xr:uid="{449083C2-C4EF-4189-BABF-75F24D301429}"/>
+    <cellStyle name="Calculation 7 3 6" xfId="455" xr:uid="{F901CB83-9402-4A3D-A0F3-F862452D1BB9}"/>
+    <cellStyle name="Calculation 7 3 7" xfId="456" xr:uid="{85E9D00F-E6B3-479B-8AF1-42950A6398D1}"/>
+    <cellStyle name="Calculation 7 3 8" xfId="457" xr:uid="{D66D2014-5BE2-4232-90E0-CFD259D85128}"/>
+    <cellStyle name="Calculation 7 3 9" xfId="458" xr:uid="{D1E99665-72D2-481D-9558-CC69542F427C}"/>
+    <cellStyle name="Calculation 7 4" xfId="459" xr:uid="{B40950C0-2899-489E-8F73-2288C74EEAEE}"/>
+    <cellStyle name="Calculation 7 5" xfId="460" xr:uid="{74F548D8-68EA-4925-A9C1-F7765AE5FE57}"/>
+    <cellStyle name="Calculation 7 6" xfId="461" xr:uid="{4E9B5C6C-2A14-4ABE-98E1-EEC35B6225F2}"/>
+    <cellStyle name="Calculation 7 7" xfId="462" xr:uid="{45979090-6F51-4658-8AB8-F525086B72E9}"/>
+    <cellStyle name="Calculation 7 8" xfId="463" xr:uid="{F0018B28-6576-479F-B0FD-D93785ADF858}"/>
+    <cellStyle name="Calculation 7 9" xfId="464" xr:uid="{8A6F576E-7339-4F26-B69C-326AF6DF59B6}"/>
+    <cellStyle name="Calculation 8" xfId="465" xr:uid="{2E99ABD0-29AF-46BB-B7D9-C710C5D12183}"/>
+    <cellStyle name="Calculation 8 10" xfId="466" xr:uid="{D96A80D4-7551-4070-BFB5-6CA439008967}"/>
+    <cellStyle name="Calculation 8 11" xfId="467" xr:uid="{75A228CC-D709-4003-8D88-2CF7BD56B74F}"/>
+    <cellStyle name="Calculation 8 12" xfId="468" xr:uid="{4076229D-4A50-4D88-A06F-1BDB9C6C13AB}"/>
+    <cellStyle name="Calculation 8 2" xfId="469" xr:uid="{626E9561-1E76-428E-B049-A122EBBD6112}"/>
+    <cellStyle name="Calculation 8 2 10" xfId="470" xr:uid="{EC22676E-2D05-4589-AA8F-1C4AC32EBE26}"/>
+    <cellStyle name="Calculation 8 2 2" xfId="471" xr:uid="{EE170655-CE57-403A-9496-A4F2F3732B0F}"/>
+    <cellStyle name="Calculation 8 2 3" xfId="472" xr:uid="{77E4E81A-43EB-4134-B32B-69F6032C0357}"/>
+    <cellStyle name="Calculation 8 2 4" xfId="473" xr:uid="{61964437-DBFA-4F27-AE1A-FA56F9729C30}"/>
+    <cellStyle name="Calculation 8 2 5" xfId="474" xr:uid="{F3141CCD-1FE8-445F-A5BA-043991D675D2}"/>
+    <cellStyle name="Calculation 8 2 6" xfId="475" xr:uid="{1784D9DA-0E08-406D-94E8-C46C0919FB4B}"/>
+    <cellStyle name="Calculation 8 2 7" xfId="476" xr:uid="{6D18E7D9-9289-4986-B09B-10DB22F95748}"/>
+    <cellStyle name="Calculation 8 2 8" xfId="477" xr:uid="{FABFE0DF-45F6-4CCD-AE3B-B575FBE14D9E}"/>
+    <cellStyle name="Calculation 8 2 9" xfId="478" xr:uid="{0C8B424F-B031-4D70-AAB9-1B6FC5AD85B2}"/>
+    <cellStyle name="Calculation 8 3" xfId="479" xr:uid="{94BA24BC-F60D-4BAC-A00E-2868CB1F4E62}"/>
+    <cellStyle name="Calculation 8 3 10" xfId="480" xr:uid="{BC1FF112-F908-4B92-8FBE-47792FCB005F}"/>
+    <cellStyle name="Calculation 8 3 2" xfId="481" xr:uid="{2C8D1539-DBCB-45B5-BE55-413DDBA40BC2}"/>
+    <cellStyle name="Calculation 8 3 3" xfId="482" xr:uid="{88CE6E81-40B2-44F6-9EDF-80B5172CCDDA}"/>
+    <cellStyle name="Calculation 8 3 4" xfId="483" xr:uid="{E2154AC5-1B3B-4FC1-A9D7-17966C5A0DE1}"/>
+    <cellStyle name="Calculation 8 3 5" xfId="484" xr:uid="{EE579C85-6DCB-418C-94F7-A434BFE9A8B5}"/>
+    <cellStyle name="Calculation 8 3 6" xfId="485" xr:uid="{54674637-4099-4013-A269-EEA9CFC20F54}"/>
+    <cellStyle name="Calculation 8 3 7" xfId="486" xr:uid="{82E01B2D-66F9-434A-BD3B-9E0904906926}"/>
+    <cellStyle name="Calculation 8 3 8" xfId="487" xr:uid="{5C425F78-E92B-452D-8A63-86BBEC0904FF}"/>
+    <cellStyle name="Calculation 8 3 9" xfId="488" xr:uid="{FD25ECAD-1446-4B53-BCE8-EF513D60F00B}"/>
+    <cellStyle name="Calculation 8 4" xfId="489" xr:uid="{D698497F-B1CA-417C-BDCB-12623FC0B841}"/>
+    <cellStyle name="Calculation 8 5" xfId="490" xr:uid="{6A35EC2F-B195-4C94-991B-82C30759CF31}"/>
+    <cellStyle name="Calculation 8 6" xfId="491" xr:uid="{3896EC5F-F6EF-49DA-9AD7-45429C4D25AB}"/>
+    <cellStyle name="Calculation 8 7" xfId="492" xr:uid="{C1F4E6C6-5A11-45A6-A752-99A27110C291}"/>
+    <cellStyle name="Calculation 8 8" xfId="493" xr:uid="{6695C09F-3691-466E-9C3A-1513713922D7}"/>
+    <cellStyle name="Calculation 8 9" xfId="494" xr:uid="{A8D0D0D6-DBDF-496A-BF7C-8522054BB261}"/>
+    <cellStyle name="Calculation 9" xfId="495" xr:uid="{07F2C7BC-8611-4EE5-9208-714E197B2999}"/>
+    <cellStyle name="Calculation 9 10" xfId="496" xr:uid="{30B8622C-1326-48BB-ACB2-6BB97E0B1E50}"/>
+    <cellStyle name="Calculation 9 11" xfId="497" xr:uid="{C0681389-FB94-44D4-A13D-C81B001A6A70}"/>
+    <cellStyle name="Calculation 9 12" xfId="498" xr:uid="{11D1C27A-D98E-4EFC-9C6A-0AD937F02F41}"/>
+    <cellStyle name="Calculation 9 2" xfId="499" xr:uid="{CB260E11-645B-4D80-8605-8DD33891C524}"/>
+    <cellStyle name="Calculation 9 2 10" xfId="500" xr:uid="{84BD0F7A-8A88-4B7C-8B2C-4CFB73FA7213}"/>
+    <cellStyle name="Calculation 9 2 2" xfId="501" xr:uid="{82B931A2-A16B-4D62-8E90-7BFF59EFE663}"/>
+    <cellStyle name="Calculation 9 2 3" xfId="502" xr:uid="{595889DE-9CB7-4818-8378-EF43E9D8254F}"/>
+    <cellStyle name="Calculation 9 2 4" xfId="503" xr:uid="{8AD39309-C196-46EB-A58F-FAF6865CA5C1}"/>
+    <cellStyle name="Calculation 9 2 5" xfId="504" xr:uid="{8C3E4C7B-F6CE-4221-9A8F-9D86663C3524}"/>
+    <cellStyle name="Calculation 9 2 6" xfId="505" xr:uid="{54CCCDA7-0E74-42CB-8C94-E1E704FA35CF}"/>
+    <cellStyle name="Calculation 9 2 7" xfId="506" xr:uid="{226C8686-9026-499C-8256-ABB31585396B}"/>
+    <cellStyle name="Calculation 9 2 8" xfId="507" xr:uid="{3D6AA0CF-E630-457D-873B-AF21FAD5CCF5}"/>
+    <cellStyle name="Calculation 9 2 9" xfId="508" xr:uid="{A067E756-7F65-41C6-ABC4-088C70631E91}"/>
+    <cellStyle name="Calculation 9 3" xfId="509" xr:uid="{2DED7671-C6C9-4D6C-81C1-A40D1883E0E5}"/>
+    <cellStyle name="Calculation 9 3 10" xfId="510" xr:uid="{EBFC4D4F-4F67-4281-AC11-4851C73A89A6}"/>
+    <cellStyle name="Calculation 9 3 2" xfId="511" xr:uid="{12E23040-86A4-4C02-A012-8E2939233EF8}"/>
+    <cellStyle name="Calculation 9 3 3" xfId="512" xr:uid="{A2F4AEB1-F5F5-4B02-BD94-96E8C4A80DAD}"/>
+    <cellStyle name="Calculation 9 3 4" xfId="513" xr:uid="{FE5645DD-D2F3-432F-8FD4-18FAE6A79562}"/>
+    <cellStyle name="Calculation 9 3 5" xfId="514" xr:uid="{965DB51B-E5FD-4735-8399-A5FDC963A92D}"/>
+    <cellStyle name="Calculation 9 3 6" xfId="515" xr:uid="{8D246385-86C0-4AEB-882B-B8AFFE403084}"/>
+    <cellStyle name="Calculation 9 3 7" xfId="516" xr:uid="{544BA5A8-1E14-4DEA-BA66-0448CDA67229}"/>
+    <cellStyle name="Calculation 9 3 8" xfId="517" xr:uid="{703EF567-67F9-4B95-A9BE-9E69D40D84F7}"/>
+    <cellStyle name="Calculation 9 3 9" xfId="518" xr:uid="{60FD240D-6841-4AC5-86E3-24AD83303E15}"/>
+    <cellStyle name="Calculation 9 4" xfId="519" xr:uid="{D74898E2-FB50-4660-9EB8-2A651D4AB513}"/>
+    <cellStyle name="Calculation 9 5" xfId="520" xr:uid="{30CCAF7B-1B43-428A-B70B-CBFE771EEC94}"/>
+    <cellStyle name="Calculation 9 6" xfId="521" xr:uid="{7F5ED41D-CE63-4BD5-9C19-9EE8A770401C}"/>
+    <cellStyle name="Calculation 9 7" xfId="522" xr:uid="{D6F9EB5A-D30D-4CE9-8C12-209E0C40E7C1}"/>
+    <cellStyle name="Calculation 9 8" xfId="523" xr:uid="{F9BDB975-BB5F-4E11-9FDD-46B7FD28A4CE}"/>
+    <cellStyle name="Calculation 9 9" xfId="524" xr:uid="{B5F5669A-C6C5-4535-B3E7-6FE900F509F6}"/>
+    <cellStyle name="Check Cell 10" xfId="525" xr:uid="{2959620E-C8D4-41D9-81AC-B5879CFC8042}"/>
+    <cellStyle name="Check Cell 2" xfId="526" xr:uid="{F1B683B7-2C67-4A9A-B43D-D2851AE345D3}"/>
+    <cellStyle name="Check Cell 3" xfId="527" xr:uid="{D8AC3748-DA0C-4CA2-AF11-4865875DFBCC}"/>
+    <cellStyle name="Check Cell 4" xfId="528" xr:uid="{A99E3B67-0BC9-4AFC-A1B5-83E2FC61BC53}"/>
+    <cellStyle name="Check Cell 5" xfId="529" xr:uid="{22C31DF9-AB03-4E9A-A630-9BD8515FE084}"/>
+    <cellStyle name="Check Cell 6" xfId="530" xr:uid="{1444F8DF-20A7-4D82-BC1D-0C627931BBBD}"/>
+    <cellStyle name="Check Cell 7" xfId="531" xr:uid="{8D3F421A-6685-4800-922B-52E00B7F5798}"/>
+    <cellStyle name="Check Cell 8" xfId="532" xr:uid="{B00D4E32-46EE-4032-B1F0-2DE0F09B9C7C}"/>
+    <cellStyle name="Check Cell 9" xfId="533" xr:uid="{17FE3CCE-EB25-4AD1-A3E3-4E256A6A84F3}"/>
+    <cellStyle name="Column Heading" xfId="534" xr:uid="{3327518F-4B58-4F26-9205-9C20DE7DC01D}"/>
+    <cellStyle name="Comma 2" xfId="8" xr:uid="{0401A9DB-6080-4B2F-8B31-A04E2FCE8A7F}"/>
+    <cellStyle name="Component Header" xfId="535" xr:uid="{870E2189-0069-490B-AEE7-52D696179BBC}"/>
+    <cellStyle name="Component Heading" xfId="536" xr:uid="{63374E47-BF21-4E97-8BD6-3B14A3246602}"/>
+    <cellStyle name="Currency 2" xfId="9" xr:uid="{29AB96A5-05B8-457A-9D0F-EAE2A0FD8D46}"/>
+    <cellStyle name="Explanatory Text 10" xfId="537" xr:uid="{D60BC63D-1399-48EC-8950-7CD35C204575}"/>
+    <cellStyle name="Explanatory Text 2" xfId="538" xr:uid="{51A79ED8-7551-44ED-8002-110B26E10245}"/>
+    <cellStyle name="Explanatory Text 3" xfId="539" xr:uid="{75311F86-F9DC-4DFD-8E99-1FFED7B6AE3B}"/>
+    <cellStyle name="Explanatory Text 4" xfId="540" xr:uid="{BE19B998-D2F5-4273-ACCA-649D00F6A516}"/>
+    <cellStyle name="Explanatory Text 5" xfId="541" xr:uid="{6AD9DC8C-6913-4A38-867A-445BBC0FC33B}"/>
+    <cellStyle name="Explanatory Text 6" xfId="542" xr:uid="{3AF74BF3-B3C1-4562-9FC4-946D21F8E421}"/>
+    <cellStyle name="Explanatory Text 7" xfId="543" xr:uid="{319A6538-1A54-4102-9AC8-229AF57B6A08}"/>
+    <cellStyle name="Explanatory Text 8" xfId="544" xr:uid="{F02C8DFD-BB52-455A-B64B-3FFCFA3418E6}"/>
+    <cellStyle name="Explanatory Text 9" xfId="545" xr:uid="{D10AD500-4BA3-4F1E-BD34-522B329C8A83}"/>
+    <cellStyle name="First attribute link" xfId="546" xr:uid="{E140A3E5-51EF-4CED-BAB7-85CD06B47CFC}"/>
+    <cellStyle name="Good 10" xfId="547" xr:uid="{75BCDF9F-6792-4A3D-974B-C7AEBBEFD263}"/>
+    <cellStyle name="Good 2" xfId="548" xr:uid="{B7FC83C1-212D-42FC-8074-7E9697F78866}"/>
+    <cellStyle name="Good 3" xfId="549" xr:uid="{224FB8C7-C8E1-46D4-A03A-B78452FFBD04}"/>
+    <cellStyle name="Good 4" xfId="550" xr:uid="{E50F465E-25F0-41EE-89A6-070C5AECF0BF}"/>
+    <cellStyle name="Good 5" xfId="551" xr:uid="{5C350BBD-1E73-4730-8036-33C8D7DA0BFA}"/>
+    <cellStyle name="Good 6" xfId="552" xr:uid="{AF0A8292-D2F1-471A-B165-FCBFC3BBB755}"/>
+    <cellStyle name="Good 7" xfId="553" xr:uid="{ECD6A3E9-DA29-4C48-8DEA-41ADEE8D8B23}"/>
+    <cellStyle name="Good 8" xfId="554" xr:uid="{2B127BD0-0AE4-4556-B2A3-52C7191A3224}"/>
+    <cellStyle name="Good 9" xfId="555" xr:uid="{04144460-C312-4E1D-A6BF-B3DB610B7087}"/>
+    <cellStyle name="Heading 1 10" xfId="556" xr:uid="{492EBB61-F4B9-491E-BB49-E66AC4DD519A}"/>
+    <cellStyle name="Heading 1 2" xfId="557" xr:uid="{FC785DDD-2871-49F1-B375-E856DB4A7398}"/>
+    <cellStyle name="Heading 1 3" xfId="558" xr:uid="{70711E36-B88C-4AB0-8169-7A9781DBFC9F}"/>
+    <cellStyle name="Heading 1 4" xfId="559" xr:uid="{E8FB58CD-EA7F-4509-BA9F-57F292461A1F}"/>
+    <cellStyle name="Heading 1 5" xfId="560" xr:uid="{FA50A0B7-6E77-428B-AE50-F8B267C132C9}"/>
+    <cellStyle name="Heading 1 6" xfId="561" xr:uid="{2426EFB0-2E70-412E-8257-C22D1EA23192}"/>
+    <cellStyle name="Heading 1 7" xfId="562" xr:uid="{6CB6DA35-CFCB-4B79-B946-B712D30010DB}"/>
+    <cellStyle name="Heading 1 8" xfId="563" xr:uid="{6F60913C-C854-4EC8-B60A-C79F8ED37CB1}"/>
+    <cellStyle name="Heading 1 9" xfId="564" xr:uid="{EDB8E497-1CBA-4C8B-8591-431EC3FF47AF}"/>
+    <cellStyle name="Heading 2 10" xfId="565" xr:uid="{4AFB7032-389D-458D-A54C-B91C6407196D}"/>
+    <cellStyle name="Heading 2 11" xfId="566" xr:uid="{1726E656-D7FC-477C-975C-27228641FDB0}"/>
+    <cellStyle name="Heading 2 2" xfId="6" xr:uid="{CFC71669-186A-4819-8FCB-36B9E4DB22C2}"/>
+    <cellStyle name="Heading 2 2 2" xfId="568" xr:uid="{6D952E9E-04F9-4A99-98E9-7621D5FB2AAE}"/>
+    <cellStyle name="Heading 2 2 3" xfId="567" xr:uid="{EAC1FB12-16F7-4B9E-93DA-6812EDD58362}"/>
+    <cellStyle name="Heading 2 3" xfId="569" xr:uid="{E88E6228-AE05-4CFE-9368-3DAD83D69F2C}"/>
+    <cellStyle name="Heading 2 4" xfId="570" xr:uid="{A159FE29-E4F5-48E5-B856-A1A85EA8DB75}"/>
+    <cellStyle name="Heading 2 5" xfId="571" xr:uid="{A3AD5ED3-08C3-4F63-9AE2-DEED5DC994A6}"/>
+    <cellStyle name="Heading 2 6" xfId="572" xr:uid="{116998B6-C4F6-4BF8-BA82-BE5C3844D9F7}"/>
+    <cellStyle name="Heading 2 7" xfId="573" xr:uid="{AFE70140-109C-49E9-8970-64AFAA1AA64A}"/>
+    <cellStyle name="Heading 2 8" xfId="574" xr:uid="{10C4560A-3C2B-4E1C-B749-0047D88A63E4}"/>
+    <cellStyle name="Heading 2 9" xfId="575" xr:uid="{7A27332B-8D91-4FF2-B547-41AF482C15AC}"/>
+    <cellStyle name="Heading 3 10" xfId="576" xr:uid="{A77099BA-1543-42AA-A3D5-035E72E19CD9}"/>
+    <cellStyle name="Heading 3 11" xfId="577" xr:uid="{7F3F081C-950C-4D0F-9417-880ED4045D18}"/>
+    <cellStyle name="Heading 3 11 2" xfId="578" xr:uid="{455F2A3C-FFC6-40CA-AA24-829E35DB99C4}"/>
+    <cellStyle name="Heading 3 2" xfId="579" xr:uid="{D0B2E16E-A015-411E-BF9F-90E1161151DE}"/>
+    <cellStyle name="Heading 3 3" xfId="580" xr:uid="{37D0DB4E-E74F-462D-B298-9E8E253F230D}"/>
+    <cellStyle name="Heading 3 4" xfId="581" xr:uid="{0F8B2D67-1E93-493B-8547-51AE47CDF985}"/>
+    <cellStyle name="Heading 3 5" xfId="582" xr:uid="{63C1A6FD-0697-4AD6-8DEE-A2D83B379D22}"/>
+    <cellStyle name="Heading 3 6" xfId="583" xr:uid="{71BCC343-7E1B-4F09-8875-D70143504434}"/>
+    <cellStyle name="Heading 3 7" xfId="584" xr:uid="{5FDD7D0C-4F6B-4AC3-B11F-47877B1542B1}"/>
+    <cellStyle name="Heading 3 8" xfId="585" xr:uid="{B9B1B896-FC14-467E-BE8D-2B8443015FB1}"/>
+    <cellStyle name="Heading 3 9" xfId="586" xr:uid="{8A827313-A6C8-444F-9381-731F486557DC}"/>
+    <cellStyle name="Heading 4 10" xfId="587" xr:uid="{096A11A6-02E1-46BF-B451-655294D3DD66}"/>
+    <cellStyle name="Heading 4 2" xfId="588" xr:uid="{C9090FFE-7D71-4DF9-94A9-4C0B6DE52D4F}"/>
+    <cellStyle name="Heading 4 3" xfId="589" xr:uid="{9902B6EE-87CB-4D63-BA29-F5AD87E528E9}"/>
+    <cellStyle name="Heading 4 4" xfId="590" xr:uid="{8476B623-D250-4D1F-9820-05C51A37C4E7}"/>
+    <cellStyle name="Heading 4 5" xfId="591" xr:uid="{42FD2826-FA5F-41F9-8FA5-E67B6CDBD579}"/>
+    <cellStyle name="Heading 4 6" xfId="592" xr:uid="{E3F5C358-D8F5-4CD8-A3A5-9609F0C94976}"/>
+    <cellStyle name="Heading 4 7" xfId="593" xr:uid="{FDF43CF9-45CB-4753-B218-C58049F8E662}"/>
+    <cellStyle name="Heading 4 8" xfId="594" xr:uid="{B356BBC4-2B0E-4D0E-9889-5795B5EEDAF8}"/>
+    <cellStyle name="Heading 4 9" xfId="595" xr:uid="{A93C8235-A762-4729-9401-2498F9BBDDBE}"/>
+    <cellStyle name="headings" xfId="596" xr:uid="{B610714B-BBC2-4814-8214-5698059D7583}"/>
+    <cellStyle name="Hyperlink 2" xfId="10" xr:uid="{F9B7EE15-FEFA-474C-9DD1-6619BEAB9C64}"/>
+    <cellStyle name="Hyperlink 2 2" xfId="598" xr:uid="{C18357AC-8279-492E-8901-EF379AD0B24E}"/>
+    <cellStyle name="Hyperlink 2 3" xfId="597" xr:uid="{9AA54F61-3310-43BE-9372-CEDEF93CB094}"/>
+    <cellStyle name="Hyperlink 3" xfId="11" xr:uid="{D9BC7B3A-353E-4CF7-BF04-262633D84BDD}"/>
+    <cellStyle name="Hyperlink 3 2" xfId="599" xr:uid="{FD6528C5-3A77-46F0-A7A0-7925D20EFD34}"/>
+    <cellStyle name="Input 10" xfId="600" xr:uid="{56C50710-990B-4249-A775-425336F6ED94}"/>
+    <cellStyle name="Input 10 10" xfId="601" xr:uid="{084D2C02-FC67-4545-AC5D-9E8A6F16CE13}"/>
+    <cellStyle name="Input 10 11" xfId="602" xr:uid="{24AC759F-ABD4-4D13-A036-8C88338A0CBE}"/>
+    <cellStyle name="Input 10 12" xfId="603" xr:uid="{BBA7F608-969F-41E9-8E98-80AF12794855}"/>
+    <cellStyle name="Input 10 2" xfId="604" xr:uid="{077367ED-101C-4296-AC91-EF3313BCBEF3}"/>
+    <cellStyle name="Input 10 2 10" xfId="605" xr:uid="{DC0458F0-75A6-40B9-BF72-9C56C29B5592}"/>
+    <cellStyle name="Input 10 2 2" xfId="606" xr:uid="{8D9FF63E-ADC0-44E5-B583-B3C7B5E8BF8B}"/>
+    <cellStyle name="Input 10 2 3" xfId="607" xr:uid="{D3AEC82A-4C9B-4847-8F8D-63EE9D0084FF}"/>
+    <cellStyle name="Input 10 2 4" xfId="608" xr:uid="{B03B8B01-30D8-4DD7-A381-1989C317735D}"/>
+    <cellStyle name="Input 10 2 5" xfId="609" xr:uid="{2EE9129B-84DE-4026-835F-7B0781268A51}"/>
+    <cellStyle name="Input 10 2 6" xfId="610" xr:uid="{43D668F9-684F-4D12-9F6F-35D3942BCAB3}"/>
+    <cellStyle name="Input 10 2 7" xfId="611" xr:uid="{9B495690-4C8A-4391-A5ED-25F76A7D32E2}"/>
+    <cellStyle name="Input 10 2 8" xfId="612" xr:uid="{AB2E057A-27AE-4FAF-B12D-08C4B55F7911}"/>
+    <cellStyle name="Input 10 2 9" xfId="613" xr:uid="{275B8FE0-98B9-4994-840F-847D2AFAF958}"/>
+    <cellStyle name="Input 10 3" xfId="614" xr:uid="{2A524897-3C57-4984-BF8D-467FBB822747}"/>
+    <cellStyle name="Input 10 3 10" xfId="615" xr:uid="{75A0C831-9077-4926-88CD-0EF9B949A1CF}"/>
+    <cellStyle name="Input 10 3 2" xfId="616" xr:uid="{55F92640-4E30-45DD-8C6A-DCAD6688A851}"/>
+    <cellStyle name="Input 10 3 3" xfId="617" xr:uid="{99554B9E-44D3-4346-B4A0-9F68BA219861}"/>
+    <cellStyle name="Input 10 3 4" xfId="618" xr:uid="{6DC0E808-F36A-4504-BCD2-BF384B048C7F}"/>
+    <cellStyle name="Input 10 3 5" xfId="619" xr:uid="{D2ED13B7-5AC1-46E6-B1F3-CB7F47840A10}"/>
+    <cellStyle name="Input 10 3 6" xfId="620" xr:uid="{B3763799-58E0-48A1-A699-D49172FCAE21}"/>
+    <cellStyle name="Input 10 3 7" xfId="621" xr:uid="{3D5959DA-EA3F-4603-8636-55DE30BB5863}"/>
+    <cellStyle name="Input 10 3 8" xfId="622" xr:uid="{01B0A296-6E86-4922-B042-453B72A9DA3C}"/>
+    <cellStyle name="Input 10 3 9" xfId="623" xr:uid="{996B484D-B98E-4A89-9CF9-DD13A505CCD4}"/>
+    <cellStyle name="Input 10 4" xfId="624" xr:uid="{65EE5054-F665-45A5-BEFA-244C66C6E1FC}"/>
+    <cellStyle name="Input 10 5" xfId="625" xr:uid="{4BAB68C5-6AAA-44BA-9520-C73EB13A288F}"/>
+    <cellStyle name="Input 10 6" xfId="626" xr:uid="{6B39C83D-33D1-4E8C-AF37-B69D898A592A}"/>
+    <cellStyle name="Input 10 7" xfId="627" xr:uid="{FC23258F-6536-451A-A850-647C10868AC5}"/>
+    <cellStyle name="Input 10 8" xfId="628" xr:uid="{0E8553C8-635F-4A4B-BA36-8D5824CE8683}"/>
+    <cellStyle name="Input 10 9" xfId="629" xr:uid="{0C441645-42B0-4E0A-87DE-3FCEC1CAB4F6}"/>
+    <cellStyle name="Input 2" xfId="630" xr:uid="{EE9F78D8-5EA8-4AE8-B5ED-CA15093B42FB}"/>
+    <cellStyle name="Input 2 10" xfId="631" xr:uid="{335E1699-A0CB-4B6C-B03E-6D3E6FE9F166}"/>
+    <cellStyle name="Input 2 11" xfId="632" xr:uid="{ACAD9870-2016-4458-9D83-0E59F34ED3EC}"/>
+    <cellStyle name="Input 2 12" xfId="633" xr:uid="{5EF2A76D-844E-441E-93CD-9FAE4B5FCF5B}"/>
+    <cellStyle name="Input 2 2" xfId="634" xr:uid="{39EA0586-D9CD-4981-BCDA-14FA65A8D363}"/>
+    <cellStyle name="Input 2 2 10" xfId="635" xr:uid="{509FC38D-3908-4F88-B669-F3EFA63AC6B3}"/>
+    <cellStyle name="Input 2 2 2" xfId="636" xr:uid="{2A2D9A5A-6077-499E-AC08-514526123DC8}"/>
+    <cellStyle name="Input 2 2 3" xfId="637" xr:uid="{8006494A-1083-4758-AF10-006C0FE4CFBF}"/>
+    <cellStyle name="Input 2 2 4" xfId="638" xr:uid="{556EE90F-8DC8-4B65-826D-B6F56899329A}"/>
+    <cellStyle name="Input 2 2 5" xfId="639" xr:uid="{E88EDDAA-B79B-4B29-B69F-FC99908FAF50}"/>
+    <cellStyle name="Input 2 2 6" xfId="640" xr:uid="{9457DBEB-FAA6-4C9E-ABA0-B850FA3E5602}"/>
+    <cellStyle name="Input 2 2 7" xfId="641" xr:uid="{832DE15F-0587-4A4B-B874-299EC9B6FF1A}"/>
+    <cellStyle name="Input 2 2 8" xfId="642" xr:uid="{9D700A0A-F298-4A4A-9901-641FE6A34C30}"/>
+    <cellStyle name="Input 2 2 9" xfId="643" xr:uid="{A51CE1A7-F64E-4B10-A5AC-A9CD619FE7FD}"/>
+    <cellStyle name="Input 2 3" xfId="644" xr:uid="{8F9A6F96-3760-42F3-A23D-611C3201AB2A}"/>
+    <cellStyle name="Input 2 3 10" xfId="645" xr:uid="{C0A0AB6C-8A9E-4434-850B-C72416CCCA03}"/>
+    <cellStyle name="Input 2 3 2" xfId="646" xr:uid="{1B3D81B3-5DF0-4399-81F7-3AEDC9C22C11}"/>
+    <cellStyle name="Input 2 3 3" xfId="647" xr:uid="{8EF91609-55AB-4D3C-B5CF-32D0CA26FB45}"/>
+    <cellStyle name="Input 2 3 4" xfId="648" xr:uid="{00F0B16B-62CD-4C81-B4D3-3D76FF452B7F}"/>
+    <cellStyle name="Input 2 3 5" xfId="649" xr:uid="{DB834DA0-0133-4302-ABA5-38F17CB9C2A4}"/>
+    <cellStyle name="Input 2 3 6" xfId="650" xr:uid="{A36BE043-3741-4272-837E-9E7A136237A9}"/>
+    <cellStyle name="Input 2 3 7" xfId="651" xr:uid="{F1305369-FCC0-4846-8E9C-130D43E7B03C}"/>
+    <cellStyle name="Input 2 3 8" xfId="652" xr:uid="{1087F19C-8D0C-4E46-8331-4A9B091412AF}"/>
+    <cellStyle name="Input 2 3 9" xfId="653" xr:uid="{B3F3C410-32F9-4552-9D82-C9A7505BA35D}"/>
+    <cellStyle name="Input 2 4" xfId="654" xr:uid="{83031DA1-7DF2-4BA1-9B68-B82EFD42C4FF}"/>
+    <cellStyle name="Input 2 5" xfId="655" xr:uid="{FBA78952-C71E-4199-AEAC-C2AE45ECA872}"/>
+    <cellStyle name="Input 2 6" xfId="656" xr:uid="{DD917A88-724E-4AD2-A00D-2A4CF50334BF}"/>
+    <cellStyle name="Input 2 7" xfId="657" xr:uid="{854ED88F-C1F9-4480-82DB-A2D3649EDBA4}"/>
+    <cellStyle name="Input 2 8" xfId="658" xr:uid="{F0BC361F-EEA0-4FD9-AA78-70B844F1B5A8}"/>
+    <cellStyle name="Input 2 9" xfId="659" xr:uid="{0E4C3757-17F2-458E-AF1E-E1AC38AE0771}"/>
+    <cellStyle name="Input 3" xfId="660" xr:uid="{F5A047E8-3584-474E-BF2F-E35C0BCBF89D}"/>
+    <cellStyle name="Input 3 10" xfId="661" xr:uid="{D076F761-1A9C-4061-8F96-CD2DBAE4F4B4}"/>
+    <cellStyle name="Input 3 11" xfId="662" xr:uid="{6DECBBCF-5504-46F9-A07F-C773EB34A5A1}"/>
+    <cellStyle name="Input 3 12" xfId="663" xr:uid="{6BC951F1-C1DF-4D53-91DA-11B5AFEF7855}"/>
+    <cellStyle name="Input 3 2" xfId="664" xr:uid="{F884D338-0797-422A-8A96-2A1D8C3043CB}"/>
+    <cellStyle name="Input 3 2 10" xfId="665" xr:uid="{67C48B21-5D9F-4D87-B3CF-30962F1ACFA1}"/>
+    <cellStyle name="Input 3 2 2" xfId="666" xr:uid="{A3EA628F-C505-45BE-B25C-65025D4933F3}"/>
+    <cellStyle name="Input 3 2 3" xfId="667" xr:uid="{7AAC361A-EB7B-46AA-B7B9-298217C36B22}"/>
+    <cellStyle name="Input 3 2 4" xfId="668" xr:uid="{BC9743CE-841B-4D0A-B18B-C3557902BB47}"/>
+    <cellStyle name="Input 3 2 5" xfId="669" xr:uid="{95AF5EAF-94BC-47CF-8F8E-0395D77EF6EE}"/>
+    <cellStyle name="Input 3 2 6" xfId="670" xr:uid="{7001666E-3CD1-4FDF-92D4-55261A02875B}"/>
+    <cellStyle name="Input 3 2 7" xfId="671" xr:uid="{6215C696-C305-4C9D-A367-FFCFCCB3E32A}"/>
+    <cellStyle name="Input 3 2 8" xfId="672" xr:uid="{CB25A131-779E-4B86-94B7-D839141142B4}"/>
+    <cellStyle name="Input 3 2 9" xfId="673" xr:uid="{2BF1E6B6-3D4D-48D7-A74B-237BD19889C5}"/>
+    <cellStyle name="Input 3 3" xfId="674" xr:uid="{6A9414E4-1B49-4E8C-A4C8-C22F8031E7B9}"/>
+    <cellStyle name="Input 3 3 10" xfId="675" xr:uid="{820F7C5C-EF77-4301-B92A-65DF44CE101D}"/>
+    <cellStyle name="Input 3 3 2" xfId="676" xr:uid="{73435765-F2D1-44CC-B958-63A63FBB1E96}"/>
+    <cellStyle name="Input 3 3 3" xfId="677" xr:uid="{839BE429-464C-4373-A187-E7A56E1C9EDB}"/>
+    <cellStyle name="Input 3 3 4" xfId="678" xr:uid="{E4BBD14F-A37A-4451-B2FF-CE4F89FCA82F}"/>
+    <cellStyle name="Input 3 3 5" xfId="679" xr:uid="{42A52C7F-D97E-47C2-BCBF-A3FEF8DF625C}"/>
+    <cellStyle name="Input 3 3 6" xfId="680" xr:uid="{2C971CCB-AD84-48D9-B13D-0DB0EC6578AD}"/>
+    <cellStyle name="Input 3 3 7" xfId="681" xr:uid="{F8D078A8-E3BB-4840-AEE6-3A3940407EE0}"/>
+    <cellStyle name="Input 3 3 8" xfId="682" xr:uid="{3F8B32D5-93E8-4887-A4C1-7A168E6827B6}"/>
+    <cellStyle name="Input 3 3 9" xfId="683" xr:uid="{019B6763-088F-43C4-9B76-5B375BFBE1DA}"/>
+    <cellStyle name="Input 3 4" xfId="684" xr:uid="{D2803B1A-41FC-40E2-A2EC-6F84A9768C47}"/>
+    <cellStyle name="Input 3 5" xfId="685" xr:uid="{E13B42CE-F859-4EF2-BCF4-E3C0387E4DF4}"/>
+    <cellStyle name="Input 3 6" xfId="686" xr:uid="{9EB76758-7874-45B9-B333-91B4925378D7}"/>
+    <cellStyle name="Input 3 7" xfId="687" xr:uid="{CFCF2382-6B9C-4CCA-B3EE-6A6077499522}"/>
+    <cellStyle name="Input 3 8" xfId="688" xr:uid="{DD4E0191-529C-4B5A-924E-8C507643D358}"/>
+    <cellStyle name="Input 3 9" xfId="689" xr:uid="{BAAEAADF-6477-413C-A876-7CA6B30088C3}"/>
+    <cellStyle name="Input 4" xfId="690" xr:uid="{D1110787-9928-4128-9C89-59C9A8A4A81E}"/>
+    <cellStyle name="Input 4 10" xfId="691" xr:uid="{396348EA-F191-49F8-936D-ED5D3180E891}"/>
+    <cellStyle name="Input 4 11" xfId="692" xr:uid="{71838648-1BA5-4AEE-8B7A-5D31403A6C28}"/>
+    <cellStyle name="Input 4 12" xfId="693" xr:uid="{88293AB1-EE23-4354-B654-53D71EFDFBBD}"/>
+    <cellStyle name="Input 4 2" xfId="694" xr:uid="{4439FD0A-88CC-4FD3-A587-7DEBF38EDB6E}"/>
+    <cellStyle name="Input 4 2 10" xfId="695" xr:uid="{7FAA5AD8-D753-4995-B6BB-31C260AB3865}"/>
+    <cellStyle name="Input 4 2 2" xfId="696" xr:uid="{5F978F94-AF19-4169-8D63-C392C51BBD4A}"/>
+    <cellStyle name="Input 4 2 3" xfId="697" xr:uid="{378CF3DB-5874-4DE8-8FEC-F0DC02701CFC}"/>
+    <cellStyle name="Input 4 2 4" xfId="698" xr:uid="{14950AF1-4AA6-4A29-87AF-5B0977E9A9F3}"/>
+    <cellStyle name="Input 4 2 5" xfId="699" xr:uid="{0F407902-0B16-48C7-AA7D-E77977558F9F}"/>
+    <cellStyle name="Input 4 2 6" xfId="700" xr:uid="{CBA613E0-0747-4524-B7AF-E3D2E0EAA6BB}"/>
+    <cellStyle name="Input 4 2 7" xfId="701" xr:uid="{2BE1F87B-3C95-484C-855F-8E031452530D}"/>
+    <cellStyle name="Input 4 2 8" xfId="702" xr:uid="{C9CD3609-A390-4778-82FA-724C644D091C}"/>
+    <cellStyle name="Input 4 2 9" xfId="703" xr:uid="{98507C39-7ECF-4CB7-9370-FE120CBAEDD0}"/>
+    <cellStyle name="Input 4 3" xfId="704" xr:uid="{A4E42EB2-F1C0-4302-8921-F8FE8311523D}"/>
+    <cellStyle name="Input 4 3 10" xfId="705" xr:uid="{09F84908-DDF8-489F-AC31-BA92AEC8294B}"/>
+    <cellStyle name="Input 4 3 2" xfId="706" xr:uid="{9A3B9247-A4D7-40AA-8BFC-E6C9CF68D057}"/>
+    <cellStyle name="Input 4 3 3" xfId="707" xr:uid="{A8082CCD-8691-4D10-BE28-0FA847EF2CFA}"/>
+    <cellStyle name="Input 4 3 4" xfId="708" xr:uid="{E46EE36C-87B4-444A-AC1B-7647093E1642}"/>
+    <cellStyle name="Input 4 3 5" xfId="709" xr:uid="{28E39735-4B7A-48D8-8D11-07A5978576C9}"/>
+    <cellStyle name="Input 4 3 6" xfId="710" xr:uid="{203E9A5E-68D5-4A00-9D78-5FFF0907CB27}"/>
+    <cellStyle name="Input 4 3 7" xfId="711" xr:uid="{EADBC888-06E7-4E1D-A009-2B475EA841BC}"/>
+    <cellStyle name="Input 4 3 8" xfId="712" xr:uid="{4A687C3D-25B0-4C1F-8E8A-0DCEBD4B41E4}"/>
+    <cellStyle name="Input 4 3 9" xfId="713" xr:uid="{E5EA5B89-E9AC-4CBB-AE55-CEB6F623B798}"/>
+    <cellStyle name="Input 4 4" xfId="714" xr:uid="{95565030-4E06-4A28-BCCE-7408CE936F06}"/>
+    <cellStyle name="Input 4 5" xfId="715" xr:uid="{000CEC64-D630-41A4-AFE6-D263549A73C9}"/>
+    <cellStyle name="Input 4 6" xfId="716" xr:uid="{31A1E8B5-5D4E-47EE-83DA-AFB15535AC4A}"/>
+    <cellStyle name="Input 4 7" xfId="717" xr:uid="{B6459180-8CAB-4976-93FD-EE3B6513CDA7}"/>
+    <cellStyle name="Input 4 8" xfId="718" xr:uid="{9CF42D9E-2466-4CBC-B41F-58BEE0F78915}"/>
+    <cellStyle name="Input 4 9" xfId="719" xr:uid="{3B19BCAD-DF88-4711-867A-2764EEDFABFB}"/>
+    <cellStyle name="Input 5" xfId="720" xr:uid="{73CABBB8-BCEA-4E96-9726-5D00D95362D3}"/>
+    <cellStyle name="Input 5 10" xfId="721" xr:uid="{6F4DB438-E275-48C8-ACB4-9E3218F88B7C}"/>
+    <cellStyle name="Input 5 11" xfId="722" xr:uid="{ACD9BC8E-A335-4DC2-9F27-DA4695C94D7E}"/>
+    <cellStyle name="Input 5 12" xfId="723" xr:uid="{B2D9C1C6-20AA-4CD2-A02C-7D74C925BC8E}"/>
+    <cellStyle name="Input 5 2" xfId="724" xr:uid="{30C6ACD1-783A-4388-A951-0843B78B12AC}"/>
+    <cellStyle name="Input 5 2 10" xfId="725" xr:uid="{E0537179-1400-49E1-A0E4-FB9588519934}"/>
+    <cellStyle name="Input 5 2 2" xfId="726" xr:uid="{1D972492-F6B5-475C-920F-50D34545B4E6}"/>
+    <cellStyle name="Input 5 2 3" xfId="727" xr:uid="{29462A46-44E6-401E-BB53-62EEAB9909C1}"/>
+    <cellStyle name="Input 5 2 4" xfId="728" xr:uid="{C07567DA-C484-40DE-9A4A-3029813F29F4}"/>
+    <cellStyle name="Input 5 2 5" xfId="729" xr:uid="{D02D1AA8-67C0-4679-92E9-52CD027A9E80}"/>
+    <cellStyle name="Input 5 2 6" xfId="730" xr:uid="{3A6A76D5-EEC5-4AF6-A430-958D2CA2DCD2}"/>
+    <cellStyle name="Input 5 2 7" xfId="731" xr:uid="{D986E500-9FE2-40BA-95BE-8A01CC979B47}"/>
+    <cellStyle name="Input 5 2 8" xfId="732" xr:uid="{C912667C-AEE4-4379-9398-9BCFF134C6F7}"/>
+    <cellStyle name="Input 5 2 9" xfId="733" xr:uid="{1FD86812-AD2F-42D4-A200-721F440F7629}"/>
+    <cellStyle name="Input 5 3" xfId="734" xr:uid="{A1C79170-CBE5-4605-857B-D6B49B75E002}"/>
+    <cellStyle name="Input 5 3 10" xfId="735" xr:uid="{D90518EB-05FE-4ABB-82FB-D1EAB3E23757}"/>
+    <cellStyle name="Input 5 3 2" xfId="736" xr:uid="{46528438-0F69-43CC-B4E9-DB14C3396160}"/>
+    <cellStyle name="Input 5 3 3" xfId="737" xr:uid="{C94C8E9A-FEC5-4959-8264-A1ED7BFB1A8C}"/>
+    <cellStyle name="Input 5 3 4" xfId="738" xr:uid="{A2D34005-ED22-4297-BCF9-9C7C4C8FC8A8}"/>
+    <cellStyle name="Input 5 3 5" xfId="739" xr:uid="{20A5CCD1-3A71-4FDA-AAF4-46A632B9E1CF}"/>
+    <cellStyle name="Input 5 3 6" xfId="740" xr:uid="{B408BFD7-48BE-4FC5-BBC5-3BB16F6E5566}"/>
+    <cellStyle name="Input 5 3 7" xfId="741" xr:uid="{78699686-57EE-44F7-AF1E-CF16E678F61B}"/>
+    <cellStyle name="Input 5 3 8" xfId="742" xr:uid="{FE70BDC5-11E0-4EB1-A2BD-B10DD2410548}"/>
+    <cellStyle name="Input 5 3 9" xfId="743" xr:uid="{9DDDAF07-1C02-4972-9E21-21F9C36924F3}"/>
+    <cellStyle name="Input 5 4" xfId="744" xr:uid="{F0D4D85E-F93E-4021-A809-09EFC2DD62C3}"/>
+    <cellStyle name="Input 5 5" xfId="745" xr:uid="{755CF093-8555-4BA8-9749-894CCBAF363F}"/>
+    <cellStyle name="Input 5 6" xfId="746" xr:uid="{C3BFE6E7-C88A-4F1F-95AC-9D5A33FCD58B}"/>
+    <cellStyle name="Input 5 7" xfId="747" xr:uid="{DBDCE3DC-B34E-4FCE-A646-3B08FCE0E357}"/>
+    <cellStyle name="Input 5 8" xfId="748" xr:uid="{70281076-A4E5-46D8-B89E-A9292B2C2050}"/>
+    <cellStyle name="Input 5 9" xfId="749" xr:uid="{06C41965-F3F0-478E-A3D3-A631E71723B4}"/>
+    <cellStyle name="Input 6" xfId="750" xr:uid="{40EB94D1-12EE-4F55-9E89-3FF77FD16794}"/>
+    <cellStyle name="Input 6 10" xfId="751" xr:uid="{9A4C899C-A160-44B6-BD1F-458E0619E53D}"/>
+    <cellStyle name="Input 6 11" xfId="752" xr:uid="{0D579EEC-3FE4-4E11-934A-D0D769949231}"/>
+    <cellStyle name="Input 6 12" xfId="753" xr:uid="{7C7F0080-4BAF-48AC-872D-E0E01BF5E96A}"/>
+    <cellStyle name="Input 6 2" xfId="754" xr:uid="{861E4BE0-C605-4065-8DC2-21A2BE78BB8B}"/>
+    <cellStyle name="Input 6 2 10" xfId="755" xr:uid="{DC711CB2-AB2E-4B77-AD5D-367F0DB965A5}"/>
+    <cellStyle name="Input 6 2 2" xfId="756" xr:uid="{C079C46E-C81B-4D1A-AAE9-93443553AA82}"/>
+    <cellStyle name="Input 6 2 3" xfId="757" xr:uid="{72591FFC-CF1B-4AE8-AE5E-97584C24BA12}"/>
+    <cellStyle name="Input 6 2 4" xfId="758" xr:uid="{D7E0B820-3FA6-4E6F-BB6B-80F13CD1541B}"/>
+    <cellStyle name="Input 6 2 5" xfId="759" xr:uid="{5A9A31A6-FB98-44F6-977B-C336A571E8B7}"/>
+    <cellStyle name="Input 6 2 6" xfId="760" xr:uid="{934B3462-2AC1-4885-BF98-FBE36BE22777}"/>
+    <cellStyle name="Input 6 2 7" xfId="761" xr:uid="{080A1D36-6DE0-46A5-9466-F692C2E764C8}"/>
+    <cellStyle name="Input 6 2 8" xfId="762" xr:uid="{585D2A32-6887-400F-9868-98A7F108AFA9}"/>
+    <cellStyle name="Input 6 2 9" xfId="763" xr:uid="{0DCE8B07-E442-41B9-8564-06BF5A8689F8}"/>
+    <cellStyle name="Input 6 3" xfId="764" xr:uid="{A798BB2B-981E-4E1C-A2F1-6F8EED240AEA}"/>
+    <cellStyle name="Input 6 3 10" xfId="765" xr:uid="{08BA0D13-D507-4FD6-B55D-65D2943F542C}"/>
+    <cellStyle name="Input 6 3 2" xfId="766" xr:uid="{A919261E-924E-4FF6-B27F-190B18567332}"/>
+    <cellStyle name="Input 6 3 3" xfId="767" xr:uid="{80FB5B67-6F32-442E-856F-F97B00D72C2D}"/>
+    <cellStyle name="Input 6 3 4" xfId="768" xr:uid="{F0F99461-8C17-435F-B532-BF594220CECF}"/>
+    <cellStyle name="Input 6 3 5" xfId="769" xr:uid="{4AB7F3CA-0531-4979-AA42-27018E37BAF7}"/>
+    <cellStyle name="Input 6 3 6" xfId="770" xr:uid="{4A9B3853-56C6-464E-80C9-C5BDFC1E056B}"/>
+    <cellStyle name="Input 6 3 7" xfId="771" xr:uid="{52FFF5FE-DC86-4DE5-94C8-06EF6CF40C41}"/>
+    <cellStyle name="Input 6 3 8" xfId="772" xr:uid="{A29011AF-E55A-4080-84CC-1F240F558055}"/>
+    <cellStyle name="Input 6 3 9" xfId="773" xr:uid="{2EB41D21-9B55-4FA0-B358-2D7D386E363D}"/>
+    <cellStyle name="Input 6 4" xfId="774" xr:uid="{9B09AAE7-3C16-4C34-A52C-B63887DE22ED}"/>
+    <cellStyle name="Input 6 5" xfId="775" xr:uid="{E3446DEC-88E5-417A-BBD9-92D493FC57B0}"/>
+    <cellStyle name="Input 6 6" xfId="776" xr:uid="{727F74F7-9440-4584-9A47-72345E2CD331}"/>
+    <cellStyle name="Input 6 7" xfId="777" xr:uid="{4844AC2D-F9BB-454A-8E1C-95A29A446B58}"/>
+    <cellStyle name="Input 6 8" xfId="778" xr:uid="{D745095B-DFDD-4C68-9E60-C940E998CF67}"/>
+    <cellStyle name="Input 6 9" xfId="779" xr:uid="{3C8CD68C-9722-48F4-A1E7-4C7A2259DF2B}"/>
+    <cellStyle name="Input 7" xfId="780" xr:uid="{7EA8C3D2-2FBB-4CD9-8D42-5DE0C0FBD8DC}"/>
+    <cellStyle name="Input 7 10" xfId="781" xr:uid="{A210DCD6-D4A8-4076-BCED-302268FFDDCE}"/>
+    <cellStyle name="Input 7 11" xfId="782" xr:uid="{949C7537-2ADD-45D5-94B4-EDA328ACEB7B}"/>
+    <cellStyle name="Input 7 12" xfId="783" xr:uid="{B2E17288-1A0D-4EA6-9CB1-1B9E1714EFDB}"/>
+    <cellStyle name="Input 7 2" xfId="784" xr:uid="{56A08F36-D24E-4952-8A10-5F5A0CA86A9F}"/>
+    <cellStyle name="Input 7 2 10" xfId="785" xr:uid="{1E446EB3-23F2-40A3-A813-68A199F8D501}"/>
+    <cellStyle name="Input 7 2 2" xfId="786" xr:uid="{B7D5C4FD-1CBE-4425-A23A-C63376EFC637}"/>
+    <cellStyle name="Input 7 2 3" xfId="787" xr:uid="{421CCFC5-E426-4851-B6F9-AE7AC900D8B6}"/>
+    <cellStyle name="Input 7 2 4" xfId="788" xr:uid="{4CECF4EA-71CF-44BE-9DA7-C0D8FD042C31}"/>
+    <cellStyle name="Input 7 2 5" xfId="789" xr:uid="{C2833E6A-F7F8-4774-A2BA-AAA874DFDB01}"/>
+    <cellStyle name="Input 7 2 6" xfId="790" xr:uid="{0F00C9E5-F6EF-47B6-8105-08DA3D8ECA88}"/>
+    <cellStyle name="Input 7 2 7" xfId="791" xr:uid="{5A9F201D-6EA3-440D-8DBA-46DF9960A2F7}"/>
+    <cellStyle name="Input 7 2 8" xfId="792" xr:uid="{A77376C6-35D8-473C-A3B6-F2CE5A15CA8D}"/>
+    <cellStyle name="Input 7 2 9" xfId="793" xr:uid="{B5441384-2B42-4CDA-9AFF-569EA716B339}"/>
+    <cellStyle name="Input 7 3" xfId="794" xr:uid="{5C2CE1EA-E5C9-4516-B841-FDBD17EDA879}"/>
+    <cellStyle name="Input 7 3 10" xfId="795" xr:uid="{86AD995F-9C70-448F-BCF7-5DB077F91C8D}"/>
+    <cellStyle name="Input 7 3 2" xfId="796" xr:uid="{A46D2581-B9E3-4D27-B8B4-BE142E7EDFE3}"/>
+    <cellStyle name="Input 7 3 3" xfId="797" xr:uid="{5C3E13E8-EA53-4730-9496-9558B79B89CE}"/>
+    <cellStyle name="Input 7 3 4" xfId="798" xr:uid="{ACAC26AF-AC0F-4E7D-82E8-47FBA24E735F}"/>
+    <cellStyle name="Input 7 3 5" xfId="799" xr:uid="{6E0E7672-08BD-4947-AA7A-6E56644FE971}"/>
+    <cellStyle name="Input 7 3 6" xfId="800" xr:uid="{260519E4-78AF-43E6-B905-DBA3549C0D0B}"/>
+    <cellStyle name="Input 7 3 7" xfId="801" xr:uid="{6EDD851D-8AC6-4B69-B145-FEE75FBFA0D3}"/>
+    <cellStyle name="Input 7 3 8" xfId="802" xr:uid="{2D944ABA-F138-4B00-B3AC-A03527691495}"/>
+    <cellStyle name="Input 7 3 9" xfId="803" xr:uid="{A139AD4C-7E3A-4B93-A811-6E2857C890B3}"/>
+    <cellStyle name="Input 7 4" xfId="804" xr:uid="{8855ED72-C8D3-4219-8B6D-7F232384EB2A}"/>
+    <cellStyle name="Input 7 5" xfId="805" xr:uid="{184B228B-CAE0-454C-A399-352EF6F75613}"/>
+    <cellStyle name="Input 7 6" xfId="806" xr:uid="{A9B86C78-4AA8-41E8-8AD0-58637F9FCA00}"/>
+    <cellStyle name="Input 7 7" xfId="807" xr:uid="{D5FE2468-BA69-4A40-ADB1-CE06DC1484AA}"/>
+    <cellStyle name="Input 7 8" xfId="808" xr:uid="{9459C7BB-0D55-41F3-A1DA-DA7D0F92F9FE}"/>
+    <cellStyle name="Input 7 9" xfId="809" xr:uid="{BCC3FD59-4A88-4F37-935F-963005EB5BCC}"/>
+    <cellStyle name="Input 8" xfId="810" xr:uid="{123902A8-75C7-410C-8746-4E5CB8985C02}"/>
+    <cellStyle name="Input 8 10" xfId="811" xr:uid="{61BE4CBE-85B0-4669-9A02-5FA3F5DC288A}"/>
+    <cellStyle name="Input 8 11" xfId="812" xr:uid="{476E32AA-6030-4248-9B49-9478E6A4834C}"/>
+    <cellStyle name="Input 8 12" xfId="813" xr:uid="{5C321BA3-1C54-48E7-99B9-CEA6D3CE4AA3}"/>
+    <cellStyle name="Input 8 2" xfId="814" xr:uid="{8A01C391-4913-4CF8-A552-B937D311072E}"/>
+    <cellStyle name="Input 8 2 10" xfId="815" xr:uid="{BEC88867-2A3F-4EDF-B5B4-E0AE6586123A}"/>
+    <cellStyle name="Input 8 2 2" xfId="816" xr:uid="{4F598A6F-49FC-411D-B284-9DA0BF1C8260}"/>
+    <cellStyle name="Input 8 2 3" xfId="817" xr:uid="{6CE03833-21CE-418A-BB13-49B3A1EC3DFE}"/>
+    <cellStyle name="Input 8 2 4" xfId="818" xr:uid="{0976EB1A-2EA1-49FB-B3B9-3C749FB8013C}"/>
+    <cellStyle name="Input 8 2 5" xfId="819" xr:uid="{6C39116F-56D5-425E-A528-A20DC3DB84DD}"/>
+    <cellStyle name="Input 8 2 6" xfId="820" xr:uid="{9AAF3365-4209-4012-8A3D-548ACDA581DC}"/>
+    <cellStyle name="Input 8 2 7" xfId="821" xr:uid="{BA3E8691-7FB6-4B47-A9CD-2FFBD83C2651}"/>
+    <cellStyle name="Input 8 2 8" xfId="822" xr:uid="{F81EE96E-FED5-4ED7-8DD6-F0171CD680D8}"/>
+    <cellStyle name="Input 8 2 9" xfId="823" xr:uid="{625480B6-3C4E-43F5-882F-A7EC4D8C47E1}"/>
+    <cellStyle name="Input 8 3" xfId="824" xr:uid="{24D87B0F-A9BA-45F3-82DD-8B43D499D1B6}"/>
+    <cellStyle name="Input 8 3 10" xfId="825" xr:uid="{6F8C5A2D-CDA6-4F74-AE17-CEECF3916F2E}"/>
+    <cellStyle name="Input 8 3 2" xfId="826" xr:uid="{FB8505B9-636F-411E-A211-747DCA2405C9}"/>
+    <cellStyle name="Input 8 3 3" xfId="827" xr:uid="{22DDDA42-4EBB-42A5-9C3D-B5EE03F6B0FA}"/>
+    <cellStyle name="Input 8 3 4" xfId="828" xr:uid="{C219B00D-7245-4E95-9A4D-B9DFED97A24C}"/>
+    <cellStyle name="Input 8 3 5" xfId="829" xr:uid="{F2B0E991-4977-47C2-98C0-92EC9E8345AF}"/>
+    <cellStyle name="Input 8 3 6" xfId="830" xr:uid="{0825E845-B0F4-44A3-BD6A-75E1B1410EA6}"/>
+    <cellStyle name="Input 8 3 7" xfId="831" xr:uid="{6FEA7C6D-61C2-403F-B992-F187ED6A2FF7}"/>
+    <cellStyle name="Input 8 3 8" xfId="832" xr:uid="{940281D1-BECD-4D7C-A493-C520F62E4268}"/>
+    <cellStyle name="Input 8 3 9" xfId="833" xr:uid="{DE4202FC-38BB-4263-BF33-05395B5AE699}"/>
+    <cellStyle name="Input 8 4" xfId="834" xr:uid="{093F5D50-C61A-41F5-B204-7249C3BABBDC}"/>
+    <cellStyle name="Input 8 5" xfId="835" xr:uid="{7D5C2032-A628-45E5-B684-EE28ED14B57F}"/>
+    <cellStyle name="Input 8 6" xfId="836" xr:uid="{96DF586C-AE6F-44E5-9650-50B026795AB9}"/>
+    <cellStyle name="Input 8 7" xfId="837" xr:uid="{4605006E-F891-4453-9234-2168E2924473}"/>
+    <cellStyle name="Input 8 8" xfId="838" xr:uid="{CE46AF68-180E-49D4-876B-9363089111A5}"/>
+    <cellStyle name="Input 8 9" xfId="839" xr:uid="{64DB0115-7790-40EC-9BEB-0E140BCF0236}"/>
+    <cellStyle name="Input 9" xfId="840" xr:uid="{745662A9-32C8-4582-A7B0-F7479F428036}"/>
+    <cellStyle name="Input 9 10" xfId="841" xr:uid="{6BBBAD8D-AFD6-4042-BE94-F40430612308}"/>
+    <cellStyle name="Input 9 11" xfId="842" xr:uid="{B702B059-6231-4B90-9F70-4C47BE69E9AD}"/>
+    <cellStyle name="Input 9 12" xfId="843" xr:uid="{08149891-9245-4CD6-9C2A-127065CDBF45}"/>
+    <cellStyle name="Input 9 2" xfId="844" xr:uid="{1F3853B2-BE41-4712-9CE8-E70E6D79C86F}"/>
+    <cellStyle name="Input 9 2 10" xfId="845" xr:uid="{14F99923-7EAC-4171-B656-3E317090E0C9}"/>
+    <cellStyle name="Input 9 2 2" xfId="846" xr:uid="{844C0A39-DBE1-4787-9BDD-2E5B4C379D1A}"/>
+    <cellStyle name="Input 9 2 3" xfId="847" xr:uid="{311975E5-BA81-4D05-8302-043FF89689AC}"/>
+    <cellStyle name="Input 9 2 4" xfId="848" xr:uid="{7D349DC9-7E8F-4F3C-A034-8C10EF54C19F}"/>
+    <cellStyle name="Input 9 2 5" xfId="849" xr:uid="{4F3FD99D-1B0F-4344-BDD9-84BFF1CD54AE}"/>
+    <cellStyle name="Input 9 2 6" xfId="850" xr:uid="{5DA403FB-4703-4A5D-9FAB-8FE5F5C02BEC}"/>
+    <cellStyle name="Input 9 2 7" xfId="851" xr:uid="{70886CA8-9CDB-4CE1-A21B-F0D3F107F9D4}"/>
+    <cellStyle name="Input 9 2 8" xfId="852" xr:uid="{67247452-2015-4FAB-8327-98F4B41175F3}"/>
+    <cellStyle name="Input 9 2 9" xfId="853" xr:uid="{DD6D2DFB-B169-420E-BF28-4B782BDDE74F}"/>
+    <cellStyle name="Input 9 3" xfId="854" xr:uid="{35DDE52A-4221-4B71-ABD2-31DF683CE1B6}"/>
+    <cellStyle name="Input 9 3 10" xfId="855" xr:uid="{9AEA23A4-3B3F-455A-BB30-20485801E3AC}"/>
+    <cellStyle name="Input 9 3 2" xfId="856" xr:uid="{86349D92-2564-4F80-9734-15755891671D}"/>
+    <cellStyle name="Input 9 3 3" xfId="857" xr:uid="{08564FB1-2968-4068-B1B2-92B1036DB643}"/>
+    <cellStyle name="Input 9 3 4" xfId="858" xr:uid="{49A8F713-067E-4AE5-A5BD-64327D8808E0}"/>
+    <cellStyle name="Input 9 3 5" xfId="859" xr:uid="{623232EB-BC5B-4797-856C-88D8576CC022}"/>
+    <cellStyle name="Input 9 3 6" xfId="860" xr:uid="{0E3EC605-F6AF-4DCE-8811-E23DDADF4DA3}"/>
+    <cellStyle name="Input 9 3 7" xfId="861" xr:uid="{38192F31-1D22-4389-B302-9D18246DC35E}"/>
+    <cellStyle name="Input 9 3 8" xfId="862" xr:uid="{DA881F5D-B05B-4359-AA7B-EC1BB8F75C12}"/>
+    <cellStyle name="Input 9 3 9" xfId="863" xr:uid="{807DEBA4-08F0-4D6A-99F6-0277D3E75D61}"/>
+    <cellStyle name="Input 9 4" xfId="864" xr:uid="{19FF92D2-8CD8-4230-A6E8-B8BFCC150CFD}"/>
+    <cellStyle name="Input 9 5" xfId="865" xr:uid="{3E36AA58-54C4-418F-8765-71929FFC4F3C}"/>
+    <cellStyle name="Input 9 6" xfId="866" xr:uid="{091A99FD-55F4-4C1B-9A6C-73AE32765B56}"/>
+    <cellStyle name="Input 9 7" xfId="867" xr:uid="{7D5AEB1B-231C-43F6-BB6B-F5ADC9E3DD97}"/>
+    <cellStyle name="Input 9 8" xfId="868" xr:uid="{8167DA73-C5D4-42A6-801B-E30FADBADD25}"/>
+    <cellStyle name="Input 9 9" xfId="869" xr:uid="{EBD00A2B-E1BD-4637-B8DB-2B9299E4892A}"/>
+    <cellStyle name="Linked Cell 10" xfId="870" xr:uid="{B56B2D5E-AAD3-418B-96A7-B2C6B1A1AAB3}"/>
+    <cellStyle name="Linked Cell 2" xfId="871" xr:uid="{4B5AFFAB-CEE9-4BEC-9495-4CD45F217EAB}"/>
+    <cellStyle name="Linked Cell 3" xfId="872" xr:uid="{49D6960C-A297-4722-82E3-1F688A23C023}"/>
+    <cellStyle name="Linked Cell 4" xfId="873" xr:uid="{33C69E09-7D65-48BD-A299-60FF07DC341E}"/>
+    <cellStyle name="Linked Cell 5" xfId="874" xr:uid="{AC561B3F-AA04-4683-9FBD-2E42F93CC682}"/>
+    <cellStyle name="Linked Cell 6" xfId="875" xr:uid="{1EA28493-9847-43BF-8DF0-1F2A7FCBA44C}"/>
+    <cellStyle name="Linked Cell 7" xfId="876" xr:uid="{2FEE8F1D-55DE-4762-8B4B-FD23ABDC6B64}"/>
+    <cellStyle name="Linked Cell 8" xfId="877" xr:uid="{04E13DE1-8082-4EB8-92FF-826D0F3C260E}"/>
+    <cellStyle name="Linked Cell 9" xfId="878" xr:uid="{91A03AFB-0A0B-4E2A-833E-D0D2F342C892}"/>
+    <cellStyle name="Neutral 10" xfId="879" xr:uid="{18022C5D-6A36-4FC2-8DD4-23D87B87590C}"/>
+    <cellStyle name="Neutral 2" xfId="880" xr:uid="{B6662CFC-9A2F-4565-8B2D-B81AADF02825}"/>
+    <cellStyle name="Neutral 3" xfId="881" xr:uid="{8B59A439-81FD-4485-9929-A9299FEBB9B4}"/>
+    <cellStyle name="Neutral 4" xfId="882" xr:uid="{6C5A37EA-D6A1-4C4E-8401-D923077AA583}"/>
+    <cellStyle name="Neutral 5" xfId="883" xr:uid="{D9FA494C-E657-4275-81A4-6AA0BC50D596}"/>
+    <cellStyle name="Neutral 6" xfId="884" xr:uid="{9115B9B5-D433-494C-A1EC-D2ACA93F2F5D}"/>
+    <cellStyle name="Neutral 7" xfId="885" xr:uid="{0A02A4F1-0077-4C0E-94C4-B02FE9FAB35C}"/>
+    <cellStyle name="Neutral 8" xfId="886" xr:uid="{F61D9CBD-28BE-4B2C-8259-471ACB12736D}"/>
+    <cellStyle name="Neutral 9" xfId="887" xr:uid="{DCE40F44-DDA9-4F11-8F24-CA67EC781771}"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal 10" xfId="888" xr:uid="{D4178EE7-23A9-45FB-9924-09B19E21C594}"/>
+    <cellStyle name="Normal 11" xfId="889" xr:uid="{927AFF94-206A-4915-A770-DB2E05A00857}"/>
+    <cellStyle name="Normal 12" xfId="890" xr:uid="{44991DA5-78C3-4643-850A-3B7991B8BA1B}"/>
+    <cellStyle name="Normal 12 2" xfId="891" xr:uid="{034411ED-E848-4240-81FB-5B77831B7B12}"/>
+    <cellStyle name="Normal 12 2 2" xfId="892" xr:uid="{F50677A5-C4C4-461C-AEAD-F4260CF48BAC}"/>
+    <cellStyle name="Normal 12 2 3" xfId="893" xr:uid="{E6BE4049-BD71-4BE6-91EF-4663E1E5109E}"/>
+    <cellStyle name="Normal 12 3" xfId="894" xr:uid="{260261AE-80F0-439D-ACFB-2EA6A69177AB}"/>
+    <cellStyle name="Normal 12 3 2" xfId="895" xr:uid="{7E7E2CEC-5D88-4A0C-9C69-A7A6AFA1B321}"/>
+    <cellStyle name="Normal 12 3 3" xfId="896" xr:uid="{7C677813-1CB2-45EE-81D7-8035CCC27FCA}"/>
+    <cellStyle name="Normal 12 4" xfId="897" xr:uid="{8AAA52DB-8812-43C7-B471-CC468B75087D}"/>
+    <cellStyle name="Normal 12 5" xfId="898" xr:uid="{C1A49E85-32FB-46CE-A908-6F7E7D071CDE}"/>
+    <cellStyle name="Normal 13" xfId="899" xr:uid="{C8B42877-945A-4429-887B-FBD65375AF01}"/>
+    <cellStyle name="Normal 13 2" xfId="900" xr:uid="{3078A031-A54A-4A32-AE27-EE926768C601}"/>
+    <cellStyle name="Normal 13 2 2" xfId="901" xr:uid="{93EDBFAC-97B7-4E83-8D5B-D607C6E0B316}"/>
+    <cellStyle name="Normal 13 2 3" xfId="902" xr:uid="{79B2BDA2-9C7D-499B-A4D1-04BA84DF406F}"/>
+    <cellStyle name="Normal 13 2 4" xfId="903" xr:uid="{A2C985CE-28CD-461D-BB34-7D5E3A493A7E}"/>
+    <cellStyle name="Normal 13 3" xfId="904" xr:uid="{08648853-D625-4E8E-8CBE-7DF4B3047FD2}"/>
+    <cellStyle name="Normal 13 3 2" xfId="905" xr:uid="{946C32BF-705F-447B-B2DE-46139AA9EA0A}"/>
+    <cellStyle name="Normal 13 3 3" xfId="906" xr:uid="{59A0D54C-BAE0-424D-9B5D-E23CE2416C09}"/>
+    <cellStyle name="Normal 13 4" xfId="907" xr:uid="{36C7819D-2328-49B7-BA47-7BA59E835D15}"/>
+    <cellStyle name="Normal 13 4 2" xfId="908" xr:uid="{DF34035B-0B23-4E82-B747-171E2A1B2DBD}"/>
+    <cellStyle name="Normal 13 4 3" xfId="909" xr:uid="{AD22AD3A-AD9D-43D7-A2C2-153F740381F1}"/>
+    <cellStyle name="Normal 13 5" xfId="910" xr:uid="{F8F8F5D1-5CA3-4617-8409-FD6B04468F4A}"/>
+    <cellStyle name="Normal 13 6" xfId="911" xr:uid="{6B15B1C4-30BE-498E-BC73-A8FEF81BD5F0}"/>
+    <cellStyle name="Normal 13 7" xfId="912" xr:uid="{3C8B4734-572C-4722-A75F-016102D2D401}"/>
+    <cellStyle name="Normal 13 7 2" xfId="913" xr:uid="{8FD8B22C-8BBA-4BC7-8334-C15305F10F6F}"/>
+    <cellStyle name="Normal 13 7 3" xfId="914" xr:uid="{8BA1A8AB-A582-40C2-BB7E-7568663CAE22}"/>
+    <cellStyle name="Normal 13 7 4" xfId="915" xr:uid="{17A57DF9-288A-4D88-BDE6-9F0D347C25F6}"/>
+    <cellStyle name="Normal 13 7 5" xfId="916" xr:uid="{7A307C99-2845-417B-824D-F6433B565470}"/>
+    <cellStyle name="Normal 13 7 5 2" xfId="917" xr:uid="{8847C6BB-FE59-47F9-82AC-A4A8C594457C}"/>
+    <cellStyle name="Normal 14" xfId="918" xr:uid="{681A7738-A667-47CE-A741-6A47325E6389}"/>
+    <cellStyle name="Normal 14 2" xfId="919" xr:uid="{CDBD757D-C0F8-4BD0-8B42-8489606A5830}"/>
+    <cellStyle name="Normal 14 2 2" xfId="920" xr:uid="{8FAC8BB9-1C64-47DA-AD97-255BED47F820}"/>
+    <cellStyle name="Normal 14 2 3" xfId="921" xr:uid="{38EEFBBF-3500-4AD8-BE2D-DD473E860F15}"/>
+    <cellStyle name="Normal 14 2 4" xfId="922" xr:uid="{543F4B5A-49D5-402F-BDF4-5F4D34CB170F}"/>
+    <cellStyle name="Normal 14 3" xfId="923" xr:uid="{32DA306A-16DF-4DE2-ACB0-0E2AF0FDEA6E}"/>
+    <cellStyle name="Normal 14 3 2" xfId="924" xr:uid="{DF855FB9-EAF1-4369-8EA8-13ECDEBD10B4}"/>
+    <cellStyle name="Normal 14 3 3" xfId="925" xr:uid="{EEB0BEA4-BA18-4276-8DF5-4D0A5C74C3CB}"/>
+    <cellStyle name="Normal 14 4" xfId="926" xr:uid="{5CD4AC6F-961D-4579-A9C7-E34B1E34CC81}"/>
+    <cellStyle name="Normal 14 4 2" xfId="927" xr:uid="{62F1A804-61FC-405B-9BC6-912325CD26AB}"/>
+    <cellStyle name="Normal 14 4 3" xfId="928" xr:uid="{F734C737-1A48-4C79-BA4A-077235E4B08D}"/>
+    <cellStyle name="Normal 14 5" xfId="929" xr:uid="{AD468AF7-0566-4C7F-9418-270F2BDDB796}"/>
+    <cellStyle name="Normal 14 6" xfId="930" xr:uid="{9F447C4D-6D88-44C3-9AA7-43E7ED780B44}"/>
+    <cellStyle name="Normal 14 6 2" xfId="931" xr:uid="{447B4B17-06CF-440E-946B-FE2F7B26B892}"/>
+    <cellStyle name="Normal 14 7" xfId="932" xr:uid="{BBC1579C-9FBE-4C49-B65B-91E79D6A74AC}"/>
+    <cellStyle name="Normal 15" xfId="933" xr:uid="{0AF68AFB-45B3-48CF-96A6-2D8497829D3C}"/>
+    <cellStyle name="Normal 15 2" xfId="934" xr:uid="{32735345-A0A9-44EC-BE67-4827FC11CD1E}"/>
+    <cellStyle name="Normal 15 2 2" xfId="935" xr:uid="{4A96079C-006D-4557-A557-441F2A048053}"/>
+    <cellStyle name="Normal 15 2 3" xfId="936" xr:uid="{6E85FA60-407D-4968-BE26-39D54699230A}"/>
+    <cellStyle name="Normal 15 2 4" xfId="937" xr:uid="{B17189BB-418E-4B25-AC41-55C9BA5E1652}"/>
+    <cellStyle name="Normal 15 3" xfId="938" xr:uid="{589B7CE9-D385-4F76-852E-130CCDD3EA1B}"/>
+    <cellStyle name="Normal 15 3 2" xfId="939" xr:uid="{23C97D03-1E24-406C-9F00-FC99CDC071BC}"/>
+    <cellStyle name="Normal 15 3 3" xfId="940" xr:uid="{873B35F1-32A0-4A9E-8C73-8E0BE76A48A9}"/>
+    <cellStyle name="Normal 15 4" xfId="941" xr:uid="{68898FCE-8705-4DAE-89FB-CF10625BFA5F}"/>
+    <cellStyle name="Normal 15 4 2" xfId="942" xr:uid="{417DBE64-FEAD-4F86-82A1-D96C2547D39B}"/>
+    <cellStyle name="Normal 15 4 3" xfId="943" xr:uid="{A92C9AAC-32A6-455C-B1B8-839A501AC6B6}"/>
+    <cellStyle name="Normal 15 5" xfId="944" xr:uid="{69C81A8D-C607-4EC0-940F-2CD2D04397ED}"/>
+    <cellStyle name="Normal 15 6" xfId="945" xr:uid="{10FF1DF4-4F3A-4B2F-A8AE-D07897C327BE}"/>
+    <cellStyle name="Normal 15 6 2" xfId="946" xr:uid="{41E0019E-6273-4320-90EC-B332A23A5EF1}"/>
+    <cellStyle name="Normal 15 7" xfId="947" xr:uid="{35420E76-5BDB-4B52-86CE-8DCCF47BE96C}"/>
+    <cellStyle name="Normal 15 8" xfId="948" xr:uid="{D9CE70D0-B433-4C06-9EEC-E14B60B11455}"/>
+    <cellStyle name="Normal 16" xfId="949" xr:uid="{2AE52ED0-0DD0-4C33-9010-B8E0EA5D4D9B}"/>
+    <cellStyle name="Normal 16 2" xfId="950" xr:uid="{252A40F3-E132-46B3-8848-4268B69C453A}"/>
+    <cellStyle name="Normal 16 2 2" xfId="951" xr:uid="{F8F8AB19-469B-4396-B522-91344AEC06B1}"/>
+    <cellStyle name="Normal 16 2 3" xfId="952" xr:uid="{19C80544-9058-4484-88AC-DE4B975F8A14}"/>
+    <cellStyle name="Normal 16 2 4" xfId="953" xr:uid="{D942DB14-4AD5-4D9E-831A-3845F608DA51}"/>
+    <cellStyle name="Normal 16 3" xfId="954" xr:uid="{8143613B-3FC4-43D5-A0D0-C80DCDBDEEF8}"/>
+    <cellStyle name="Normal 16 3 2" xfId="955" xr:uid="{D92D27BE-2E91-4EEE-B06D-2598B66B2855}"/>
+    <cellStyle name="Normal 16 3 3" xfId="956" xr:uid="{5FC57BF0-C372-4428-BCF6-A846BFC880FF}"/>
+    <cellStyle name="Normal 16 4" xfId="957" xr:uid="{60797300-81B3-4406-835A-15F2923D8D2E}"/>
+    <cellStyle name="Normal 16 4 2" xfId="958" xr:uid="{4599C94E-6F34-48F8-91AB-26D246E98261}"/>
+    <cellStyle name="Normal 16 4 3" xfId="959" xr:uid="{77D8A526-92ED-4341-9111-63D0C2BA5C9A}"/>
+    <cellStyle name="Normal 16 5" xfId="960" xr:uid="{6D383903-3C71-47BC-8881-96E32BC9BC44}"/>
+    <cellStyle name="Normal 16 6" xfId="961" xr:uid="{C011FB53-025C-4ABE-B2B6-20392BF9806F}"/>
+    <cellStyle name="Normal 16 6 2" xfId="962" xr:uid="{22968D56-51E6-4D94-9363-14183161E8CE}"/>
+    <cellStyle name="Normal 16 7" xfId="963" xr:uid="{A49B05C9-E45F-44F9-97E7-5CD9BBEA276D}"/>
+    <cellStyle name="Normal 17" xfId="964" xr:uid="{47FE4303-C786-4A21-BD0D-3F0CF4DDF59E}"/>
+    <cellStyle name="Normal 18" xfId="965" xr:uid="{8E5DDBD1-F7DB-4F20-8996-68F3E4BFD127}"/>
+    <cellStyle name="Normal 19" xfId="966" xr:uid="{54B2AB31-91AC-489A-A850-16F5A0067F61}"/>
+    <cellStyle name="Normal 2" xfId="1" xr:uid="{88CB74AB-D50B-461B-8D61-DB506FBE2B50}"/>
+    <cellStyle name="Normal 2 10" xfId="12" xr:uid="{9F5FB1C8-BD41-4906-94E7-E9C4F599F5DC}"/>
+    <cellStyle name="Normal 2 2" xfId="968" xr:uid="{F93DB61F-6C03-44D9-859C-C607B3348BC3}"/>
+    <cellStyle name="Normal 2 3" xfId="969" xr:uid="{CF74B807-A0FC-4D50-BB01-A02128399080}"/>
+    <cellStyle name="Normal 2 4" xfId="970" xr:uid="{4A4FC1A7-F752-4728-83CF-D34580C52CB3}"/>
+    <cellStyle name="Normal 2 5" xfId="971" xr:uid="{E331E4CD-677B-448E-9C26-A5ED6C31D458}"/>
+    <cellStyle name="Normal 2 6" xfId="972" xr:uid="{A39F4EAB-46B7-40A4-ADC4-A07666A19565}"/>
+    <cellStyle name="Normal 2 6 2" xfId="973" xr:uid="{03996A7A-FAAC-4763-9E8D-4BE7E82BC4E9}"/>
+    <cellStyle name="Normal 2 6 2 2" xfId="974" xr:uid="{79AD342D-9FB7-45A7-B020-AAFD074455CE}"/>
+    <cellStyle name="Normal 2 6 2 3" xfId="975" xr:uid="{9E265EF8-C07A-4A4E-A475-DCC07F6454DF}"/>
+    <cellStyle name="Normal 2 6 2 4" xfId="976" xr:uid="{AD0F3B3A-5EEF-4740-A700-B43C232CE5BC}"/>
+    <cellStyle name="Normal 2 6 3" xfId="977" xr:uid="{C007AF41-96AB-4127-8B2D-1718CD9F73E2}"/>
+    <cellStyle name="Normal 2 6 3 2" xfId="978" xr:uid="{08C54627-CF88-482C-AAF6-DD407DAFF2AF}"/>
+    <cellStyle name="Normal 2 6 3 3" xfId="979" xr:uid="{168EF4CA-CAFC-493C-A1A8-ADC21CD722C4}"/>
+    <cellStyle name="Normal 2 6 4" xfId="980" xr:uid="{59630D39-139D-4025-A1BB-3EB50CD72574}"/>
+    <cellStyle name="Normal 2 6 4 2" xfId="981" xr:uid="{1989E42A-0804-40A5-81A1-DAF06C116AF7}"/>
+    <cellStyle name="Normal 2 6 4 3" xfId="982" xr:uid="{0917E7C9-43CC-4583-8B40-6857279C033A}"/>
+    <cellStyle name="Normal 2 6 5" xfId="983" xr:uid="{9C25C383-4B28-4131-9ECA-B05A733E5865}"/>
+    <cellStyle name="Normal 2 6 6" xfId="984" xr:uid="{4886C038-6442-4AA8-945E-BC39980AFA9A}"/>
+    <cellStyle name="Normal 2 6 7" xfId="985" xr:uid="{285ABE5F-2FBB-4FBA-B3C0-5DD687382C1C}"/>
+    <cellStyle name="Normal 2 7" xfId="986" xr:uid="{849A2A1C-63A7-4E9A-A98E-BCE6CEEC1F3C}"/>
+    <cellStyle name="Normal 2 8" xfId="967" xr:uid="{1BEA9BB3-DA1F-43B7-B7ED-76B399DF1609}"/>
+    <cellStyle name="Normal 2 9" xfId="1885" xr:uid="{69B0E054-EC7E-4085-9D7C-2FEFD6319CFC}"/>
+    <cellStyle name="Normal 20" xfId="987" xr:uid="{15E719AA-3B32-4B97-B862-823FC362D0E7}"/>
+    <cellStyle name="Normal 21" xfId="988" xr:uid="{057A64AB-1E24-4FE2-94E0-0AA43118D6DD}"/>
+    <cellStyle name="Normal 22" xfId="989" xr:uid="{983444AA-E4F1-458C-9090-9037A9D55A9C}"/>
+    <cellStyle name="Normal 23" xfId="990" xr:uid="{D5D22390-81B2-47E2-AE78-F59837E29103}"/>
+    <cellStyle name="Normal 24" xfId="991" xr:uid="{9140F373-1AB5-4A67-8479-A0D6C4007948}"/>
+    <cellStyle name="Normal 24 2" xfId="992" xr:uid="{46ECAA88-0A77-4B52-944B-69F7792F8D97}"/>
+    <cellStyle name="Normal 24 2 2" xfId="993" xr:uid="{66128F83-712A-4A43-A68B-E76E7963B9AC}"/>
+    <cellStyle name="Normal 24 2 3" xfId="994" xr:uid="{FAC154CF-D564-4D40-8E92-2692C7F0BAC8}"/>
+    <cellStyle name="Normal 24 2 4" xfId="995" xr:uid="{EC26E113-CBC6-4188-8E93-8BA4B9B8AB39}"/>
+    <cellStyle name="Normal 24 3" xfId="996" xr:uid="{EDBEDACB-99EE-4F39-9263-4C01B873F8DA}"/>
+    <cellStyle name="Normal 24 4" xfId="997" xr:uid="{0B579714-6277-43FA-89A0-E172DFDA5010}"/>
+    <cellStyle name="Normal 24 5" xfId="998" xr:uid="{43F5F6A3-2A1C-4E77-AABC-0CEEFC69D0E7}"/>
+    <cellStyle name="Normal 25" xfId="999" xr:uid="{68864B2D-1093-4A59-8A55-E79930082A85}"/>
+    <cellStyle name="Normal 26" xfId="1000" xr:uid="{A77E074F-73DD-45F3-9409-EDF79DB2F8CB}"/>
+    <cellStyle name="Normal 27" xfId="1001" xr:uid="{252090CC-02C3-4557-A195-A17C0DAEEF06}"/>
+    <cellStyle name="Normal 28" xfId="1002" xr:uid="{3C95BCD2-ACDE-4B61-BBF0-66FFA9427CB5}"/>
+    <cellStyle name="Normal 29" xfId="1003" xr:uid="{07DCB2EA-4B44-4701-B9AD-EC58F39B1DE1}"/>
+    <cellStyle name="Normal 3" xfId="13" xr:uid="{5BBC8C01-D638-4A35-BA5F-66E8D4126661}"/>
+    <cellStyle name="Normal 3 2" xfId="7" xr:uid="{C325CC02-358C-49E0-A728-B5F9F74D2402}"/>
+    <cellStyle name="Normal 3 2 2" xfId="1005" xr:uid="{85C0B30E-68C6-45B3-BF55-93F670BE5060}"/>
+    <cellStyle name="Normal 3 3" xfId="1004" xr:uid="{99383052-F723-4108-B4E5-B26DBA4CB10B}"/>
+    <cellStyle name="Normal 30" xfId="1006" xr:uid="{687158B4-94A5-4301-938C-C1CD569E7B7B}"/>
+    <cellStyle name="Normal 31" xfId="1007" xr:uid="{AC36E049-345D-4003-AC8B-047C7FE51370}"/>
+    <cellStyle name="Normal 32" xfId="3" xr:uid="{38D63469-198F-46DB-B9C9-B2289DEA9535}"/>
+    <cellStyle name="Normal 4" xfId="14" xr:uid="{8F12A281-9CD8-43BD-AAB8-28E76375A6DC}"/>
+    <cellStyle name="Normal 4 2" xfId="1009" xr:uid="{5C21A59D-925A-425F-B8A7-0251685C5956}"/>
+    <cellStyle name="Normal 4 2 2" xfId="1010" xr:uid="{0898EC4B-10B3-4E13-A996-A3AE4928FCFB}"/>
+    <cellStyle name="Normal 4 2 3" xfId="1011" xr:uid="{8E98EBC0-A4DB-48EE-BCC7-32B9C6AF0D05}"/>
+    <cellStyle name="Normal 4 2 4" xfId="1012" xr:uid="{447255B3-5691-42F5-8123-FDD3E75D81CE}"/>
+    <cellStyle name="Normal 4 3" xfId="1013" xr:uid="{8D00C3EA-7DBA-4876-8F8D-572DF35266EF}"/>
+    <cellStyle name="Normal 4 4" xfId="1014" xr:uid="{6D08E9B5-7012-4737-BE1B-A2638F1E0E9B}"/>
+    <cellStyle name="Normal 4 5" xfId="1015" xr:uid="{89288E49-19A4-4FD8-963A-01858F8D1A37}"/>
+    <cellStyle name="Normal 4 6" xfId="1016" xr:uid="{849572CF-D88E-4474-A0CD-D00ED2B879EB}"/>
+    <cellStyle name="Normal 4 7" xfId="1008" xr:uid="{534ACF4A-AA68-4983-8606-55DAF18C9F91}"/>
+    <cellStyle name="Normal 5" xfId="26" xr:uid="{A5F8DAD4-87C0-46B1-A6E0-6C207DB08FCF}"/>
+    <cellStyle name="Normal 5 2" xfId="1018" xr:uid="{DBCD9632-8698-4D5F-B802-43712760B332}"/>
+    <cellStyle name="Normal 5 3" xfId="1019" xr:uid="{E97D63F9-E474-467C-B73E-580BE1757371}"/>
+    <cellStyle name="Normal 5 4" xfId="1020" xr:uid="{3519A8B6-B886-4C01-8FDE-6AC287000A4B}"/>
+    <cellStyle name="Normal 5 5" xfId="1021" xr:uid="{B01F11F9-E300-441C-9173-D66247A7916E}"/>
+    <cellStyle name="Normal 5 6" xfId="1017" xr:uid="{7B35E8CC-8E75-47D2-AEF0-DBE84AA41297}"/>
+    <cellStyle name="Normal 6" xfId="5" xr:uid="{38CB07F0-8973-414C-A387-B8E55353F0DB}"/>
+    <cellStyle name="Normal 6 2" xfId="1023" xr:uid="{7208CB8D-9203-4BFA-A9FE-11EDFF968FD9}"/>
+    <cellStyle name="Normal 6 2 2" xfId="1024" xr:uid="{DAAA97C1-8A1A-4E0E-AC19-793D89FE5F32}"/>
+    <cellStyle name="Normal 6 2 3" xfId="1025" xr:uid="{05AFF0A9-170D-4CAB-9232-30CB46BA69DC}"/>
+    <cellStyle name="Normal 6 2 4" xfId="1026" xr:uid="{F048F282-29D1-47AA-B3DC-8E9332437437}"/>
+    <cellStyle name="Normal 6 3" xfId="1027" xr:uid="{4E9FFFD9-AB26-4336-B70E-3D450073C742}"/>
+    <cellStyle name="Normal 6 3 2" xfId="1028" xr:uid="{98B81314-C6C0-4F97-AC94-56D5243C75F0}"/>
+    <cellStyle name="Normal 6 3 3" xfId="1029" xr:uid="{D402C18F-DF16-463B-BDE3-D27669102CD0}"/>
+    <cellStyle name="Normal 6 4" xfId="1030" xr:uid="{E1950308-A24B-4524-9EE7-995791612809}"/>
+    <cellStyle name="Normal 6 4 2" xfId="1031" xr:uid="{145FA950-4620-4654-88F4-C00B3E583244}"/>
+    <cellStyle name="Normal 6 4 3" xfId="1032" xr:uid="{85B94D81-38E1-4330-820F-08BFC0EA4DDC}"/>
+    <cellStyle name="Normal 6 5" xfId="1033" xr:uid="{4571FC50-8DCA-472E-9A9F-0EB543073972}"/>
+    <cellStyle name="Normal 6 6" xfId="1034" xr:uid="{8E083DD2-01AD-4526-82CE-51FCAFFFABCE}"/>
+    <cellStyle name="Normal 6 6 2" xfId="1035" xr:uid="{C2C05340-38CA-4B51-A65D-38CA2B599F95}"/>
+    <cellStyle name="Normal 6 7" xfId="1036" xr:uid="{365599B4-D829-40ED-9980-F27DFE34A716}"/>
+    <cellStyle name="Normal 6 8" xfId="1022" xr:uid="{767B489B-EC44-4C42-BFC3-B8D38349584C}"/>
+    <cellStyle name="Normal 7" xfId="15" xr:uid="{F9987648-41E4-4500-A5A5-591066C296E6}"/>
+    <cellStyle name="Normal 7 2" xfId="16" xr:uid="{D91FA421-F77F-4F0F-9F70-6F18F8363753}"/>
+    <cellStyle name="Normal 7 2 2" xfId="1039" xr:uid="{4AC0AA4F-0300-45C1-9345-416E3CE0DACB}"/>
+    <cellStyle name="Normal 7 2 3" xfId="1040" xr:uid="{166EFD38-4CBE-4CF9-8CDD-B997110E40E9}"/>
+    <cellStyle name="Normal 7 2 4" xfId="1041" xr:uid="{75C2CF51-DCF6-458F-B796-BD579AD23FFE}"/>
+    <cellStyle name="Normal 7 2 5" xfId="1038" xr:uid="{D28C765D-980F-451F-9385-27CDC1F19583}"/>
+    <cellStyle name="Normal 7 3" xfId="1042" xr:uid="{35A3EA7D-C56D-4E06-B406-A39C0AC24D62}"/>
+    <cellStyle name="Normal 7 3 2" xfId="1043" xr:uid="{E23C4586-E385-4CFC-AA2E-81840635DE60}"/>
+    <cellStyle name="Normal 7 3 3" xfId="1044" xr:uid="{6BEB78E3-5357-4F0E-8EA0-2B0C5B1BBAEA}"/>
+    <cellStyle name="Normal 7 4" xfId="1045" xr:uid="{DE09E9F4-C6AF-4EC2-8384-22EF5EEDD9B8}"/>
+    <cellStyle name="Normal 7 4 2" xfId="1046" xr:uid="{F2A97F84-B3A2-4F6F-A190-0D47718010FF}"/>
+    <cellStyle name="Normal 7 4 3" xfId="1047" xr:uid="{E1C76BBB-992B-45B6-94F5-5F19F75C9EA3}"/>
+    <cellStyle name="Normal 7 5" xfId="1048" xr:uid="{29196037-416F-40BD-9D87-B3E218467AFB}"/>
+    <cellStyle name="Normal 7 6" xfId="1049" xr:uid="{C4805A2D-5059-4143-AAD4-D384225B2A4A}"/>
+    <cellStyle name="Normal 7 6 2" xfId="1050" xr:uid="{B8760179-0A70-4DFA-8D5F-36E28FA600BB}"/>
+    <cellStyle name="Normal 7 7" xfId="1051" xr:uid="{4932313B-1A91-4EAE-A577-4B7D472A2DD9}"/>
+    <cellStyle name="Normal 7 8" xfId="1052" xr:uid="{E1C69084-E8C4-492D-8378-0F14B5BA21A7}"/>
+    <cellStyle name="Normal 7 9" xfId="1037" xr:uid="{4D37919D-4EDE-4EC6-8CDC-B702AD321C44}"/>
+    <cellStyle name="Normal 8" xfId="1053" xr:uid="{A934E78F-F2DE-489C-BCC9-2E18DF5D4801}"/>
+    <cellStyle name="Normal 9" xfId="1054" xr:uid="{D2FC0818-1803-4FDA-8E2C-BED558C3BFF8}"/>
+    <cellStyle name="Note 10" xfId="1055" xr:uid="{2A546109-00A5-43B7-9173-0647C40A9071}"/>
+    <cellStyle name="Note 10 10" xfId="1056" xr:uid="{42E8A8E3-3A43-47C6-BDD7-AA6C99F3C45F}"/>
+    <cellStyle name="Note 10 11" xfId="1057" xr:uid="{D09CF574-0AA3-48BF-A6F8-24698323120B}"/>
+    <cellStyle name="Note 10 12" xfId="1058" xr:uid="{0AA00692-7AB7-4FED-9972-CC4E185E8A39}"/>
+    <cellStyle name="Note 10 2" xfId="1059" xr:uid="{4B45E5FB-14F2-405B-9CAA-204C6BF22D4A}"/>
+    <cellStyle name="Note 10 2 10" xfId="1060" xr:uid="{B6AFEE7D-DA91-4032-A24E-E66962B23992}"/>
+    <cellStyle name="Note 10 2 2" xfId="1061" xr:uid="{67C55385-CFCD-42DE-933E-9BC7155BE1A9}"/>
+    <cellStyle name="Note 10 2 3" xfId="1062" xr:uid="{90628ECE-EE8F-4AA8-AEE9-BF3BADDB6C91}"/>
+    <cellStyle name="Note 10 2 4" xfId="1063" xr:uid="{5CA5A45B-2D76-407D-80B8-C3F2E4EA8105}"/>
+    <cellStyle name="Note 10 2 5" xfId="1064" xr:uid="{2B054777-4DBB-459E-948C-08B6F5D60D9D}"/>
+    <cellStyle name="Note 10 2 6" xfId="1065" xr:uid="{567D85F3-453A-4FF6-B153-8BD469FEA2BC}"/>
+    <cellStyle name="Note 10 2 7" xfId="1066" xr:uid="{AA8E2867-B9D2-4725-837E-B8F092E1CF95}"/>
+    <cellStyle name="Note 10 2 8" xfId="1067" xr:uid="{6DFE90F4-41E5-4DD1-97EF-E555F8BAC703}"/>
+    <cellStyle name="Note 10 2 9" xfId="1068" xr:uid="{A2EDB89E-330B-43BB-90EE-27CDF76DC884}"/>
+    <cellStyle name="Note 10 3" xfId="1069" xr:uid="{4768620D-68EE-47D8-84C7-6667ED74D822}"/>
+    <cellStyle name="Note 10 3 10" xfId="1070" xr:uid="{EC49DC80-58A3-4213-BF24-F6331C582FBC}"/>
+    <cellStyle name="Note 10 3 2" xfId="1071" xr:uid="{737D9D2B-99B4-489B-BA03-A1B326264069}"/>
+    <cellStyle name="Note 10 3 3" xfId="1072" xr:uid="{220D55B5-F32F-4695-AA0D-006D2A40B738}"/>
+    <cellStyle name="Note 10 3 4" xfId="1073" xr:uid="{EA740DFF-6D1F-4AC0-B562-666412CA17BF}"/>
+    <cellStyle name="Note 10 3 5" xfId="1074" xr:uid="{BC220C17-185C-4406-9E5C-351114B32481}"/>
+    <cellStyle name="Note 10 3 6" xfId="1075" xr:uid="{51886D55-BE86-43DF-AE00-CCEF46E7CBC7}"/>
+    <cellStyle name="Note 10 3 7" xfId="1076" xr:uid="{02318E94-D84F-4E08-BAE5-8D2CADD658C5}"/>
+    <cellStyle name="Note 10 3 8" xfId="1077" xr:uid="{8A47648D-7A15-46A0-B7D6-2AFFD5002260}"/>
+    <cellStyle name="Note 10 3 9" xfId="1078" xr:uid="{9E692760-7D2C-44A4-BEA0-90AFACB91C90}"/>
+    <cellStyle name="Note 10 4" xfId="1079" xr:uid="{F57164AE-9E3E-4C6C-B255-D88E2F1B6AC5}"/>
+    <cellStyle name="Note 10 5" xfId="1080" xr:uid="{21207CDD-CACE-444A-8BD3-BBD9A9129B13}"/>
+    <cellStyle name="Note 10 6" xfId="1081" xr:uid="{70B2F1E1-C02A-4F6A-8C98-DD95CD8E166D}"/>
+    <cellStyle name="Note 10 7" xfId="1082" xr:uid="{8C5148F5-4467-455E-9FD9-91F2C3212B9B}"/>
+    <cellStyle name="Note 10 8" xfId="1083" xr:uid="{99831936-D0B2-4043-8587-035040621C67}"/>
+    <cellStyle name="Note 10 9" xfId="1084" xr:uid="{1C723A0F-AAC3-4C9D-A7F3-F27CDA4C1A3B}"/>
+    <cellStyle name="Note 2" xfId="1085" xr:uid="{DF228D27-5403-4116-877E-11A77255484F}"/>
+    <cellStyle name="Note 2 10" xfId="1086" xr:uid="{BBE7A9F5-2366-416D-8594-6EDFCDAF645D}"/>
+    <cellStyle name="Note 2 11" xfId="1087" xr:uid="{F25ED049-4709-4379-8A62-15F3A0E06F73}"/>
+    <cellStyle name="Note 2 12" xfId="1088" xr:uid="{98343B38-14E9-4A1E-96EB-F28193E5FD9D}"/>
+    <cellStyle name="Note 2 2" xfId="1089" xr:uid="{10959A5E-8F94-46FB-90A9-7B472220DE8F}"/>
+    <cellStyle name="Note 2 2 10" xfId="1090" xr:uid="{72C2437C-A40F-4AD0-BE77-93854DBBBE32}"/>
+    <cellStyle name="Note 2 2 2" xfId="1091" xr:uid="{4EBC094B-0267-459F-9BB5-7353440D574A}"/>
+    <cellStyle name="Note 2 2 3" xfId="1092" xr:uid="{BBFD3863-9384-42EC-967E-8424B82EADB4}"/>
+    <cellStyle name="Note 2 2 4" xfId="1093" xr:uid="{2A1E75BE-A7C5-4FA2-BAD1-A46E3343A741}"/>
+    <cellStyle name="Note 2 2 5" xfId="1094" xr:uid="{4E850FB1-EF93-4DC6-BCD0-FC546750B1B7}"/>
+    <cellStyle name="Note 2 2 6" xfId="1095" xr:uid="{09BA54E8-A007-4094-8490-3E0D84180E13}"/>
+    <cellStyle name="Note 2 2 7" xfId="1096" xr:uid="{C245EF15-3DE9-4F10-A05D-6C958C2C4DE2}"/>
+    <cellStyle name="Note 2 2 8" xfId="1097" xr:uid="{AD463B68-9EB0-494F-B892-C613076FD70E}"/>
+    <cellStyle name="Note 2 2 9" xfId="1098" xr:uid="{C28AD149-ECBE-414F-9CD5-BC4A210FEA5E}"/>
+    <cellStyle name="Note 2 3" xfId="1099" xr:uid="{C26EDE2E-E51C-4B00-8B44-41651DD1C973}"/>
+    <cellStyle name="Note 2 3 10" xfId="1100" xr:uid="{112E9E7B-BD42-4B0F-9AB1-82D1505B122A}"/>
+    <cellStyle name="Note 2 3 2" xfId="1101" xr:uid="{AA407892-CD06-4995-8E10-C69DC018D138}"/>
+    <cellStyle name="Note 2 3 3" xfId="1102" xr:uid="{406780E7-BBB6-465A-A886-EC5F55DF2EEF}"/>
+    <cellStyle name="Note 2 3 4" xfId="1103" xr:uid="{A129794A-AF1D-4AC6-8423-EECC48FDCE08}"/>
+    <cellStyle name="Note 2 3 5" xfId="1104" xr:uid="{3A5028D5-158A-41C0-A702-C39037B2D934}"/>
+    <cellStyle name="Note 2 3 6" xfId="1105" xr:uid="{C100B069-6CB8-4E2B-95E9-1AFE8A0446E5}"/>
+    <cellStyle name="Note 2 3 7" xfId="1106" xr:uid="{ECBD439F-EC06-4E0A-90BD-8ED63E89CC0F}"/>
+    <cellStyle name="Note 2 3 8" xfId="1107" xr:uid="{88C66BDA-E128-44E6-A77D-738F398320B1}"/>
+    <cellStyle name="Note 2 3 9" xfId="1108" xr:uid="{775FE774-B67E-483C-8654-A829FB5B1F8E}"/>
+    <cellStyle name="Note 2 4" xfId="1109" xr:uid="{1D10A68E-A421-4A84-90AD-577CBEDB6BB9}"/>
+    <cellStyle name="Note 2 5" xfId="1110" xr:uid="{409050E1-935B-4F9F-8037-E206D86E2D5C}"/>
+    <cellStyle name="Note 2 6" xfId="1111" xr:uid="{A1942916-1807-4A15-B799-D0947D184203}"/>
+    <cellStyle name="Note 2 7" xfId="1112" xr:uid="{826F1B8D-E5B8-4952-8B98-2FD9314C0A13}"/>
+    <cellStyle name="Note 2 8" xfId="1113" xr:uid="{C9D988FB-4629-45C1-9BAD-D051AB17A759}"/>
+    <cellStyle name="Note 2 9" xfId="1114" xr:uid="{E1E6B505-8DB5-4795-BA1D-8EC4B49F4AC4}"/>
+    <cellStyle name="Note 3" xfId="1115" xr:uid="{8DBF0FBF-EDF2-4CE9-8EC2-E476BE89C787}"/>
+    <cellStyle name="Note 3 10" xfId="1116" xr:uid="{932A3FA1-60CD-4B28-A0C4-7E44C2133A29}"/>
+    <cellStyle name="Note 3 11" xfId="1117" xr:uid="{CE1D440E-2C7E-4F88-A93C-5A21785F2365}"/>
+    <cellStyle name="Note 3 12" xfId="1118" xr:uid="{705378F5-C63D-4B62-8DCB-3551BAEF32AE}"/>
+    <cellStyle name="Note 3 2" xfId="1119" xr:uid="{268B2B42-F65C-49DD-8C7B-DD8301DD1394}"/>
+    <cellStyle name="Note 3 2 10" xfId="1120" xr:uid="{B09E3ED9-63B2-4273-92A9-6D007C740348}"/>
+    <cellStyle name="Note 3 2 2" xfId="1121" xr:uid="{560A3F45-27D5-421D-B244-C6C52F2B9EC1}"/>
+    <cellStyle name="Note 3 2 3" xfId="1122" xr:uid="{D4889372-4F88-412B-AFA0-1008611723B9}"/>
+    <cellStyle name="Note 3 2 4" xfId="1123" xr:uid="{7C71DB95-F157-47B3-B41B-EA1D347F4CE4}"/>
+    <cellStyle name="Note 3 2 5" xfId="1124" xr:uid="{64CA883D-E3B6-4A24-A6BD-F1CBD93AF60C}"/>
+    <cellStyle name="Note 3 2 6" xfId="1125" xr:uid="{9F9B0C45-AD0B-44A9-8784-BA8D85DBA324}"/>
+    <cellStyle name="Note 3 2 7" xfId="1126" xr:uid="{F96EE0B5-82CC-4A46-B17C-DB020250D7DA}"/>
+    <cellStyle name="Note 3 2 8" xfId="1127" xr:uid="{FDC9A22F-B284-40F0-806B-120BAB4E870F}"/>
+    <cellStyle name="Note 3 2 9" xfId="1128" xr:uid="{0B9BE0CC-F2B9-4DA9-947C-E3A546FC2AD8}"/>
+    <cellStyle name="Note 3 3" xfId="1129" xr:uid="{CB026665-546A-4BEA-97C0-0551D4192A9A}"/>
+    <cellStyle name="Note 3 3 10" xfId="1130" xr:uid="{1176562C-6758-4064-B176-F63070699B85}"/>
+    <cellStyle name="Note 3 3 2" xfId="1131" xr:uid="{F8ABF53D-1F58-433C-83B6-350F6D571E7A}"/>
+    <cellStyle name="Note 3 3 3" xfId="1132" xr:uid="{F75B4400-C22B-44F9-9562-94282783A2FD}"/>
+    <cellStyle name="Note 3 3 4" xfId="1133" xr:uid="{129AEDD0-6D9C-4F20-94FE-948EE5B8BC9D}"/>
+    <cellStyle name="Note 3 3 5" xfId="1134" xr:uid="{5511635E-2DC7-45BD-B7CA-BD4ACE1A173F}"/>
+    <cellStyle name="Note 3 3 6" xfId="1135" xr:uid="{6D7DFD5E-FA76-46D7-806F-D1E2599232C7}"/>
+    <cellStyle name="Note 3 3 7" xfId="1136" xr:uid="{1FC1ED3A-8372-450A-B28D-AE0023B7ECAB}"/>
+    <cellStyle name="Note 3 3 8" xfId="1137" xr:uid="{FCFB8C74-ED73-4C27-BCE8-1168FE11AD72}"/>
+    <cellStyle name="Note 3 3 9" xfId="1138" xr:uid="{5DDBA927-46C7-4945-B76B-A03C0724F3C0}"/>
+    <cellStyle name="Note 3 4" xfId="1139" xr:uid="{816DFDFF-27AC-403F-AC22-F4E8DEDEFC6A}"/>
+    <cellStyle name="Note 3 5" xfId="1140" xr:uid="{375E1257-5D81-4E20-A242-6B6D9EFE5346}"/>
+    <cellStyle name="Note 3 6" xfId="1141" xr:uid="{AC2366A9-EAF2-4281-A00B-30153814A2F2}"/>
+    <cellStyle name="Note 3 7" xfId="1142" xr:uid="{5B7966FD-0574-4925-BC93-927919CC8F2E}"/>
+    <cellStyle name="Note 3 8" xfId="1143" xr:uid="{82B395C5-54B2-4405-A357-64CCE7925E23}"/>
+    <cellStyle name="Note 3 9" xfId="1144" xr:uid="{ADFFB254-9AF0-4E31-B3AF-563ED581F1E5}"/>
+    <cellStyle name="Note 4" xfId="1145" xr:uid="{AEFEBC24-50E6-42CF-A2F9-5D8810C44D9D}"/>
+    <cellStyle name="Note 4 10" xfId="1146" xr:uid="{3D54493D-7684-4AFA-B9FC-0DA7487D58D5}"/>
+    <cellStyle name="Note 4 11" xfId="1147" xr:uid="{019B0E24-F737-4BA6-8EF0-3179D1A849D6}"/>
+    <cellStyle name="Note 4 12" xfId="1148" xr:uid="{3A728A3D-9F50-4486-BCD0-E084B410D61E}"/>
+    <cellStyle name="Note 4 2" xfId="1149" xr:uid="{980D8C6E-21B7-4D7D-B49D-108200A80C8F}"/>
+    <cellStyle name="Note 4 2 10" xfId="1150" xr:uid="{CFEBF331-4C56-4E93-9FA5-0E3048FE7209}"/>
+    <cellStyle name="Note 4 2 2" xfId="1151" xr:uid="{8C9713EE-00C9-413A-B6A6-FECAB5AFCF48}"/>
+    <cellStyle name="Note 4 2 3" xfId="1152" xr:uid="{AC922146-1BFC-4D85-BFE5-992B46E5F775}"/>
+    <cellStyle name="Note 4 2 4" xfId="1153" xr:uid="{CC895DD2-AFEC-4E72-A8BC-1E036C7F491C}"/>
+    <cellStyle name="Note 4 2 5" xfId="1154" xr:uid="{B91E95DA-EF0C-444D-BCE9-0746E245A6D2}"/>
+    <cellStyle name="Note 4 2 6" xfId="1155" xr:uid="{08EC6B57-7EEF-41B9-BD4B-14436A978D2A}"/>
+    <cellStyle name="Note 4 2 7" xfId="1156" xr:uid="{36765509-4A75-4D13-A248-C3C279D8FC04}"/>
+    <cellStyle name="Note 4 2 8" xfId="1157" xr:uid="{AAF794C6-5BD3-4C84-A434-3C3EF3510AB5}"/>
+    <cellStyle name="Note 4 2 9" xfId="1158" xr:uid="{D421295E-E61B-413E-A023-2A0F03160664}"/>
+    <cellStyle name="Note 4 3" xfId="1159" xr:uid="{28DAC112-AB44-4512-80DF-1512AB886644}"/>
+    <cellStyle name="Note 4 3 10" xfId="1160" xr:uid="{AEE02807-5D11-45A4-B609-EFA3F8AE56C5}"/>
+    <cellStyle name="Note 4 3 2" xfId="1161" xr:uid="{1932014D-5B21-4CF3-BFC3-17FBD2A1FB24}"/>
+    <cellStyle name="Note 4 3 3" xfId="1162" xr:uid="{BE476EFD-C7DB-4EAA-A77D-7D48AC7E5C21}"/>
+    <cellStyle name="Note 4 3 4" xfId="1163" xr:uid="{721831EC-6A03-45A7-9FB7-77A3A975602E}"/>
+    <cellStyle name="Note 4 3 5" xfId="1164" xr:uid="{B105C8B6-9F61-411A-B248-A05E9F62B9D4}"/>
+    <cellStyle name="Note 4 3 6" xfId="1165" xr:uid="{3C68C0E0-9855-46D6-9A29-6B63943E45CD}"/>
+    <cellStyle name="Note 4 3 7" xfId="1166" xr:uid="{CCE670BA-202C-4092-9793-7D23E66A8628}"/>
+    <cellStyle name="Note 4 3 8" xfId="1167" xr:uid="{E07D074B-DD6C-46A7-889D-429340D23305}"/>
+    <cellStyle name="Note 4 3 9" xfId="1168" xr:uid="{BFE47BBB-06CD-4BD3-831D-DBBAD4FCBD1B}"/>
+    <cellStyle name="Note 4 4" xfId="1169" xr:uid="{795B201C-9EDC-441C-BB21-76B2AD38D16C}"/>
+    <cellStyle name="Note 4 5" xfId="1170" xr:uid="{9CC84BC1-949B-4D04-94CC-3B083CCB2D1E}"/>
+    <cellStyle name="Note 4 6" xfId="1171" xr:uid="{BB9AC135-9E5C-47D6-A468-8E46C3B898A2}"/>
+    <cellStyle name="Note 4 7" xfId="1172" xr:uid="{DCD73816-B9AE-4641-AEC7-61581E196A36}"/>
+    <cellStyle name="Note 4 8" xfId="1173" xr:uid="{3268E0ED-8434-4308-B304-61A925AB3630}"/>
+    <cellStyle name="Note 4 9" xfId="1174" xr:uid="{D587EB3A-1DCA-4BE5-BEEC-72AB9F993E05}"/>
+    <cellStyle name="Note 5" xfId="1175" xr:uid="{07227FD5-B5AF-4533-A315-B2EE1DA7532A}"/>
+    <cellStyle name="Note 5 10" xfId="1176" xr:uid="{2D25C795-FA97-4763-AB99-494F80C196B2}"/>
+    <cellStyle name="Note 5 11" xfId="1177" xr:uid="{14002F4E-6197-444D-9ABF-A94452B71852}"/>
+    <cellStyle name="Note 5 12" xfId="1178" xr:uid="{4D568197-2383-41D9-B72C-4BEB0B1CC385}"/>
+    <cellStyle name="Note 5 2" xfId="1179" xr:uid="{1770AC44-CB59-45EE-ACC3-3735E728C01C}"/>
+    <cellStyle name="Note 5 2 10" xfId="1180" xr:uid="{31A19995-F7CB-4B40-B2A6-F2A5D5F0B651}"/>
+    <cellStyle name="Note 5 2 2" xfId="1181" xr:uid="{8B15BF44-8983-485D-B483-9B3826327858}"/>
+    <cellStyle name="Note 5 2 3" xfId="1182" xr:uid="{FDFFFC30-C4C1-4CB7-BA34-A8BA0BFE626D}"/>
+    <cellStyle name="Note 5 2 4" xfId="1183" xr:uid="{1FBA0A5D-6CB9-4215-B0C4-4B859B34D54C}"/>
+    <cellStyle name="Note 5 2 5" xfId="1184" xr:uid="{9CF92FBF-2B77-4C77-9F90-BE04CFD54208}"/>
+    <cellStyle name="Note 5 2 6" xfId="1185" xr:uid="{B4B976D7-90CA-4C09-98CE-BAE9CB1FCFC4}"/>
+    <cellStyle name="Note 5 2 7" xfId="1186" xr:uid="{ACCFAB53-6931-44A4-9981-3F5EAD60D74F}"/>
+    <cellStyle name="Note 5 2 8" xfId="1187" xr:uid="{6DC7C068-8067-4C10-8577-C14962622EBE}"/>
+    <cellStyle name="Note 5 2 9" xfId="1188" xr:uid="{66B41E10-91FE-4159-997D-8D0EAAF44E36}"/>
+    <cellStyle name="Note 5 3" xfId="1189" xr:uid="{8E1F23BD-0A53-4895-9EFE-6F2113288862}"/>
+    <cellStyle name="Note 5 3 10" xfId="1190" xr:uid="{9328BF3C-CC37-418E-8423-14838538111A}"/>
+    <cellStyle name="Note 5 3 2" xfId="1191" xr:uid="{5F9868AD-6EB0-429C-A615-86D7B5454E0C}"/>
+    <cellStyle name="Note 5 3 3" xfId="1192" xr:uid="{7EF51944-DF16-432F-8B34-4332A4519AA8}"/>
+    <cellStyle name="Note 5 3 4" xfId="1193" xr:uid="{C9460985-07BF-4BB6-9CDA-3E89C547A835}"/>
+    <cellStyle name="Note 5 3 5" xfId="1194" xr:uid="{CCBA54F7-998B-4086-8E38-F72900D191A3}"/>
+    <cellStyle name="Note 5 3 6" xfId="1195" xr:uid="{DFADA0A2-873C-4C45-890C-CD583A025866}"/>
+    <cellStyle name="Note 5 3 7" xfId="1196" xr:uid="{72425A1E-01B9-49BB-B345-6D30AF2D4A9B}"/>
+    <cellStyle name="Note 5 3 8" xfId="1197" xr:uid="{50D58B70-98E6-4AF3-899D-568B006D6766}"/>
+    <cellStyle name="Note 5 3 9" xfId="1198" xr:uid="{274AC1B2-A8B4-42E8-97DC-F93755F32290}"/>
+    <cellStyle name="Note 5 4" xfId="1199" xr:uid="{BFEC6D4C-D217-4BE0-8A3E-C944A1812D01}"/>
+    <cellStyle name="Note 5 5" xfId="1200" xr:uid="{FF1D4923-BD2E-4618-9796-0066D060A427}"/>
+    <cellStyle name="Note 5 6" xfId="1201" xr:uid="{33D87B20-0A94-464E-965E-7898D72F069E}"/>
+    <cellStyle name="Note 5 7" xfId="1202" xr:uid="{A31516C0-317D-42FB-8B57-748D3D19C2BB}"/>
+    <cellStyle name="Note 5 8" xfId="1203" xr:uid="{BA7CBFC2-6517-4404-AA94-927CB3ADBBCD}"/>
+    <cellStyle name="Note 5 9" xfId="1204" xr:uid="{961EF417-60AD-47CA-AD15-EFCD92B7BE07}"/>
+    <cellStyle name="Note 6" xfId="1205" xr:uid="{E0D89334-8286-409E-B060-E0D1BFAD9FF5}"/>
+    <cellStyle name="Note 6 10" xfId="1206" xr:uid="{96FEA81A-F8A8-4132-BA43-92DE60FEF8CA}"/>
+    <cellStyle name="Note 6 11" xfId="1207" xr:uid="{7149340C-3048-4778-9F92-05E72A394267}"/>
+    <cellStyle name="Note 6 12" xfId="1208" xr:uid="{3ED930E8-AA70-4D59-93BC-8ACD04D34525}"/>
+    <cellStyle name="Note 6 2" xfId="1209" xr:uid="{40B374CD-B707-4390-8FB1-E6FCB3A28371}"/>
+    <cellStyle name="Note 6 2 10" xfId="1210" xr:uid="{A45D43EE-034C-4AA7-99F2-44A573BB0089}"/>
+    <cellStyle name="Note 6 2 2" xfId="1211" xr:uid="{89C93745-7A7F-435F-8DC8-1900EDC9844D}"/>
+    <cellStyle name="Note 6 2 3" xfId="1212" xr:uid="{A1FDE74D-E164-4762-97F0-0CF9F28D85AF}"/>
+    <cellStyle name="Note 6 2 4" xfId="1213" xr:uid="{189C622D-CF5F-4FCF-91C2-E168332F24E1}"/>
+    <cellStyle name="Note 6 2 5" xfId="1214" xr:uid="{8F4D330A-335D-4FA0-8007-72C3743C95C0}"/>
+    <cellStyle name="Note 6 2 6" xfId="1215" xr:uid="{95DBBB7A-9607-4FD9-B646-813D37121811}"/>
+    <cellStyle name="Note 6 2 7" xfId="1216" xr:uid="{3935FD07-2282-485A-8A71-15794580D8A9}"/>
+    <cellStyle name="Note 6 2 8" xfId="1217" xr:uid="{EA21F974-C5EE-4582-9FED-DF163F62A230}"/>
+    <cellStyle name="Note 6 2 9" xfId="1218" xr:uid="{3EBF9EC4-4506-4134-A687-DE3B7854D47B}"/>
+    <cellStyle name="Note 6 3" xfId="1219" xr:uid="{70B10D8C-10A0-4F28-9CDC-1019DFFEFE4F}"/>
+    <cellStyle name="Note 6 3 10" xfId="1220" xr:uid="{ADEA4F55-946E-4FEB-AE4F-046D5CBCA0B4}"/>
+    <cellStyle name="Note 6 3 2" xfId="1221" xr:uid="{39A49161-ADDF-43C7-942B-92D734943D72}"/>
+    <cellStyle name="Note 6 3 3" xfId="1222" xr:uid="{A9F3F856-EE03-4664-958E-B8E2BBB1E8BE}"/>
+    <cellStyle name="Note 6 3 4" xfId="1223" xr:uid="{77D37078-965C-45B9-8A60-2147EFFB5A02}"/>
+    <cellStyle name="Note 6 3 5" xfId="1224" xr:uid="{E272389D-068E-4721-B2B5-CF7206B1D3A5}"/>
+    <cellStyle name="Note 6 3 6" xfId="1225" xr:uid="{EF0F2835-130B-4FEE-A7AE-1D15F73A084A}"/>
+    <cellStyle name="Note 6 3 7" xfId="1226" xr:uid="{2B102D14-9663-45E7-A441-E67872B78F3F}"/>
+    <cellStyle name="Note 6 3 8" xfId="1227" xr:uid="{AB863F57-CFCF-4807-B4F0-BB540573F880}"/>
+    <cellStyle name="Note 6 3 9" xfId="1228" xr:uid="{3782031B-E727-45D3-AF6D-502F87C62A20}"/>
+    <cellStyle name="Note 6 4" xfId="1229" xr:uid="{5F222356-C871-4B61-B5E5-3BBF800534C4}"/>
+    <cellStyle name="Note 6 5" xfId="1230" xr:uid="{01F05EA3-FA04-477F-921F-2FAC2456D2C9}"/>
+    <cellStyle name="Note 6 6" xfId="1231" xr:uid="{850497AB-5FA4-49D7-A55B-2E7BDBEBB7A6}"/>
+    <cellStyle name="Note 6 7" xfId="1232" xr:uid="{FC295454-095D-4676-A5BC-B09D1F3ECB2A}"/>
+    <cellStyle name="Note 6 8" xfId="1233" xr:uid="{3FC2D8E7-26C5-4DAC-AB39-BD528FD54845}"/>
+    <cellStyle name="Note 6 9" xfId="1234" xr:uid="{63C2587B-1C6D-42DF-9121-BEDB01A67EEA}"/>
+    <cellStyle name="Note 7" xfId="1235" xr:uid="{8C89FA4A-7823-4EC9-A30A-BBA9E005EF15}"/>
+    <cellStyle name="Note 7 10" xfId="1236" xr:uid="{5FDFC7F5-B1F6-4B12-A5EA-2B7B2A58CF95}"/>
+    <cellStyle name="Note 7 11" xfId="1237" xr:uid="{3891F194-2B10-4CBB-95E1-7569C417AC72}"/>
+    <cellStyle name="Note 7 12" xfId="1238" xr:uid="{BE2DD6E4-60EC-4A24-88F5-6CB24E49C749}"/>
+    <cellStyle name="Note 7 2" xfId="1239" xr:uid="{28DD4C24-CDE5-4E0F-9968-107EEDAF4D18}"/>
+    <cellStyle name="Note 7 2 10" xfId="1240" xr:uid="{B51816B3-EBAF-484B-B99C-1916DF81CA98}"/>
+    <cellStyle name="Note 7 2 2" xfId="1241" xr:uid="{70D71BF7-FA1D-4780-B0F5-1307446B4DF2}"/>
+    <cellStyle name="Note 7 2 3" xfId="1242" xr:uid="{8FA216E7-1C63-42D7-910D-B40C18A32CB6}"/>
+    <cellStyle name="Note 7 2 4" xfId="1243" xr:uid="{F71073DC-E2FC-4A4F-B7DB-DAF0222CFD95}"/>
+    <cellStyle name="Note 7 2 5" xfId="1244" xr:uid="{0C228E9A-8982-4DB7-ADBE-A55FE211C9A8}"/>
+    <cellStyle name="Note 7 2 6" xfId="1245" xr:uid="{9B8A457A-17FA-40AC-9944-FF3ED33E1E8F}"/>
+    <cellStyle name="Note 7 2 7" xfId="1246" xr:uid="{8F764BF4-EAE8-4518-BF00-9113508767AB}"/>
+    <cellStyle name="Note 7 2 8" xfId="1247" xr:uid="{F3F07941-AEB9-4599-9FDC-4737139BB0C1}"/>
+    <cellStyle name="Note 7 2 9" xfId="1248" xr:uid="{BCDDE0B9-734D-44C6-92F0-974AB7F21878}"/>
+    <cellStyle name="Note 7 3" xfId="1249" xr:uid="{4BC0CBC1-A00F-4B28-9149-34103D1A7195}"/>
+    <cellStyle name="Note 7 3 10" xfId="1250" xr:uid="{2D519DA4-4954-4E95-90A7-EE1011D4C028}"/>
+    <cellStyle name="Note 7 3 2" xfId="1251" xr:uid="{BB4E8FD4-D420-4666-8978-07A32C3FD733}"/>
+    <cellStyle name="Note 7 3 3" xfId="1252" xr:uid="{79670CC8-30CC-449C-B05A-71267E646C59}"/>
+    <cellStyle name="Note 7 3 4" xfId="1253" xr:uid="{2F3B8008-7052-4DD7-B07D-2B24DC3AB44E}"/>
+    <cellStyle name="Note 7 3 5" xfId="1254" xr:uid="{2C0A11BB-6F4C-4978-9307-74F2415014FF}"/>
+    <cellStyle name="Note 7 3 6" xfId="1255" xr:uid="{DAC63998-8A73-4C24-97ED-4A36C2504D4C}"/>
+    <cellStyle name="Note 7 3 7" xfId="1256" xr:uid="{C82A5CD0-18C1-452C-927E-E7991F2B914B}"/>
+    <cellStyle name="Note 7 3 8" xfId="1257" xr:uid="{05E3C254-1F58-4D1C-83A9-F7D3D24FD1CF}"/>
+    <cellStyle name="Note 7 3 9" xfId="1258" xr:uid="{C3E4CF69-A21F-43B3-B215-F4561A92E0CC}"/>
+    <cellStyle name="Note 7 4" xfId="1259" xr:uid="{50B3DD6D-E711-44D4-BCA3-278FEAE4DE5C}"/>
+    <cellStyle name="Note 7 5" xfId="1260" xr:uid="{82A7DA2D-43E4-410E-9461-735A95246820}"/>
+    <cellStyle name="Note 7 6" xfId="1261" xr:uid="{F19FCF6C-A3EF-475B-9984-3C938FECFD17}"/>
+    <cellStyle name="Note 7 7" xfId="1262" xr:uid="{99B902EC-CEBC-4B7F-8CC4-BB81912BE1C4}"/>
+    <cellStyle name="Note 7 8" xfId="1263" xr:uid="{ED4CD7F6-4121-4BB4-83D8-EBB486780D63}"/>
+    <cellStyle name="Note 7 9" xfId="1264" xr:uid="{8120ED83-8816-4B7D-84F3-030C403C754C}"/>
+    <cellStyle name="Note 8" xfId="1265" xr:uid="{5536AA74-61E3-42D2-9A83-FE452C3933FD}"/>
+    <cellStyle name="Note 8 10" xfId="1266" xr:uid="{FCAF705D-39D2-417D-8EE9-F563529D09EB}"/>
+    <cellStyle name="Note 8 11" xfId="1267" xr:uid="{E40DABE5-2221-4813-A2AA-2ADDF3CF78D9}"/>
+    <cellStyle name="Note 8 12" xfId="1268" xr:uid="{A4670981-BA51-4D4A-816D-43814EA4E79E}"/>
+    <cellStyle name="Note 8 2" xfId="1269" xr:uid="{C18E8A37-972B-41B0-BB8F-F5A4F3FCA139}"/>
+    <cellStyle name="Note 8 2 10" xfId="1270" xr:uid="{42B4947F-D3B2-41E6-BDA5-75692D17DD10}"/>
+    <cellStyle name="Note 8 2 2" xfId="1271" xr:uid="{8014832C-1D04-462A-A4E6-FD4B44C086AE}"/>
+    <cellStyle name="Note 8 2 3" xfId="1272" xr:uid="{8A8B9B7F-617F-4026-A750-2AB2D0A04689}"/>
+    <cellStyle name="Note 8 2 4" xfId="1273" xr:uid="{4428CA92-EB90-40AC-82E6-6FEC5F8E511F}"/>
+    <cellStyle name="Note 8 2 5" xfId="1274" xr:uid="{F9848252-F183-4969-8F52-69DFCFDFC560}"/>
+    <cellStyle name="Note 8 2 6" xfId="1275" xr:uid="{488D073E-4BA4-465B-954A-DFF49FB2486D}"/>
+    <cellStyle name="Note 8 2 7" xfId="1276" xr:uid="{CF635788-854D-4404-B791-B1185A5DBE33}"/>
+    <cellStyle name="Note 8 2 8" xfId="1277" xr:uid="{2E7B34FF-6FB7-4077-8AB1-B02A4E46D68F}"/>
+    <cellStyle name="Note 8 2 9" xfId="1278" xr:uid="{64CBE225-8490-4E94-9840-9A7F3B82D3AA}"/>
+    <cellStyle name="Note 8 3" xfId="1279" xr:uid="{46BC4853-1653-45C5-AB45-4C8B0B445B7F}"/>
+    <cellStyle name="Note 8 3 10" xfId="1280" xr:uid="{C2B6BB0B-3D4E-4996-9138-863DC84C6388}"/>
+    <cellStyle name="Note 8 3 2" xfId="1281" xr:uid="{09014D28-AE00-48EC-B71D-05481422CA07}"/>
+    <cellStyle name="Note 8 3 3" xfId="1282" xr:uid="{F9669B50-99BE-4A64-8152-C70520FBCC3E}"/>
+    <cellStyle name="Note 8 3 4" xfId="1283" xr:uid="{62A5000E-D63A-4255-A637-3191D120E528}"/>
+    <cellStyle name="Note 8 3 5" xfId="1284" xr:uid="{5D367E9E-116A-48A3-BEAA-AF18AA297189}"/>
+    <cellStyle name="Note 8 3 6" xfId="1285" xr:uid="{4E2C4B09-0B3D-47E0-B4F1-F9613CAD65E4}"/>
+    <cellStyle name="Note 8 3 7" xfId="1286" xr:uid="{155B992E-3F0B-42D5-B5E7-96107CE58B99}"/>
+    <cellStyle name="Note 8 3 8" xfId="1287" xr:uid="{3B15B05E-C6CF-477A-B9A5-DBD295429A8D}"/>
+    <cellStyle name="Note 8 3 9" xfId="1288" xr:uid="{9FB737EF-4E14-46DD-B3C0-DD122B88D5DF}"/>
+    <cellStyle name="Note 8 4" xfId="1289" xr:uid="{91EFE7C5-F36B-4D55-9B96-F57C3FA04840}"/>
+    <cellStyle name="Note 8 5" xfId="1290" xr:uid="{9D6F7E54-0E3C-4233-85A8-F52B1710732E}"/>
+    <cellStyle name="Note 8 6" xfId="1291" xr:uid="{7BE4708E-45A4-4AF5-8CDB-ECCED805CC05}"/>
+    <cellStyle name="Note 8 7" xfId="1292" xr:uid="{2B845BA2-EA3E-4FCC-ADF5-FE3B17F7B65C}"/>
+    <cellStyle name="Note 8 8" xfId="1293" xr:uid="{20626D3F-7522-41A6-B479-89FABD01AC8E}"/>
+    <cellStyle name="Note 8 9" xfId="1294" xr:uid="{3B2FA597-E9B7-4B9F-820A-EC026179F1ED}"/>
+    <cellStyle name="Note 9" xfId="1295" xr:uid="{57FCA5D0-F079-4602-B171-A0E79809A9BC}"/>
+    <cellStyle name="Note 9 10" xfId="1296" xr:uid="{DBFB76CA-B329-4017-91E8-A93C8B57BBC5}"/>
+    <cellStyle name="Note 9 11" xfId="1297" xr:uid="{986E4838-BBD8-40D6-B04C-8C8554B13BFE}"/>
+    <cellStyle name="Note 9 12" xfId="1298" xr:uid="{12C50CF4-C2A1-4469-968B-9B5F6D7108EC}"/>
+    <cellStyle name="Note 9 2" xfId="1299" xr:uid="{69E14564-01DA-4E6C-8C8E-D4BED560095D}"/>
+    <cellStyle name="Note 9 2 10" xfId="1300" xr:uid="{0E60EA37-4ED5-43F7-9116-E721A2E11A00}"/>
+    <cellStyle name="Note 9 2 2" xfId="1301" xr:uid="{A0A6C52C-3469-4B62-ACA5-17665F123861}"/>
+    <cellStyle name="Note 9 2 3" xfId="1302" xr:uid="{07FE9664-6B64-44F6-961C-57138A8AF5E6}"/>
+    <cellStyle name="Note 9 2 4" xfId="1303" xr:uid="{A260731C-993B-4D29-9A05-65835B19E0C1}"/>
+    <cellStyle name="Note 9 2 5" xfId="1304" xr:uid="{6BFBA7E5-8A30-456C-9A72-CEDD5194B290}"/>
+    <cellStyle name="Note 9 2 6" xfId="1305" xr:uid="{472A6838-CDC5-42CB-8B23-32930567AFE6}"/>
+    <cellStyle name="Note 9 2 7" xfId="1306" xr:uid="{9D54773D-E2B9-4A20-87DE-5281AF6CCCFD}"/>
+    <cellStyle name="Note 9 2 8" xfId="1307" xr:uid="{0562D554-4774-4B1C-BEA0-DFE19FACACA5}"/>
+    <cellStyle name="Note 9 2 9" xfId="1308" xr:uid="{43841BE2-93E6-4943-8DE0-6F70CF7D2BCC}"/>
+    <cellStyle name="Note 9 3" xfId="1309" xr:uid="{56F78F81-AEDB-490E-8A8E-080CC4602240}"/>
+    <cellStyle name="Note 9 3 10" xfId="1310" xr:uid="{F8593AF6-EAF5-4002-8489-CA2607603F32}"/>
+    <cellStyle name="Note 9 3 2" xfId="1311" xr:uid="{C3A99469-79AA-4F57-81F5-11787884CC6C}"/>
+    <cellStyle name="Note 9 3 3" xfId="1312" xr:uid="{8E666EA6-825A-4EC0-B4DE-AFC6061104E4}"/>
+    <cellStyle name="Note 9 3 4" xfId="1313" xr:uid="{CC22B705-65F4-4C8F-8BFF-27FA8FA1134C}"/>
+    <cellStyle name="Note 9 3 5" xfId="1314" xr:uid="{ADD0D3F2-F1B3-4E7E-95A2-69843DCAFAEC}"/>
+    <cellStyle name="Note 9 3 6" xfId="1315" xr:uid="{A09FE1F8-7FFB-4B32-891F-6C1E56E58B3F}"/>
+    <cellStyle name="Note 9 3 7" xfId="1316" xr:uid="{2F416AC7-FA6A-48D9-A994-47B568EBCE89}"/>
+    <cellStyle name="Note 9 3 8" xfId="1317" xr:uid="{F00834A1-2C8C-4B1F-ACD1-455C82F882FF}"/>
+    <cellStyle name="Note 9 3 9" xfId="1318" xr:uid="{F5C90C7F-F38D-4FC0-ACAC-6878A2D11BD4}"/>
+    <cellStyle name="Note 9 4" xfId="1319" xr:uid="{94CA5C3E-4E34-4813-A91D-9BFC830360EC}"/>
+    <cellStyle name="Note 9 5" xfId="1320" xr:uid="{881663FF-5F9F-44BE-8E11-8AB85F4A6C96}"/>
+    <cellStyle name="Note 9 6" xfId="1321" xr:uid="{4026B598-94DD-42EA-89EF-48726F926227}"/>
+    <cellStyle name="Note 9 7" xfId="1322" xr:uid="{16EE33E8-D1DE-4996-BBDD-C9697691AEC2}"/>
+    <cellStyle name="Note 9 8" xfId="1323" xr:uid="{7E47BC8D-6A72-4788-B492-16E99FBE5E86}"/>
+    <cellStyle name="Note 9 9" xfId="1324" xr:uid="{9489FEBE-8447-48DB-8170-48B1A1F04AB4}"/>
+    <cellStyle name="Output 10" xfId="1325" xr:uid="{A44078A2-0496-4772-AC35-AA35624513E8}"/>
+    <cellStyle name="Output 10 10" xfId="1326" xr:uid="{B092D8FC-3201-4B9B-9E92-F4596DE6F369}"/>
+    <cellStyle name="Output 10 11" xfId="1327" xr:uid="{0E6C7CC6-3874-43A4-BE47-B9DBDBAEC9CE}"/>
+    <cellStyle name="Output 10 12" xfId="1328" xr:uid="{6A0B6CB7-751C-45B0-937F-A18485903CD5}"/>
+    <cellStyle name="Output 10 2" xfId="1329" xr:uid="{67F5CBA2-5CA0-4201-A6B8-7D05DE02D38E}"/>
+    <cellStyle name="Output 10 2 10" xfId="1330" xr:uid="{1874B1A7-9E85-40D6-AF6D-735631220E1E}"/>
+    <cellStyle name="Output 10 2 2" xfId="1331" xr:uid="{3465F903-F070-4608-9D33-138D30E6991D}"/>
+    <cellStyle name="Output 10 2 3" xfId="1332" xr:uid="{EB86D1AF-79F5-4282-9B96-0474AD6C761B}"/>
+    <cellStyle name="Output 10 2 4" xfId="1333" xr:uid="{D7711100-49DC-4EE0-AB53-7AC396A5133C}"/>
+    <cellStyle name="Output 10 2 5" xfId="1334" xr:uid="{E453FE3E-7745-4F2E-8377-D2B340A6FF4F}"/>
+    <cellStyle name="Output 10 2 6" xfId="1335" xr:uid="{4DBFF0E1-9BA6-4E60-82F7-7316CA6507F8}"/>
+    <cellStyle name="Output 10 2 7" xfId="1336" xr:uid="{67A1D37C-1465-42C8-B387-FF19815D18D4}"/>
+    <cellStyle name="Output 10 2 8" xfId="1337" xr:uid="{3FB347BB-BBE3-43D2-83E0-F68708A61BC0}"/>
+    <cellStyle name="Output 10 2 9" xfId="1338" xr:uid="{9835BBBC-1202-4E9B-88CF-1D3A52862E0E}"/>
+    <cellStyle name="Output 10 3" xfId="1339" xr:uid="{3DEE4BE4-0758-4092-9A5F-5175FA450EC5}"/>
+    <cellStyle name="Output 10 3 10" xfId="1340" xr:uid="{24723849-2768-4961-B17D-576C400BDD51}"/>
+    <cellStyle name="Output 10 3 2" xfId="1341" xr:uid="{B6628E21-D36C-4F0F-8C3D-FDBE01AEFA33}"/>
+    <cellStyle name="Output 10 3 3" xfId="1342" xr:uid="{4BF0FC9D-BA26-4A5B-BAC7-FD0388E48BB4}"/>
+    <cellStyle name="Output 10 3 4" xfId="1343" xr:uid="{62C1339D-3639-4A88-96BF-66918081F447}"/>
+    <cellStyle name="Output 10 3 5" xfId="1344" xr:uid="{57DFA13F-7D66-4E4E-8C5B-AB627EC74A67}"/>
+    <cellStyle name="Output 10 3 6" xfId="1345" xr:uid="{F86CFBF6-8C78-471D-A58B-1AC241B29727}"/>
+    <cellStyle name="Output 10 3 7" xfId="1346" xr:uid="{7AF1345A-4B2F-46D6-87B7-86F641E3A576}"/>
+    <cellStyle name="Output 10 3 8" xfId="1347" xr:uid="{271E4015-1E4E-42F7-910B-17D99FA64A26}"/>
+    <cellStyle name="Output 10 3 9" xfId="1348" xr:uid="{CF629E27-E6D6-45ED-A5C9-05EFBDAC321E}"/>
+    <cellStyle name="Output 10 4" xfId="1349" xr:uid="{B139F1B6-EBEF-4BEB-819C-267EA39415C5}"/>
+    <cellStyle name="Output 10 5" xfId="1350" xr:uid="{18B8C5E4-ED01-4F76-A215-A49CCDCD2BC8}"/>
+    <cellStyle name="Output 10 6" xfId="1351" xr:uid="{53FBDFAB-221D-48B5-BF53-6CB53D66D1EC}"/>
+    <cellStyle name="Output 10 7" xfId="1352" xr:uid="{9318FFFB-8A53-4406-A1A4-3733B686D483}"/>
+    <cellStyle name="Output 10 8" xfId="1353" xr:uid="{FF0EAF64-7F9A-42EA-86B4-08AED7A0101A}"/>
+    <cellStyle name="Output 10 9" xfId="1354" xr:uid="{B24221E7-A36F-45D9-98B2-E829684437F2}"/>
+    <cellStyle name="Output 2" xfId="1355" xr:uid="{38728975-B717-4A0A-B29E-742138A55523}"/>
+    <cellStyle name="Output 2 10" xfId="1356" xr:uid="{A7B396DB-F023-42A8-B91D-5F657E564342}"/>
+    <cellStyle name="Output 2 11" xfId="1357" xr:uid="{EB3D7EEF-E63D-4073-AF21-37ECE4CCEAE9}"/>
+    <cellStyle name="Output 2 12" xfId="1358" xr:uid="{4508EFD0-401C-4755-B5F2-BED455F66D7C}"/>
+    <cellStyle name="Output 2 2" xfId="1359" xr:uid="{2051D68C-996E-4589-9F01-8C9B970DE69C}"/>
+    <cellStyle name="Output 2 2 10" xfId="1360" xr:uid="{9AC272AD-4FA1-47F2-8995-AFA79154DF06}"/>
+    <cellStyle name="Output 2 2 2" xfId="1361" xr:uid="{5F8CDA5B-79D2-49BE-9EF9-1C349A49D6AA}"/>
+    <cellStyle name="Output 2 2 3" xfId="1362" xr:uid="{433A6850-113C-44E9-BE08-17FB90732EA8}"/>
+    <cellStyle name="Output 2 2 4" xfId="1363" xr:uid="{6E16C7BA-4E37-4D59-89E4-2307142458FF}"/>
+    <cellStyle name="Output 2 2 5" xfId="1364" xr:uid="{EFB00322-6289-412B-9578-5291059CCD22}"/>
+    <cellStyle name="Output 2 2 6" xfId="1365" xr:uid="{C3407351-13E6-4CE2-A651-64FAB6F0A092}"/>
+    <cellStyle name="Output 2 2 7" xfId="1366" xr:uid="{52A24B6F-CA1B-4165-85D0-56FC878312A4}"/>
+    <cellStyle name="Output 2 2 8" xfId="1367" xr:uid="{D34438CF-DACD-4875-A8C1-DFAEE23B2228}"/>
+    <cellStyle name="Output 2 2 9" xfId="1368" xr:uid="{5E2B900E-8926-4FCC-9E11-27B534D2B662}"/>
+    <cellStyle name="Output 2 3" xfId="1369" xr:uid="{0E0C92E3-5909-4566-B4A4-D9822B4F74E1}"/>
+    <cellStyle name="Output 2 3 10" xfId="1370" xr:uid="{12950996-3FC4-47AD-BEE1-5D264AAF3C6D}"/>
+    <cellStyle name="Output 2 3 2" xfId="1371" xr:uid="{20E3527E-3867-4582-A17E-342D5B3DFD45}"/>
+    <cellStyle name="Output 2 3 3" xfId="1372" xr:uid="{86A4FB2E-FC01-4802-8651-B1ABA28554ED}"/>
+    <cellStyle name="Output 2 3 4" xfId="1373" xr:uid="{4EF8BBEC-F596-4B26-A915-345B5FA31C7C}"/>
+    <cellStyle name="Output 2 3 5" xfId="1374" xr:uid="{8E6FF8A8-4BCA-4F65-BF4A-A40F7FE600A7}"/>
+    <cellStyle name="Output 2 3 6" xfId="1375" xr:uid="{33918D7C-FC9A-4CE7-AD50-D50A20DB0AB8}"/>
+    <cellStyle name="Output 2 3 7" xfId="1376" xr:uid="{65B9A916-8832-457F-81E4-95D3F10634AF}"/>
+    <cellStyle name="Output 2 3 8" xfId="1377" xr:uid="{034EF412-62CE-4ADA-9A16-DFF22841EE94}"/>
+    <cellStyle name="Output 2 3 9" xfId="1378" xr:uid="{77AFC81C-DB21-4BFC-BF83-BF1256ED5C38}"/>
+    <cellStyle name="Output 2 4" xfId="1379" xr:uid="{B0DD82CA-495F-4131-8E90-C0EEB60ADCD3}"/>
+    <cellStyle name="Output 2 5" xfId="1380" xr:uid="{4DEFF0B2-B5C4-4524-8F73-C00FD0BD5ABE}"/>
+    <cellStyle name="Output 2 6" xfId="1381" xr:uid="{5A33FFB8-59E6-4696-87B4-985E148684E6}"/>
+    <cellStyle name="Output 2 7" xfId="1382" xr:uid="{44B9E12A-AA5E-4EDC-BA5A-E43EA5BDFAEB}"/>
+    <cellStyle name="Output 2 8" xfId="1383" xr:uid="{B63F8FD0-9371-4054-BF60-970FDC808A07}"/>
+    <cellStyle name="Output 2 9" xfId="1384" xr:uid="{74254359-62BD-4519-BE38-F403B712BAEE}"/>
+    <cellStyle name="Output 3" xfId="1385" xr:uid="{CA115293-100F-448C-AD6B-7A8CD56737DC}"/>
+    <cellStyle name="Output 3 10" xfId="1386" xr:uid="{16E84AE6-3F00-4197-8C05-CCAC28935812}"/>
+    <cellStyle name="Output 3 11" xfId="1387" xr:uid="{85CCD5E6-7879-438F-AB96-0A1869CEB8E8}"/>
+    <cellStyle name="Output 3 12" xfId="1388" xr:uid="{56096023-01F6-47A1-BAFD-08AFCD08776C}"/>
+    <cellStyle name="Output 3 2" xfId="1389" xr:uid="{6245B857-26B5-4B54-B14C-F5ECCD32B4A3}"/>
+    <cellStyle name="Output 3 2 10" xfId="1390" xr:uid="{AE0727EF-61D6-439C-96BC-14C915153A7C}"/>
+    <cellStyle name="Output 3 2 2" xfId="1391" xr:uid="{DCC3B005-3745-478A-8BA4-E125CF28B5E1}"/>
+    <cellStyle name="Output 3 2 3" xfId="1392" xr:uid="{51287E6E-FAC2-4ABF-81DB-B4E950B8B988}"/>
+    <cellStyle name="Output 3 2 4" xfId="1393" xr:uid="{D8FA5DB9-582F-4984-A96A-99E3687CEDD8}"/>
+    <cellStyle name="Output 3 2 5" xfId="1394" xr:uid="{BD20DBB1-E121-4B83-A2A3-96A194E305E7}"/>
+    <cellStyle name="Output 3 2 6" xfId="1395" xr:uid="{325CE9A4-146D-4A7A-9C98-F8CE45AD45C0}"/>
+    <cellStyle name="Output 3 2 7" xfId="1396" xr:uid="{892920BF-2654-47C8-B30D-D9B0331CBE38}"/>
+    <cellStyle name="Output 3 2 8" xfId="1397" xr:uid="{9B030B93-D3EC-43A6-98DA-2B9C2D338C78}"/>
+    <cellStyle name="Output 3 2 9" xfId="1398" xr:uid="{6B8E9889-1F71-4B11-9E79-9F2AD350B491}"/>
+    <cellStyle name="Output 3 3" xfId="1399" xr:uid="{F0A80624-5CB5-48F8-A0C5-B173562AA8C1}"/>
+    <cellStyle name="Output 3 3 10" xfId="1400" xr:uid="{BD19734B-C9B5-4296-95A0-C5F1CF8CB10C}"/>
+    <cellStyle name="Output 3 3 2" xfId="1401" xr:uid="{685BC063-E872-45E6-B197-9EF3E9BED739}"/>
+    <cellStyle name="Output 3 3 3" xfId="1402" xr:uid="{C6D2882F-F730-4217-8685-3FB5845D048E}"/>
+    <cellStyle name="Output 3 3 4" xfId="1403" xr:uid="{42DEF6FA-947E-4DBE-8C90-873D0FD1457E}"/>
+    <cellStyle name="Output 3 3 5" xfId="1404" xr:uid="{5C674C6E-22C6-49B0-B361-D6020B63FDDD}"/>
+    <cellStyle name="Output 3 3 6" xfId="1405" xr:uid="{6EC51B95-30F2-4F88-BBB3-4A2AF76FA2EE}"/>
+    <cellStyle name="Output 3 3 7" xfId="1406" xr:uid="{BA0A1227-F758-4679-B1E4-80E4B9807662}"/>
+    <cellStyle name="Output 3 3 8" xfId="1407" xr:uid="{6E896728-7279-45BD-97E2-32870717FF4E}"/>
+    <cellStyle name="Output 3 3 9" xfId="1408" xr:uid="{E845343C-7122-49D2-BAE6-C6ECD4CD0DA6}"/>
+    <cellStyle name="Output 3 4" xfId="1409" xr:uid="{464AEE7F-465D-4133-8EE0-B5AE9ADCD986}"/>
+    <cellStyle name="Output 3 5" xfId="1410" xr:uid="{B17C7500-4B4D-459B-AF4C-705FA0C5E502}"/>
+    <cellStyle name="Output 3 6" xfId="1411" xr:uid="{969086CC-E5DF-407C-AC5E-2AF55CD86C3D}"/>
+    <cellStyle name="Output 3 7" xfId="1412" xr:uid="{F9F2DF86-F461-4AD7-8A07-DEF1A2876CD3}"/>
+    <cellStyle name="Output 3 8" xfId="1413" xr:uid="{1DD36093-53EC-4B66-B1BD-96560FE2DD0C}"/>
+    <cellStyle name="Output 3 9" xfId="1414" xr:uid="{496CC57B-ECA4-4E6E-ABF2-26473513E406}"/>
+    <cellStyle name="Output 4" xfId="1415" xr:uid="{B004891A-52A9-4103-BC16-8A5967B6A3E4}"/>
+    <cellStyle name="Output 4 10" xfId="1416" xr:uid="{2B891617-2879-4C79-A3CC-D8430009A8EC}"/>
+    <cellStyle name="Output 4 11" xfId="1417" xr:uid="{19848693-76D2-4182-AD89-6D35B4C4D52B}"/>
+    <cellStyle name="Output 4 12" xfId="1418" xr:uid="{3D30B40F-F4B7-4619-80AB-F2AE3BA40B0E}"/>
+    <cellStyle name="Output 4 2" xfId="1419" xr:uid="{D35A8E48-1606-407C-9AAE-B2EA72D145FE}"/>
+    <cellStyle name="Output 4 2 10" xfId="1420" xr:uid="{9CC58F33-23E6-4BFE-B58D-A29A81D90DD9}"/>
+    <cellStyle name="Output 4 2 2" xfId="1421" xr:uid="{AB7E9B34-8891-4CD5-A177-03A87EC7B643}"/>
+    <cellStyle name="Output 4 2 3" xfId="1422" xr:uid="{3FBF4709-06B6-4C3F-A885-16335BB6E479}"/>
+    <cellStyle name="Output 4 2 4" xfId="1423" xr:uid="{28D5F3B7-738D-4A39-8EE2-18B3263AE5B3}"/>
+    <cellStyle name="Output 4 2 5" xfId="1424" xr:uid="{A9FEE942-BCA3-4CF4-B897-BE4C2812B2F1}"/>
+    <cellStyle name="Output 4 2 6" xfId="1425" xr:uid="{EAE51503-4658-4ACB-97FB-3A36A0660BF3}"/>
+    <cellStyle name="Output 4 2 7" xfId="1426" xr:uid="{186E11E7-D43E-4F9D-9D17-462F608A659E}"/>
+    <cellStyle name="Output 4 2 8" xfId="1427" xr:uid="{46835082-EC31-4308-B152-EAAB7B4E3F6C}"/>
+    <cellStyle name="Output 4 2 9" xfId="1428" xr:uid="{40ABB04F-6A62-4663-B795-98C93FD44D34}"/>
+    <cellStyle name="Output 4 3" xfId="1429" xr:uid="{3B44164B-4F2C-4A86-8555-68750F05FA3F}"/>
+    <cellStyle name="Output 4 3 10" xfId="1430" xr:uid="{4950CF9F-82C2-41A4-A0AC-F1E1AE009553}"/>
+    <cellStyle name="Output 4 3 2" xfId="1431" xr:uid="{5C2845C7-DB81-4C6B-B13E-DF87B7983E96}"/>
+    <cellStyle name="Output 4 3 3" xfId="1432" xr:uid="{94E5816A-DA49-4D33-A64D-5E9CA0A759A7}"/>
+    <cellStyle name="Output 4 3 4" xfId="1433" xr:uid="{B4025703-3367-4235-881D-EB31DB419A56}"/>
+    <cellStyle name="Output 4 3 5" xfId="1434" xr:uid="{DC28AEC0-0B4C-4519-BA25-FADC942A1D2B}"/>
+    <cellStyle name="Output 4 3 6" xfId="1435" xr:uid="{203F164A-696E-4607-8DD2-382D4FCE085C}"/>
+    <cellStyle name="Output 4 3 7" xfId="1436" xr:uid="{F8F0C6D5-DC0A-4324-B239-47E7820B36B9}"/>
+    <cellStyle name="Output 4 3 8" xfId="1437" xr:uid="{EB4ADA97-3770-4DBF-9EF6-581976C11C51}"/>
+    <cellStyle name="Output 4 3 9" xfId="1438" xr:uid="{92538A54-440F-4C77-AF3C-944A3DF0E2F1}"/>
+    <cellStyle name="Output 4 4" xfId="1439" xr:uid="{C77CE2B4-954E-4B88-BFEB-2C9B3616CF5E}"/>
+    <cellStyle name="Output 4 5" xfId="1440" xr:uid="{D5B92D54-3A62-4801-8D9D-8DEA8F619C64}"/>
+    <cellStyle name="Output 4 6" xfId="1441" xr:uid="{793B9A87-C6BF-4FE2-B5E2-857A96C02537}"/>
+    <cellStyle name="Output 4 7" xfId="1442" xr:uid="{AF3F9F16-45BD-4A93-8FD1-A0CB683E5967}"/>
+    <cellStyle name="Output 4 8" xfId="1443" xr:uid="{47432555-18FF-46A8-A720-8AAF47B76393}"/>
+    <cellStyle name="Output 4 9" xfId="1444" xr:uid="{F1AD0EAC-E1C7-4EC3-BEB1-53973428C060}"/>
+    <cellStyle name="Output 5" xfId="1445" xr:uid="{FB24BC78-D7E5-466B-81AE-8677AD3291F1}"/>
+    <cellStyle name="Output 5 10" xfId="1446" xr:uid="{A35BC110-7F4A-41FF-B392-917A61746D59}"/>
+    <cellStyle name="Output 5 11" xfId="1447" xr:uid="{F0A7B99F-49FD-47A0-A076-71CC1C9FE375}"/>
+    <cellStyle name="Output 5 12" xfId="1448" xr:uid="{1EC2EB32-489D-4B5D-9D7C-6BBF082A1FAE}"/>
+    <cellStyle name="Output 5 2" xfId="1449" xr:uid="{3D2F5CB6-010B-4DE6-BABE-D6B167CA7B1E}"/>
+    <cellStyle name="Output 5 2 10" xfId="1450" xr:uid="{E2F97132-EDE9-47B4-BEB2-D577E119A758}"/>
+    <cellStyle name="Output 5 2 2" xfId="1451" xr:uid="{3DF2572A-171A-4F7A-8905-D4304E4A6AAA}"/>
+    <cellStyle name="Output 5 2 3" xfId="1452" xr:uid="{75621D57-D84F-43DC-85C4-F133B8CCDF8D}"/>
+    <cellStyle name="Output 5 2 4" xfId="1453" xr:uid="{83A235C5-6D99-4540-9005-394D4CE7C30C}"/>
+    <cellStyle name="Output 5 2 5" xfId="1454" xr:uid="{7BAAC7F6-E7BE-408A-AF75-1DA59431683B}"/>
+    <cellStyle name="Output 5 2 6" xfId="1455" xr:uid="{C75002B8-D464-41D3-8AE9-8B9C38C68101}"/>
+    <cellStyle name="Output 5 2 7" xfId="1456" xr:uid="{5D18E8E9-7EE6-4A9F-AA94-8FB5F46E2103}"/>
+    <cellStyle name="Output 5 2 8" xfId="1457" xr:uid="{15A4BEDA-B2E8-4849-A074-9CF687AAF8A5}"/>
+    <cellStyle name="Output 5 2 9" xfId="1458" xr:uid="{99BC5681-C155-4204-8054-788955C1A30D}"/>
+    <cellStyle name="Output 5 3" xfId="1459" xr:uid="{044DD3A5-8544-4337-9B3D-88482E3F878E}"/>
+    <cellStyle name="Output 5 3 10" xfId="1460" xr:uid="{3570AEA7-5819-4CD1-BC9D-CDFF70C52A1A}"/>
+    <cellStyle name="Output 5 3 2" xfId="1461" xr:uid="{4FBDD2FA-07CE-4455-B169-D001E53A50C1}"/>
+    <cellStyle name="Output 5 3 3" xfId="1462" xr:uid="{C9029A23-461F-4D85-9180-2D9128559503}"/>
+    <cellStyle name="Output 5 3 4" xfId="1463" xr:uid="{3BC81E27-22E6-4207-B40A-2FE923C4B1A7}"/>
+    <cellStyle name="Output 5 3 5" xfId="1464" xr:uid="{E1B668B7-67EE-4FC7-B13F-D14E004C561A}"/>
+    <cellStyle name="Output 5 3 6" xfId="1465" xr:uid="{12458B40-E319-45C2-A5C7-F7BB57718AEA}"/>
+    <cellStyle name="Output 5 3 7" xfId="1466" xr:uid="{F0C92544-98EA-4966-942B-7D9BB270CD7A}"/>
+    <cellStyle name="Output 5 3 8" xfId="1467" xr:uid="{0A74C1EF-5335-4B36-894F-52EC499AE823}"/>
+    <cellStyle name="Output 5 3 9" xfId="1468" xr:uid="{538EC9FB-9D22-46B6-B793-DF760AD6E10C}"/>
+    <cellStyle name="Output 5 4" xfId="1469" xr:uid="{6A445EB9-6B5A-44CE-9A87-8CDDB52F0DEE}"/>
+    <cellStyle name="Output 5 5" xfId="1470" xr:uid="{92056703-56DB-4612-89D7-170CB320A0B6}"/>
+    <cellStyle name="Output 5 6" xfId="1471" xr:uid="{A50503AE-3592-4E2E-BEF4-20EBE472A3F0}"/>
+    <cellStyle name="Output 5 7" xfId="1472" xr:uid="{5C169E75-6368-455E-9633-33F304F2BC5A}"/>
+    <cellStyle name="Output 5 8" xfId="1473" xr:uid="{A834F7F7-EEFB-4AFD-9735-CEA6B7EA617D}"/>
+    <cellStyle name="Output 5 9" xfId="1474" xr:uid="{558ABF10-0EBE-4D9D-9FC1-5CF8D59F625D}"/>
+    <cellStyle name="Output 6" xfId="1475" xr:uid="{52567A81-4E73-4C6A-ADA9-97BD628C12A8}"/>
+    <cellStyle name="Output 6 10" xfId="1476" xr:uid="{84907905-A0B2-41FA-9706-FF2F291C089A}"/>
+    <cellStyle name="Output 6 11" xfId="1477" xr:uid="{5FED8A46-5CF8-4832-825D-216A4BDEC118}"/>
+    <cellStyle name="Output 6 12" xfId="1478" xr:uid="{5A61DB63-9873-4F99-88CC-BD49974DF192}"/>
+    <cellStyle name="Output 6 2" xfId="1479" xr:uid="{194B8377-5755-41AD-A649-0C0D39B09460}"/>
+    <cellStyle name="Output 6 2 10" xfId="1480" xr:uid="{AF9F9F01-493D-43FE-BF6C-F7960E60232D}"/>
+    <cellStyle name="Output 6 2 2" xfId="1481" xr:uid="{D45093FC-6D50-4D6D-A242-89723C76A210}"/>
+    <cellStyle name="Output 6 2 3" xfId="1482" xr:uid="{9E75FB0B-D688-4746-B425-0268A2EC603F}"/>
+    <cellStyle name="Output 6 2 4" xfId="1483" xr:uid="{79799CBD-2F82-48F8-A786-B0C2251507A3}"/>
+    <cellStyle name="Output 6 2 5" xfId="1484" xr:uid="{AECC80D8-7756-4F0B-8CB3-81ED2EE2710C}"/>
+    <cellStyle name="Output 6 2 6" xfId="1485" xr:uid="{AD0D2846-7FE0-4889-8ED9-2DD867EEC3A1}"/>
+    <cellStyle name="Output 6 2 7" xfId="1486" xr:uid="{CDEE5F34-9899-420B-99A1-4BF9F74E051F}"/>
+    <cellStyle name="Output 6 2 8" xfId="1487" xr:uid="{C08293AC-7FA4-4D71-A806-32BFCCDB082C}"/>
+    <cellStyle name="Output 6 2 9" xfId="1488" xr:uid="{4D72BD42-F7AD-42F4-BD10-EFA90E44ADAB}"/>
+    <cellStyle name="Output 6 3" xfId="1489" xr:uid="{9A2CA0E3-EAE6-4536-B439-C40B43CDA369}"/>
+    <cellStyle name="Output 6 3 10" xfId="1490" xr:uid="{D1F3CACD-E6AD-4AD7-A33B-E66A37EA0BBC}"/>
+    <cellStyle name="Output 6 3 2" xfId="1491" xr:uid="{2E12DEB4-6965-4E2E-908F-1672A1B60427}"/>
+    <cellStyle name="Output 6 3 3" xfId="1492" xr:uid="{E5CE7118-1510-4BC0-A015-9388952856C0}"/>
+    <cellStyle name="Output 6 3 4" xfId="1493" xr:uid="{11DBC527-C77D-4B2E-A0B0-D9B2D85D5754}"/>
+    <cellStyle name="Output 6 3 5" xfId="1494" xr:uid="{D67E5584-830F-4FF3-ACAE-F03F5232C4F2}"/>
+    <cellStyle name="Output 6 3 6" xfId="1495" xr:uid="{DFF6D9FC-33E4-44C8-ADD1-C97062506CC5}"/>
+    <cellStyle name="Output 6 3 7" xfId="1496" xr:uid="{E9357FBE-7A85-4EA5-8C14-BE6D4A4E6FB3}"/>
+    <cellStyle name="Output 6 3 8" xfId="1497" xr:uid="{62D78414-2C39-42DF-8933-0537126A17E5}"/>
+    <cellStyle name="Output 6 3 9" xfId="1498" xr:uid="{7E812F7B-75EA-417B-AE7A-9640A3E7B8A6}"/>
+    <cellStyle name="Output 6 4" xfId="1499" xr:uid="{F33FC391-E2E3-466A-A814-D617F2F48CCA}"/>
+    <cellStyle name="Output 6 5" xfId="1500" xr:uid="{74EEF4A9-C7AE-4C64-80D2-3B4DBB9F90A2}"/>
+    <cellStyle name="Output 6 6" xfId="1501" xr:uid="{CDE65FF1-5EA2-44F3-988B-7AF0DA338EA4}"/>
+    <cellStyle name="Output 6 7" xfId="1502" xr:uid="{2CA7AD8E-678B-48B0-AF3B-CA848C9C1904}"/>
+    <cellStyle name="Output 6 8" xfId="1503" xr:uid="{AB82194F-C976-45C6-8793-E8B732A5D706}"/>
+    <cellStyle name="Output 6 9" xfId="1504" xr:uid="{2EF874E8-2276-452C-BB86-5EF10E718AFC}"/>
+    <cellStyle name="Output 7" xfId="1505" xr:uid="{60D8CF03-126F-447C-BAFA-B1884169D694}"/>
+    <cellStyle name="Output 7 10" xfId="1506" xr:uid="{FE664272-CC2E-4A83-BD42-FF348FFF5686}"/>
+    <cellStyle name="Output 7 11" xfId="1507" xr:uid="{BBE788FC-B667-42C1-B13D-8F6162A25595}"/>
+    <cellStyle name="Output 7 12" xfId="1508" xr:uid="{B318ABF3-9070-4597-901C-F763BA6C0171}"/>
+    <cellStyle name="Output 7 2" xfId="1509" xr:uid="{C5B4D4AD-79C1-4C27-8253-16356ECEBDEC}"/>
+    <cellStyle name="Output 7 2 10" xfId="1510" xr:uid="{8BB28A4C-1A24-42FD-A3D7-D1B91D15B6A2}"/>
+    <cellStyle name="Output 7 2 2" xfId="1511" xr:uid="{38B3EC2A-BB1C-41FF-98D9-CCD269C7E959}"/>
+    <cellStyle name="Output 7 2 3" xfId="1512" xr:uid="{DC38AE11-87A2-4A1F-AA51-C1C5A667C7BE}"/>
+    <cellStyle name="Output 7 2 4" xfId="1513" xr:uid="{B29D3C8C-7E22-4F3C-90AB-4A455D05E48D}"/>
+    <cellStyle name="Output 7 2 5" xfId="1514" xr:uid="{0CCF4778-CA29-41E0-A6B5-76C889FBE2CA}"/>
+    <cellStyle name="Output 7 2 6" xfId="1515" xr:uid="{69073CD5-982E-403D-9B2F-43847647459A}"/>
+    <cellStyle name="Output 7 2 7" xfId="1516" xr:uid="{7DF54900-C194-4157-A98C-FEE781C4810D}"/>
+    <cellStyle name="Output 7 2 8" xfId="1517" xr:uid="{DDD065E7-9EFD-4251-8B75-8B808DD7A9BC}"/>
+    <cellStyle name="Output 7 2 9" xfId="1518" xr:uid="{77108CC2-32CB-4808-8650-89CF0A77EDC3}"/>
+    <cellStyle name="Output 7 3" xfId="1519" xr:uid="{46EEC9F6-94C4-48A9-AA4E-A0DADD336FC1}"/>
+    <cellStyle name="Output 7 3 10" xfId="1520" xr:uid="{55D2C315-5220-43D9-B749-FF8A2AE0D355}"/>
+    <cellStyle name="Output 7 3 2" xfId="1521" xr:uid="{45720761-3AC7-40CA-84C7-0490A2E428E8}"/>
+    <cellStyle name="Output 7 3 3" xfId="1522" xr:uid="{45389071-D983-47C3-A04E-F9B0C5019281}"/>
+    <cellStyle name="Output 7 3 4" xfId="1523" xr:uid="{4A6B30F9-E72F-432B-AABE-300E1603EAA7}"/>
+    <cellStyle name="Output 7 3 5" xfId="1524" xr:uid="{54E4816E-8EEF-4CFD-8A3C-93CCB67334BC}"/>
+    <cellStyle name="Output 7 3 6" xfId="1525" xr:uid="{51E3D85A-0798-461C-BB37-65A89BF6E669}"/>
+    <cellStyle name="Output 7 3 7" xfId="1526" xr:uid="{7BDE8DD5-54F2-4F91-B44A-B63631522276}"/>
+    <cellStyle name="Output 7 3 8" xfId="1527" xr:uid="{459AA3E4-176D-41D2-B06F-DB04E4FF76D2}"/>
+    <cellStyle name="Output 7 3 9" xfId="1528" xr:uid="{3AA44AA5-6079-4487-95E1-8945A44D96B8}"/>
+    <cellStyle name="Output 7 4" xfId="1529" xr:uid="{5A27760F-B654-4BB0-9D66-67ED2842AAB8}"/>
+    <cellStyle name="Output 7 5" xfId="1530" xr:uid="{A1B88815-E90F-4179-8B65-AC250BAE5CCA}"/>
+    <cellStyle name="Output 7 6" xfId="1531" xr:uid="{1BDCF12F-3EA7-4E16-A749-31A1D3BA058C}"/>
+    <cellStyle name="Output 7 7" xfId="1532" xr:uid="{500593FB-7BCE-48FF-8CD7-F9166F03EAAC}"/>
+    <cellStyle name="Output 7 8" xfId="1533" xr:uid="{70A34A96-5840-4563-988F-638CEC32DF5B}"/>
+    <cellStyle name="Output 7 9" xfId="1534" xr:uid="{60791F41-E0A1-4E64-B49D-2DB425BD6544}"/>
+    <cellStyle name="Output 8" xfId="1535" xr:uid="{303A712F-EED9-4CF2-A7E0-8ED8DF3B06FA}"/>
+    <cellStyle name="Output 8 10" xfId="1536" xr:uid="{964350A6-FEEA-48C0-8954-CEA7D8110D5E}"/>
+    <cellStyle name="Output 8 11" xfId="1537" xr:uid="{F815574C-542D-4AF6-9D21-5481E3C2A2CB}"/>
+    <cellStyle name="Output 8 12" xfId="1538" xr:uid="{EE02F89B-207D-4CA5-8A5D-AC88005E2366}"/>
+    <cellStyle name="Output 8 2" xfId="1539" xr:uid="{C16AA9A2-D954-452A-8FB6-937FF89BF128}"/>
+    <cellStyle name="Output 8 2 10" xfId="1540" xr:uid="{954C5F36-F41E-4E60-B116-69669ACF983B}"/>
+    <cellStyle name="Output 8 2 2" xfId="1541" xr:uid="{F71BD471-4240-4F2C-9E83-4570E4873A1D}"/>
+    <cellStyle name="Output 8 2 3" xfId="1542" xr:uid="{42DC3C65-8044-41D7-8DC2-CD7BBEAC7D74}"/>
+    <cellStyle name="Output 8 2 4" xfId="1543" xr:uid="{F52A94F2-768E-4194-BF78-406D36CFFE66}"/>
+    <cellStyle name="Output 8 2 5" xfId="1544" xr:uid="{25F82CBB-BE13-4038-9EB9-22E9FA492AE4}"/>
+    <cellStyle name="Output 8 2 6" xfId="1545" xr:uid="{F9BB85B8-099C-4376-9E12-5FC95F75FBCC}"/>
+    <cellStyle name="Output 8 2 7" xfId="1546" xr:uid="{3948A2E3-D0F6-4BA5-BB50-8AE6210A47D6}"/>
+    <cellStyle name="Output 8 2 8" xfId="1547" xr:uid="{A63A1411-CBDA-4A3E-B8EC-4476367363B4}"/>
+    <cellStyle name="Output 8 2 9" xfId="1548" xr:uid="{0DA19B5D-2F0A-4607-BEF2-04EAA5407806}"/>
+    <cellStyle name="Output 8 3" xfId="1549" xr:uid="{8FA895B9-CC2A-46C9-B283-4BC4E83647BB}"/>
+    <cellStyle name="Output 8 3 10" xfId="1550" xr:uid="{4A8DD011-F3E1-4466-A2AF-A2294D8E4BC0}"/>
+    <cellStyle name="Output 8 3 2" xfId="1551" xr:uid="{3E31CA1F-CACD-4D54-A56F-2F0E03AA6E6B}"/>
+    <cellStyle name="Output 8 3 3" xfId="1552" xr:uid="{B74193A9-5A03-416B-8187-EFDA68981C32}"/>
+    <cellStyle name="Output 8 3 4" xfId="1553" xr:uid="{B418AC08-1BB6-45B4-93C7-1541D7F47B03}"/>
+    <cellStyle name="Output 8 3 5" xfId="1554" xr:uid="{E4558437-55A0-4BC4-8F7A-7DA2E54F6716}"/>
+    <cellStyle name="Output 8 3 6" xfId="1555" xr:uid="{C0C7B160-748F-45DE-8E1D-7AF8372602D4}"/>
+    <cellStyle name="Output 8 3 7" xfId="1556" xr:uid="{F29A3486-6049-4697-AF48-D6EB9F9AB6C6}"/>
+    <cellStyle name="Output 8 3 8" xfId="1557" xr:uid="{65175F0E-D8D1-4830-A520-7C42EDE220EC}"/>
+    <cellStyle name="Output 8 3 9" xfId="1558" xr:uid="{96452FB6-6B11-45EE-85B3-8886323F7E2A}"/>
+    <cellStyle name="Output 8 4" xfId="1559" xr:uid="{987F09A1-CF1D-418D-84D0-FDEC87F1B9DC}"/>
+    <cellStyle name="Output 8 5" xfId="1560" xr:uid="{909B7FF3-A046-4860-9DBD-A23B2DF61E41}"/>
+    <cellStyle name="Output 8 6" xfId="1561" xr:uid="{D0C3DC73-FDA0-44CF-BC31-FD2172FD542A}"/>
+    <cellStyle name="Output 8 7" xfId="1562" xr:uid="{4FDE376C-F162-42FB-9F0E-E3024CCEB153}"/>
+    <cellStyle name="Output 8 8" xfId="1563" xr:uid="{ADE40377-313C-49DD-A454-6DEC2C1C1850}"/>
+    <cellStyle name="Output 8 9" xfId="1564" xr:uid="{E2F34451-C1E9-4E3F-8460-EDEBE35EBD98}"/>
+    <cellStyle name="Output 9" xfId="1565" xr:uid="{268C4F27-88E6-405F-B39E-690B4C20E961}"/>
+    <cellStyle name="Output 9 10" xfId="1566" xr:uid="{8F09F5F3-2E2A-4488-BF1A-EFC82CA9E23E}"/>
+    <cellStyle name="Output 9 11" xfId="1567" xr:uid="{E81C81F7-E397-40FE-9E0D-2F23EF2C7E40}"/>
+    <cellStyle name="Output 9 12" xfId="1568" xr:uid="{1CEA0FDA-6768-47B7-B930-2DF9A065B943}"/>
+    <cellStyle name="Output 9 2" xfId="1569" xr:uid="{3BA7A8A8-1864-439B-A42E-0A0CA2325991}"/>
+    <cellStyle name="Output 9 2 10" xfId="1570" xr:uid="{B7776FE1-4A78-46FD-8824-D79FECA9DD23}"/>
+    <cellStyle name="Output 9 2 2" xfId="1571" xr:uid="{A2D6D662-6C00-44A4-BDDB-6E8EF8DDFA9B}"/>
+    <cellStyle name="Output 9 2 3" xfId="1572" xr:uid="{4E216688-3B32-4741-91F2-BC7293B882A3}"/>
+    <cellStyle name="Output 9 2 4" xfId="1573" xr:uid="{073030FD-C703-4595-B41A-B481B7CC457E}"/>
+    <cellStyle name="Output 9 2 5" xfId="1574" xr:uid="{732ABACA-AA77-4EF6-A399-87FECB8F585B}"/>
+    <cellStyle name="Output 9 2 6" xfId="1575" xr:uid="{55985E1E-68F2-4AED-86F4-612C4EE820B5}"/>
+    <cellStyle name="Output 9 2 7" xfId="1576" xr:uid="{7FF61BA2-4334-4089-A794-BE527813A625}"/>
+    <cellStyle name="Output 9 2 8" xfId="1577" xr:uid="{76AB6B0D-0300-4A87-9507-661E134FD74E}"/>
+    <cellStyle name="Output 9 2 9" xfId="1578" xr:uid="{17C4CD9B-6ECB-425C-9F2F-EFDA72C0EF38}"/>
+    <cellStyle name="Output 9 3" xfId="1579" xr:uid="{BA2C8AFE-761C-4BBE-B51E-B0AC7D5E392E}"/>
+    <cellStyle name="Output 9 3 10" xfId="1580" xr:uid="{78F4AE01-6E0F-4368-9B26-6ED0CAD38988}"/>
+    <cellStyle name="Output 9 3 2" xfId="1581" xr:uid="{E2BA0A59-EE2C-4553-83F2-A5EB40C5F900}"/>
+    <cellStyle name="Output 9 3 3" xfId="1582" xr:uid="{2CC4059D-2F12-4255-9D40-C46C77250C0F}"/>
+    <cellStyle name="Output 9 3 4" xfId="1583" xr:uid="{EFE7B23F-984E-46DD-BE7E-8244C243FD39}"/>
+    <cellStyle name="Output 9 3 5" xfId="1584" xr:uid="{D651B86B-7354-4899-8B9E-15F53EACEDAF}"/>
+    <cellStyle name="Output 9 3 6" xfId="1585" xr:uid="{C4C91049-D11F-4342-AB4E-A035586BFE2F}"/>
+    <cellStyle name="Output 9 3 7" xfId="1586" xr:uid="{CA362840-D974-4E91-A6A2-85E07EB1A16E}"/>
+    <cellStyle name="Output 9 3 8" xfId="1587" xr:uid="{754967C9-1E9B-4223-BF87-1A5CD22064C6}"/>
+    <cellStyle name="Output 9 3 9" xfId="1588" xr:uid="{9CC9A672-BAEC-4E36-8C5D-1C544F3DD5CB}"/>
+    <cellStyle name="Output 9 4" xfId="1589" xr:uid="{A8901956-3180-4C69-9BC5-EC54E3E06317}"/>
+    <cellStyle name="Output 9 5" xfId="1590" xr:uid="{960727DA-C4FF-4CCD-B200-07243938EC5E}"/>
+    <cellStyle name="Output 9 6" xfId="1591" xr:uid="{807F49EF-9768-4E39-99F3-B1786DF0E6E7}"/>
+    <cellStyle name="Output 9 7" xfId="1592" xr:uid="{80AD6DF9-734D-4C70-B6A2-C07877780F2A}"/>
+    <cellStyle name="Output 9 8" xfId="1593" xr:uid="{FCD5E357-F5AC-4F7F-942D-390016F6B7D8}"/>
+    <cellStyle name="Output 9 9" xfId="1594" xr:uid="{AE3F2211-7C86-41A5-AA6A-924E5C650AA8}"/>
+    <cellStyle name="Percent 2" xfId="1595" xr:uid="{9D61C2B4-3019-4A66-9607-FFA30434597D}"/>
+    <cellStyle name="Percent 3" xfId="4" xr:uid="{DAA9F75A-08B8-441C-914E-CD8DB3839624}"/>
+    <cellStyle name="Section Heading" xfId="1596" xr:uid="{FC37581B-67DC-42E6-AB45-7B0AD445D416}"/>
+    <cellStyle name="Title 10" xfId="1597" xr:uid="{7C305A12-C2E7-416E-982D-A35033033F16}"/>
+    <cellStyle name="Title 2" xfId="1598" xr:uid="{416B253E-E8C0-4F69-8C3B-4FF1FBF8F841}"/>
+    <cellStyle name="Title 3" xfId="1599" xr:uid="{EAB548F7-E8EA-47C1-AF45-8E984AA00EC6}"/>
+    <cellStyle name="Title 4" xfId="1600" xr:uid="{BA23A976-C968-400A-89A3-EFB1D3B3C8C1}"/>
+    <cellStyle name="Title 5" xfId="1601" xr:uid="{46C3884F-AD89-4A86-BBA9-D17E7F04C698}"/>
+    <cellStyle name="Title 6" xfId="1602" xr:uid="{F4830241-8CBD-44E3-B580-E274D3A29691}"/>
+    <cellStyle name="Title 7" xfId="1603" xr:uid="{CF3C7930-9AC8-46C9-8BC5-A871A4B02668}"/>
+    <cellStyle name="Title 8" xfId="1604" xr:uid="{8A299599-D07A-4E79-8821-353BA99A1D51}"/>
+    <cellStyle name="Title 9" xfId="1605" xr:uid="{340BF463-477B-4A44-A135-60F8567455CC}"/>
+    <cellStyle name="Total 10" xfId="1606" xr:uid="{FB79C48F-D07F-40BF-B009-56CEE7E84A04}"/>
+    <cellStyle name="Total 10 10" xfId="1607" xr:uid="{A4C2EF3C-1AE2-4131-808C-0BC7E55EDCD0}"/>
+    <cellStyle name="Total 10 11" xfId="1608" xr:uid="{FCD1A56F-3842-40A0-9033-0E6769108883}"/>
+    <cellStyle name="Total 10 12" xfId="1609" xr:uid="{E5226FB6-2F88-41A0-BEB2-DDAD166F409D}"/>
+    <cellStyle name="Total 10 2" xfId="1610" xr:uid="{CC677CEC-BFAB-45CD-8938-7F2FB8B3A8DC}"/>
+    <cellStyle name="Total 10 2 10" xfId="1611" xr:uid="{986A7CEF-6653-48B8-B5BE-3614B8FB9421}"/>
+    <cellStyle name="Total 10 2 2" xfId="1612" xr:uid="{A46AB03D-E4AF-4523-AAC2-3BFED8AB2B8D}"/>
+    <cellStyle name="Total 10 2 3" xfId="1613" xr:uid="{48610911-7577-47CE-9625-7F62FE36CB7A}"/>
+    <cellStyle name="Total 10 2 4" xfId="1614" xr:uid="{0F7FB361-CFB1-40F0-B985-D1A0C5103278}"/>
+    <cellStyle name="Total 10 2 5" xfId="1615" xr:uid="{EC6B410B-D121-4061-A5CE-35BEB5072746}"/>
+    <cellStyle name="Total 10 2 6" xfId="1616" xr:uid="{D623C5A6-08DB-4DF2-B596-9C1327BD3886}"/>
+    <cellStyle name="Total 10 2 7" xfId="1617" xr:uid="{D022420D-E8AA-4D38-A61D-8373F4162CD6}"/>
+    <cellStyle name="Total 10 2 8" xfId="1618" xr:uid="{07A0EC69-1BDC-48A7-B85F-68E3EDF6B9F0}"/>
+    <cellStyle name="Total 10 2 9" xfId="1619" xr:uid="{E357F9AB-E8E5-453F-9DC8-FCBBBD61C698}"/>
+    <cellStyle name="Total 10 3" xfId="1620" xr:uid="{64661E36-2842-471F-AD8F-49F16AF8C5D4}"/>
+    <cellStyle name="Total 10 3 10" xfId="1621" xr:uid="{331D7D5A-CC0C-44C5-BC23-6E524FCB9D44}"/>
+    <cellStyle name="Total 10 3 2" xfId="1622" xr:uid="{F2021A63-7D30-4B52-A268-3C1E297ECBB2}"/>
+    <cellStyle name="Total 10 3 3" xfId="1623" xr:uid="{18D4D878-5822-46FA-B89C-6A41D1693CBE}"/>
+    <cellStyle name="Total 10 3 4" xfId="1624" xr:uid="{79B61E08-BFC8-4163-86D7-DDE59D799572}"/>
+    <cellStyle name="Total 10 3 5" xfId="1625" xr:uid="{46F0AB7E-E5EF-47B3-99E5-134FE44419BB}"/>
+    <cellStyle name="Total 10 3 6" xfId="1626" xr:uid="{CA5B7947-D77B-4F6C-879D-4D76EC847CF6}"/>
+    <cellStyle name="Total 10 3 7" xfId="1627" xr:uid="{A1BA095E-D780-4F6F-B1A4-E8DC33FD7061}"/>
+    <cellStyle name="Total 10 3 8" xfId="1628" xr:uid="{E2BE3B2F-113F-415D-97CF-0D515ABE38D9}"/>
+    <cellStyle name="Total 10 3 9" xfId="1629" xr:uid="{4A10568F-1D8F-4317-AF48-63094DF764FC}"/>
+    <cellStyle name="Total 10 4" xfId="1630" xr:uid="{C29396DA-A939-4B69-88F7-E65407E33E05}"/>
+    <cellStyle name="Total 10 5" xfId="1631" xr:uid="{6E302907-2206-45FB-A747-91276EC9E098}"/>
+    <cellStyle name="Total 10 6" xfId="1632" xr:uid="{86736DB6-7A14-42ED-BDE1-FD3D13D518E6}"/>
+    <cellStyle name="Total 10 7" xfId="1633" xr:uid="{967F99C0-7CA2-421F-A5AC-5CC37685981F}"/>
+    <cellStyle name="Total 10 8" xfId="1634" xr:uid="{AD6885CA-061F-4799-BB4A-D1F3557FD1CE}"/>
+    <cellStyle name="Total 10 9" xfId="1635" xr:uid="{EC169B91-465E-4129-89D1-9E6CFA6634BD}"/>
+    <cellStyle name="Total 2" xfId="1636" xr:uid="{E68512C7-D0FB-4CF1-BD7F-949960916BE5}"/>
+    <cellStyle name="Total 2 10" xfId="1637" xr:uid="{48A2730E-1200-4EBE-8C46-756B5B65E427}"/>
+    <cellStyle name="Total 2 11" xfId="1638" xr:uid="{46A78B82-CF55-4352-944F-E9E2F10C8A2A}"/>
+    <cellStyle name="Total 2 12" xfId="1639" xr:uid="{5FCC5E0C-A404-4C76-8AD5-6714AC6486F8}"/>
+    <cellStyle name="Total 2 2" xfId="1640" xr:uid="{54221A44-0E4D-4B97-B1C6-529CB0DC1CFD}"/>
+    <cellStyle name="Total 2 2 10" xfId="1641" xr:uid="{743850B7-A1CD-49C9-93F0-D5823AB95D16}"/>
+    <cellStyle name="Total 2 2 2" xfId="1642" xr:uid="{0B50FCB9-03CD-4593-8F9A-FF3A86C26C01}"/>
+    <cellStyle name="Total 2 2 3" xfId="1643" xr:uid="{CA77FCE0-73BC-4F8B-8CFE-1BF55066FA57}"/>
+    <cellStyle name="Total 2 2 4" xfId="1644" xr:uid="{3E2604E9-55D2-4E97-91B1-188AB63AA7E8}"/>
+    <cellStyle name="Total 2 2 5" xfId="1645" xr:uid="{F916B652-CCA4-4748-9486-267FAEB24FC6}"/>
+    <cellStyle name="Total 2 2 6" xfId="1646" xr:uid="{6E7FEE71-5724-4345-9FDD-2F016D9FB1BE}"/>
+    <cellStyle name="Total 2 2 7" xfId="1647" xr:uid="{84189E5A-7412-45B4-B40E-8AD2460F796C}"/>
+    <cellStyle name="Total 2 2 8" xfId="1648" xr:uid="{F33D8237-A795-41E8-86F8-47EDCD4A4DE9}"/>
+    <cellStyle name="Total 2 2 9" xfId="1649" xr:uid="{C6A99C65-280A-468C-AA01-40C433281581}"/>
+    <cellStyle name="Total 2 3" xfId="1650" xr:uid="{A43A6410-1803-48E5-A2BE-F5E7A57ED085}"/>
+    <cellStyle name="Total 2 3 10" xfId="1651" xr:uid="{70BB14DF-9BC9-4EA9-9592-7F13C8F019FC}"/>
+    <cellStyle name="Total 2 3 2" xfId="1652" xr:uid="{3489A59A-E9D6-4962-A63A-666633FB0FC7}"/>
+    <cellStyle name="Total 2 3 3" xfId="1653" xr:uid="{2EFA5CD8-5482-4A33-AE2E-08A319D24C35}"/>
+    <cellStyle name="Total 2 3 4" xfId="1654" xr:uid="{A9E229BD-C675-4A6C-BAE4-F79D07D172D6}"/>
+    <cellStyle name="Total 2 3 5" xfId="1655" xr:uid="{3B1AD697-BC6C-48FB-823C-B9E539CB60E8}"/>
+    <cellStyle name="Total 2 3 6" xfId="1656" xr:uid="{A8FF2873-3E50-4BCD-965C-8F7C67A5D006}"/>
+    <cellStyle name="Total 2 3 7" xfId="1657" xr:uid="{55E402CC-64E9-4A98-A924-4E152026206D}"/>
+    <cellStyle name="Total 2 3 8" xfId="1658" xr:uid="{DD4F38A9-7953-4B43-8450-9C24244210C6}"/>
+    <cellStyle name="Total 2 3 9" xfId="1659" xr:uid="{C388EA27-F21D-495C-B9C4-2EF7CA2A446F}"/>
+    <cellStyle name="Total 2 4" xfId="1660" xr:uid="{58B92556-FD6D-4B9F-8589-F09E8F621CF6}"/>
+    <cellStyle name="Total 2 5" xfId="1661" xr:uid="{E93221D5-57D4-436F-A514-E4D03C09E818}"/>
+    <cellStyle name="Total 2 6" xfId="1662" xr:uid="{239FFCF5-0A81-4491-BC98-FB653A966374}"/>
+    <cellStyle name="Total 2 7" xfId="1663" xr:uid="{287E7C83-68CC-4066-8374-71BEF20B0F6D}"/>
+    <cellStyle name="Total 2 8" xfId="1664" xr:uid="{FA4F5E23-3A2A-4EF9-B1C6-6A9C24657B96}"/>
+    <cellStyle name="Total 2 9" xfId="1665" xr:uid="{F563534E-4705-4E60-9A6F-B4CB70FD3440}"/>
+    <cellStyle name="Total 3" xfId="1666" xr:uid="{775588A4-23F1-4A8B-B0BB-18C4BE9CF430}"/>
+    <cellStyle name="Total 3 10" xfId="1667" xr:uid="{B2B45BD2-4BEC-4DCD-B107-E5B902C0206B}"/>
+    <cellStyle name="Total 3 11" xfId="1668" xr:uid="{C9F739F2-EAAD-4DCB-B83C-CFC76BDCCCE2}"/>
+    <cellStyle name="Total 3 12" xfId="1669" xr:uid="{142181AE-0836-4A95-A17B-F355BE33BFA6}"/>
+    <cellStyle name="Total 3 2" xfId="1670" xr:uid="{1F5FE982-D855-462C-96AD-B5B8828B7243}"/>
+    <cellStyle name="Total 3 2 10" xfId="1671" xr:uid="{42CCDB9E-EE74-4B71-AE21-BB70B1ABD3A6}"/>
+    <cellStyle name="Total 3 2 2" xfId="1672" xr:uid="{A018BE23-542A-4403-8B0A-54A233550E19}"/>
+    <cellStyle name="Total 3 2 3" xfId="1673" xr:uid="{C4922DD2-E1BA-453D-B6EB-D009CF379F81}"/>
+    <cellStyle name="Total 3 2 4" xfId="1674" xr:uid="{8CD039FD-AE09-4D62-8619-31727F061893}"/>
+    <cellStyle name="Total 3 2 5" xfId="1675" xr:uid="{80E44807-D97A-444D-AB9F-3DA7DD1E1DB0}"/>
+    <cellStyle name="Total 3 2 6" xfId="1676" xr:uid="{2FCDB34B-1A43-45D9-BE0B-91FACD8626D5}"/>
+    <cellStyle name="Total 3 2 7" xfId="1677" xr:uid="{9804FC54-C4BE-474A-B083-9D2C96759446}"/>
+    <cellStyle name="Total 3 2 8" xfId="1678" xr:uid="{E2EE3380-A749-4994-97C7-AD9A89E1603D}"/>
+    <cellStyle name="Total 3 2 9" xfId="1679" xr:uid="{D9D743BE-CBB0-4B4E-854F-C33B87E2C0F4}"/>
+    <cellStyle name="Total 3 3" xfId="1680" xr:uid="{DB1C4774-672D-4D9D-8FAC-5186D4FBE1CF}"/>
+    <cellStyle name="Total 3 3 10" xfId="1681" xr:uid="{712D3B86-0ABE-415D-B2B7-6524AE31DFE0}"/>
+    <cellStyle name="Total 3 3 2" xfId="1682" xr:uid="{BA48EC42-7FC7-41B1-9770-AD8F2CE6E15E}"/>
+    <cellStyle name="Total 3 3 3" xfId="1683" xr:uid="{E0F4180D-37E0-4CC0-9153-6FBA4A0201A1}"/>
+    <cellStyle name="Total 3 3 4" xfId="1684" xr:uid="{FFF115B6-E775-4545-B227-EF9B79A31249}"/>
+    <cellStyle name="Total 3 3 5" xfId="1685" xr:uid="{6530ED6A-51C6-46D7-96CB-3A564A01FFF0}"/>
+    <cellStyle name="Total 3 3 6" xfId="1686" xr:uid="{F506EC95-AD4A-48B1-B078-846BCEBCD7F0}"/>
+    <cellStyle name="Total 3 3 7" xfId="1687" xr:uid="{691D2A8A-06DF-4422-AC3F-CC17447ED885}"/>
+    <cellStyle name="Total 3 3 8" xfId="1688" xr:uid="{B814E310-1CAE-4E8A-B429-5DADA2C55FBC}"/>
+    <cellStyle name="Total 3 3 9" xfId="1689" xr:uid="{22DC9EAA-E1CC-4202-8DBC-891459A28C19}"/>
+    <cellStyle name="Total 3 4" xfId="1690" xr:uid="{8A53CD50-F577-452A-90F4-D04E80DDB96E}"/>
+    <cellStyle name="Total 3 5" xfId="1691" xr:uid="{AD470BBD-B925-4852-AB72-CBBE068CFFC4}"/>
+    <cellStyle name="Total 3 6" xfId="1692" xr:uid="{7A2084BC-66AB-48BC-B390-840E7C52A4BA}"/>
+    <cellStyle name="Total 3 7" xfId="1693" xr:uid="{51F12E45-5D4B-4B03-96B8-3AC888E1AE4B}"/>
+    <cellStyle name="Total 3 8" xfId="1694" xr:uid="{24BC8B31-3334-42C5-ADA7-462A9531B8C3}"/>
+    <cellStyle name="Total 3 9" xfId="1695" xr:uid="{B6644BE8-02E7-4A8D-A376-E25206F5E515}"/>
+    <cellStyle name="Total 4" xfId="1696" xr:uid="{E9B714BD-6F4B-4D5A-8EB0-15684AB6C15E}"/>
+    <cellStyle name="Total 4 10" xfId="1697" xr:uid="{50D64454-6945-429B-9F65-3C2273AA9B52}"/>
+    <cellStyle name="Total 4 11" xfId="1698" xr:uid="{B1E1F416-6144-4C2A-84CC-073B684AD9CB}"/>
+    <cellStyle name="Total 4 12" xfId="1699" xr:uid="{E9B01D7A-20A9-4186-B071-F57EC2E89C0C}"/>
+    <cellStyle name="Total 4 2" xfId="1700" xr:uid="{3AD8A958-6268-41AD-9E6D-21DEB2C8310B}"/>
+    <cellStyle name="Total 4 2 10" xfId="1701" xr:uid="{2073D0F0-825D-4F1D-AA96-EECC30F0D87B}"/>
+    <cellStyle name="Total 4 2 2" xfId="1702" xr:uid="{85CCA830-2601-4B63-B046-992622CBE44D}"/>
+    <cellStyle name="Total 4 2 3" xfId="1703" xr:uid="{A6B82DE8-318A-4910-8D70-454C281CDCAA}"/>
+    <cellStyle name="Total 4 2 4" xfId="1704" xr:uid="{04010273-F10A-4AE1-870A-AA00D760F0DD}"/>
+    <cellStyle name="Total 4 2 5" xfId="1705" xr:uid="{81B97040-6135-479F-950D-AA68CD49046F}"/>
+    <cellStyle name="Total 4 2 6" xfId="1706" xr:uid="{FB2294EA-B43B-4E57-9915-6CCF1C1159AC}"/>
+    <cellStyle name="Total 4 2 7" xfId="1707" xr:uid="{F966286C-4357-43D8-9D82-89618329BA76}"/>
+    <cellStyle name="Total 4 2 8" xfId="1708" xr:uid="{49D34289-FF9B-4A32-BC7C-0A1AF220CD75}"/>
+    <cellStyle name="Total 4 2 9" xfId="1709" xr:uid="{7FE0A1BF-6C18-455C-9B71-1639B2A5DBF2}"/>
+    <cellStyle name="Total 4 3" xfId="1710" xr:uid="{287D424B-1D8A-4EAF-8FBA-D40034A8C1D2}"/>
+    <cellStyle name="Total 4 3 10" xfId="1711" xr:uid="{5DCFBC34-9F70-4E78-9440-1ACD7DDAA598}"/>
+    <cellStyle name="Total 4 3 2" xfId="1712" xr:uid="{79099C14-3B8C-486C-B723-FB492B36BC37}"/>
+    <cellStyle name="Total 4 3 3" xfId="1713" xr:uid="{51891405-65E1-4094-BBD8-421298BBB39E}"/>
+    <cellStyle name="Total 4 3 4" xfId="1714" xr:uid="{0A2C006C-FBC3-49C8-B1C0-61B42AB89C7A}"/>
+    <cellStyle name="Total 4 3 5" xfId="1715" xr:uid="{0A4F63D0-FF7A-4311-A40D-C26B489D7FB5}"/>
+    <cellStyle name="Total 4 3 6" xfId="1716" xr:uid="{56D33D85-D6E4-453C-95F7-3CDEC77291D8}"/>
+    <cellStyle name="Total 4 3 7" xfId="1717" xr:uid="{653727CC-59A4-4168-A8A5-93022A5272A0}"/>
+    <cellStyle name="Total 4 3 8" xfId="1718" xr:uid="{6C299E41-C26D-49BF-8BED-073F095473D6}"/>
+    <cellStyle name="Total 4 3 9" xfId="1719" xr:uid="{8C2258C1-42D5-49F3-B19B-043C9BC9FF55}"/>
+    <cellStyle name="Total 4 4" xfId="1720" xr:uid="{AC79E250-8E98-4EC0-8DA5-C8C9261316DC}"/>
+    <cellStyle name="Total 4 5" xfId="1721" xr:uid="{221EF2F9-60BA-4631-817E-64CF5908EA71}"/>
+    <cellStyle name="Total 4 6" xfId="1722" xr:uid="{CF44D926-75A7-46C5-A068-70E178F193D7}"/>
+    <cellStyle name="Total 4 7" xfId="1723" xr:uid="{3E8D722C-5FAA-4632-A042-D9E77604CA8C}"/>
+    <cellStyle name="Total 4 8" xfId="1724" xr:uid="{4FD94477-9F60-4F3A-AE4D-625DA26AD2BB}"/>
+    <cellStyle name="Total 4 9" xfId="1725" xr:uid="{7E38098C-F41C-465F-B2A5-49CA8DF751C5}"/>
+    <cellStyle name="Total 5" xfId="1726" xr:uid="{48D03A72-7581-4EBB-A137-16C464535982}"/>
+    <cellStyle name="Total 5 10" xfId="1727" xr:uid="{1CAF7CDF-8703-4D10-958E-FFD651DA7460}"/>
+    <cellStyle name="Total 5 11" xfId="1728" xr:uid="{9912F10F-00AA-40BA-B447-1D8B2E487E7C}"/>
+    <cellStyle name="Total 5 12" xfId="1729" xr:uid="{7A4AF4BF-DC54-4CEA-ABE2-9ECEEBE89A33}"/>
+    <cellStyle name="Total 5 2" xfId="1730" xr:uid="{C136ACCF-6606-49B8-9628-B2E9D86861D7}"/>
+    <cellStyle name="Total 5 2 10" xfId="1731" xr:uid="{5BCD5D9A-63FA-4BC5-BB9C-4450EB19EB6E}"/>
+    <cellStyle name="Total 5 2 2" xfId="1732" xr:uid="{51334EF4-B7F7-4C77-9110-8903C650DD95}"/>
+    <cellStyle name="Total 5 2 3" xfId="1733" xr:uid="{8B213CCB-4CD5-4A16-8554-3DF85E515FC8}"/>
+    <cellStyle name="Total 5 2 4" xfId="1734" xr:uid="{F6B4C53A-1F3C-4113-A7F2-FF2FFB389DB8}"/>
+    <cellStyle name="Total 5 2 5" xfId="1735" xr:uid="{B42CC93F-D4A6-41B5-A846-AD470DEA9414}"/>
+    <cellStyle name="Total 5 2 6" xfId="1736" xr:uid="{50811B78-433E-47B4-8EA6-2796E926CC50}"/>
+    <cellStyle name="Total 5 2 7" xfId="1737" xr:uid="{061B9EAB-FAAA-437B-93BA-5976CAB5B96B}"/>
+    <cellStyle name="Total 5 2 8" xfId="1738" xr:uid="{5C0C02E2-F297-444E-B9A2-A9CC6AB2896A}"/>
+    <cellStyle name="Total 5 2 9" xfId="1739" xr:uid="{CD70A758-3230-4F8A-A39A-A9B4A58E5A95}"/>
+    <cellStyle name="Total 5 3" xfId="1740" xr:uid="{21837E11-A3CD-4FEA-B63B-5B485A4C4DB6}"/>
+    <cellStyle name="Total 5 3 10" xfId="1741" xr:uid="{4EF6B1E9-81CD-4603-A06C-ABEB2B9DFD8B}"/>
+    <cellStyle name="Total 5 3 2" xfId="1742" xr:uid="{5D6EC820-97C6-4768-8DDE-98B565827408}"/>
+    <cellStyle name="Total 5 3 3" xfId="1743" xr:uid="{068D7359-1F54-44F3-B02B-1CB10DBC45C7}"/>
+    <cellStyle name="Total 5 3 4" xfId="1744" xr:uid="{22E4C773-0DCB-4BFF-B373-0C2B8B8E315D}"/>
+    <cellStyle name="Total 5 3 5" xfId="1745" xr:uid="{F79F3123-139E-4B98-B4D6-0BAC06DA254C}"/>
+    <cellStyle name="Total 5 3 6" xfId="1746" xr:uid="{44A0819D-4FBB-4D3A-917E-EEE330FF62B8}"/>
+    <cellStyle name="Total 5 3 7" xfId="1747" xr:uid="{96E47122-BD24-49E7-BA7B-C980D2CEBE37}"/>
+    <cellStyle name="Total 5 3 8" xfId="1748" xr:uid="{4DA0917A-05C4-4483-B60D-5A69C8002683}"/>
+    <cellStyle name="Total 5 3 9" xfId="1749" xr:uid="{C26A4FC6-CCF1-4A77-B63B-9ED152C7BFE5}"/>
+    <cellStyle name="Total 5 4" xfId="1750" xr:uid="{585C9BAD-13E3-4479-B9FB-BF9B617B41C0}"/>
+    <cellStyle name="Total 5 5" xfId="1751" xr:uid="{25B476D0-0604-4B9B-BA13-7FFC3267335A}"/>
+    <cellStyle name="Total 5 6" xfId="1752" xr:uid="{3D0BD9BF-3911-4A26-95C4-5F0E88F40EB7}"/>
+    <cellStyle name="Total 5 7" xfId="1753" xr:uid="{FC940837-9E9D-48CC-9905-90B3C04A2E48}"/>
+    <cellStyle name="Total 5 8" xfId="1754" xr:uid="{5A53438F-D263-4002-8325-1907E1AA862F}"/>
+    <cellStyle name="Total 5 9" xfId="1755" xr:uid="{45470B1C-2293-495B-867B-09DD41161E7F}"/>
+    <cellStyle name="Total 6" xfId="1756" xr:uid="{4D2F4F99-B1A0-4F89-A6F5-E899824B2794}"/>
+    <cellStyle name="Total 6 10" xfId="1757" xr:uid="{EE77ED04-D152-4936-BB61-5D2C90A5E047}"/>
+    <cellStyle name="Total 6 11" xfId="1758" xr:uid="{C5549B62-4BA8-49FF-BB20-AEB7B67EAD90}"/>
+    <cellStyle name="Total 6 12" xfId="1759" xr:uid="{AD836505-C462-4F26-BFED-5E5A5E020D16}"/>
+    <cellStyle name="Total 6 2" xfId="1760" xr:uid="{FBAC42DC-17C1-4C26-A9C1-3E82B9419625}"/>
+    <cellStyle name="Total 6 2 10" xfId="1761" xr:uid="{CECCFEEA-4730-42D1-9424-D1F58C984786}"/>
+    <cellStyle name="Total 6 2 2" xfId="1762" xr:uid="{C858210A-0BA5-4B63-8772-EDF5279756F1}"/>
+    <cellStyle name="Total 6 2 3" xfId="1763" xr:uid="{D844D072-7290-48B1-B1BB-28C5556A24DF}"/>
+    <cellStyle name="Total 6 2 4" xfId="1764" xr:uid="{FB52224B-6651-4A28-B4E3-753EB3030ECA}"/>
+    <cellStyle name="Total 6 2 5" xfId="1765" xr:uid="{FC4EC082-9599-4F40-B5D5-7B94CED24D8C}"/>
+    <cellStyle name="Total 6 2 6" xfId="1766" xr:uid="{DC3EC1F2-4902-427D-A4EE-251DE123FBE1}"/>
+    <cellStyle name="Total 6 2 7" xfId="1767" xr:uid="{C033D355-2FB9-44DD-9290-47B58FCB0B41}"/>
+    <cellStyle name="Total 6 2 8" xfId="1768" xr:uid="{7510AAF2-1E45-48C7-B667-A6E6FC6668A2}"/>
+    <cellStyle name="Total 6 2 9" xfId="1769" xr:uid="{AA95AFB6-9BC1-49D1-A971-3E42D582203B}"/>
+    <cellStyle name="Total 6 3" xfId="1770" xr:uid="{5341405D-8ECB-48AD-A0B6-601FAFA8B531}"/>
+    <cellStyle name="Total 6 3 10" xfId="1771" xr:uid="{38A8018D-D7B1-4617-820B-45A5C8795CF4}"/>
+    <cellStyle name="Total 6 3 2" xfId="1772" xr:uid="{43F8EE44-5BB0-4561-BDF5-298E30FE2526}"/>
+    <cellStyle name="Total 6 3 3" xfId="1773" xr:uid="{A453F7A2-2FD7-4013-8D82-571979DA46BD}"/>
+    <cellStyle name="Total 6 3 4" xfId="1774" xr:uid="{241E872C-501F-4824-9DE2-964F145C4A57}"/>
+    <cellStyle name="Total 6 3 5" xfId="1775" xr:uid="{5E3FA603-D990-405E-A348-8F8182105911}"/>
+    <cellStyle name="Total 6 3 6" xfId="1776" xr:uid="{1B346143-9ECC-4DEA-BD72-C6C24B404C73}"/>
+    <cellStyle name="Total 6 3 7" xfId="1777" xr:uid="{6EBDA658-E2D7-42F6-8C48-D1E8256BE5F2}"/>
+    <cellStyle name="Total 6 3 8" xfId="1778" xr:uid="{B8CB383E-555D-4043-80FD-524E56E228B9}"/>
+    <cellStyle name="Total 6 3 9" xfId="1779" xr:uid="{783CE0DA-1EAD-40BB-8A54-182D8697B10E}"/>
+    <cellStyle name="Total 6 4" xfId="1780" xr:uid="{92F9FE74-2AC0-4256-84A4-6D6D7DA9BE5C}"/>
+    <cellStyle name="Total 6 5" xfId="1781" xr:uid="{722DB23B-01B4-4CA2-9DE2-23C8E9F04AB6}"/>
+    <cellStyle name="Total 6 6" xfId="1782" xr:uid="{0528D7ED-4265-404C-9440-D48F0BB1925A}"/>
+    <cellStyle name="Total 6 7" xfId="1783" xr:uid="{06C98F0E-BF26-4A64-8110-E094009FDC1D}"/>
+    <cellStyle name="Total 6 8" xfId="1784" xr:uid="{69FAEA24-5C00-48E5-B946-5D8D2B27301E}"/>
+    <cellStyle name="Total 6 9" xfId="1785" xr:uid="{C856F9A0-080E-4EDA-B8BA-13F50A4ECFF3}"/>
+    <cellStyle name="Total 7" xfId="1786" xr:uid="{41438212-0E5B-416A-9739-D7461CD37698}"/>
+    <cellStyle name="Total 7 10" xfId="1787" xr:uid="{F5E8E081-CF18-4C89-B4B3-F83A3DFFC6D9}"/>
+    <cellStyle name="Total 7 11" xfId="1788" xr:uid="{FD5D5057-CCEF-41AC-A27C-07033DFCA51B}"/>
+    <cellStyle name="Total 7 12" xfId="1789" xr:uid="{11484ABC-A1FF-43F0-B68C-127B44541D4A}"/>
+    <cellStyle name="Total 7 2" xfId="1790" xr:uid="{81BD861A-DE88-4D58-973F-A77D9C650540}"/>
+    <cellStyle name="Total 7 2 10" xfId="1791" xr:uid="{FB1E5915-AC5A-437D-BBE7-A875C388C5DF}"/>
+    <cellStyle name="Total 7 2 2" xfId="1792" xr:uid="{43478073-5CC4-47C2-B802-E0520DCF3C89}"/>
+    <cellStyle name="Total 7 2 3" xfId="1793" xr:uid="{16A61A8B-7C4F-4E2A-AD62-3980456CFB28}"/>
+    <cellStyle name="Total 7 2 4" xfId="1794" xr:uid="{EFD10619-A79E-4C41-8B9C-4B1337BC3020}"/>
+    <cellStyle name="Total 7 2 5" xfId="1795" xr:uid="{80D87CB9-EB1D-4E4E-8A53-8CCDFB0A4558}"/>
+    <cellStyle name="Total 7 2 6" xfId="1796" xr:uid="{2A164016-9F36-4911-AFF6-2A8F0BFEEA6B}"/>
+    <cellStyle name="Total 7 2 7" xfId="1797" xr:uid="{D43520D6-CB3D-4699-A9CC-9BA0CCA5B8E8}"/>
+    <cellStyle name="Total 7 2 8" xfId="1798" xr:uid="{ABD12566-D421-4BF4-ACB3-ED4B94B4E613}"/>
+    <cellStyle name="Total 7 2 9" xfId="1799" xr:uid="{CD6BDF94-60B8-44C3-8820-7CA077341642}"/>
+    <cellStyle name="Total 7 3" xfId="1800" xr:uid="{F6D35A42-1992-4F45-A913-862FC14C480F}"/>
+    <cellStyle name="Total 7 3 10" xfId="1801" xr:uid="{3960370C-C79E-4885-87E7-FA20DC9B2A6B}"/>
+    <cellStyle name="Total 7 3 2" xfId="1802" xr:uid="{C21E1F4E-E52C-4730-ADF7-28A14DD7F249}"/>
+    <cellStyle name="Total 7 3 3" xfId="1803" xr:uid="{E8C8278D-46B5-4226-B708-0E68171F61D9}"/>
+    <cellStyle name="Total 7 3 4" xfId="1804" xr:uid="{C2E0FD4F-8BAF-4532-81DC-83409C3A4627}"/>
+    <cellStyle name="Total 7 3 5" xfId="1805" xr:uid="{04ED2F58-60AE-4983-BA66-F76FB318B29B}"/>
+    <cellStyle name="Total 7 3 6" xfId="1806" xr:uid="{2B2B3525-92A4-4538-83BE-04B428D0D544}"/>
+    <cellStyle name="Total 7 3 7" xfId="1807" xr:uid="{5FAA5D1D-884A-4D4A-BDAD-4804A6E97806}"/>
+    <cellStyle name="Total 7 3 8" xfId="1808" xr:uid="{7A70A70D-8351-43C3-AA90-97469B963E8B}"/>
+    <cellStyle name="Total 7 3 9" xfId="1809" xr:uid="{2535F0B3-F1B1-4E5C-827A-13CFC231AF4E}"/>
+    <cellStyle name="Total 7 4" xfId="1810" xr:uid="{84964224-8B14-487E-A2F7-FEA7AD8E26C6}"/>
+    <cellStyle name="Total 7 5" xfId="1811" xr:uid="{A8E20215-008E-4C4F-85BF-87E67784840B}"/>
+    <cellStyle name="Total 7 6" xfId="1812" xr:uid="{FD778274-BCFC-4267-A796-442E300370EE}"/>
+    <cellStyle name="Total 7 7" xfId="1813" xr:uid="{66D0D28E-63DA-4CB8-B850-B20076C1C96A}"/>
+    <cellStyle name="Total 7 8" xfId="1814" xr:uid="{912AAC44-18F3-4CC5-B016-838BDD7C1721}"/>
+    <cellStyle name="Total 7 9" xfId="1815" xr:uid="{E37CD261-8E9F-4018-982A-F37F046A14F4}"/>
+    <cellStyle name="Total 8" xfId="1816" xr:uid="{A09E2979-3618-4A8C-807C-59A5616C4769}"/>
+    <cellStyle name="Total 8 10" xfId="1817" xr:uid="{2C9C3A6B-215D-4549-9BC3-B5DBF7E81D48}"/>
+    <cellStyle name="Total 8 11" xfId="1818" xr:uid="{D1DFE790-9EEA-4E09-853B-B67E849270AF}"/>
+    <cellStyle name="Total 8 12" xfId="1819" xr:uid="{3C4486CF-0B3A-4088-B144-0B3B1C7215F9}"/>
+    <cellStyle name="Total 8 2" xfId="1820" xr:uid="{5C65C04D-976F-4F3B-BD9E-E08C0410B978}"/>
+    <cellStyle name="Total 8 2 10" xfId="1821" xr:uid="{7F94B6A7-EB9F-4E0A-A32B-E3D4CCBDF36A}"/>
+    <cellStyle name="Total 8 2 2" xfId="1822" xr:uid="{91C1862B-C9D6-4E28-9042-8D850831D94E}"/>
+    <cellStyle name="Total 8 2 3" xfId="1823" xr:uid="{42E1EE9A-9B42-4874-9AAA-AC0F0C1DA393}"/>
+    <cellStyle name="Total 8 2 4" xfId="1824" xr:uid="{CFAFE759-80FC-4D30-A3B5-2F51294462AE}"/>
+    <cellStyle name="Total 8 2 5" xfId="1825" xr:uid="{8406EFEF-D743-4117-B143-82C3462CD132}"/>
+    <cellStyle name="Total 8 2 6" xfId="1826" xr:uid="{7B725408-13D6-45E1-AEAF-884F9709F670}"/>
+    <cellStyle name="Total 8 2 7" xfId="1827" xr:uid="{EDC29D1D-491A-4527-92AB-72F29FA16FBC}"/>
+    <cellStyle name="Total 8 2 8" xfId="1828" xr:uid="{5E80843C-3F5B-4753-A781-C6AE13E02021}"/>
+    <cellStyle name="Total 8 2 9" xfId="1829" xr:uid="{CBD91101-6C9C-44CD-B564-01FFC3DC80AC}"/>
+    <cellStyle name="Total 8 3" xfId="1830" xr:uid="{8AEB3002-CFFE-450F-A1E8-185D14FF58F5}"/>
+    <cellStyle name="Total 8 3 10" xfId="1831" xr:uid="{C0528FDC-715C-492D-9299-B0E6EF644C4C}"/>
+    <cellStyle name="Total 8 3 2" xfId="1832" xr:uid="{D1F17538-AE64-450B-A674-D6EF39A80E47}"/>
+    <cellStyle name="Total 8 3 3" xfId="1833" xr:uid="{D7153BF2-D45E-4D94-AEC8-A6A2E26B32E0}"/>
+    <cellStyle name="Total 8 3 4" xfId="1834" xr:uid="{B8026945-D8F8-499E-BFF3-4D8A34F89AAE}"/>
+    <cellStyle name="Total 8 3 5" xfId="1835" xr:uid="{C45D8292-CA37-4C8A-A1D5-0AB5F4E7509B}"/>
+    <cellStyle name="Total 8 3 6" xfId="1836" xr:uid="{FC56CC2E-86AD-4A5D-90D9-77464692C60C}"/>
+    <cellStyle name="Total 8 3 7" xfId="1837" xr:uid="{2FEEBBA0-6FC8-4011-A450-EABDF2B0EB1E}"/>
+    <cellStyle name="Total 8 3 8" xfId="1838" xr:uid="{B8814EE3-8D5A-4E72-966D-6BC63B617DD1}"/>
+    <cellStyle name="Total 8 3 9" xfId="1839" xr:uid="{B74214CE-CEB7-46C3-B4EA-D8D129675F00}"/>
+    <cellStyle name="Total 8 4" xfId="1840" xr:uid="{43533037-93B5-424A-B250-2B9BE53A5C5B}"/>
+    <cellStyle name="Total 8 5" xfId="1841" xr:uid="{79D7F00E-BDA9-4F3C-BF11-62AFA18EC3BA}"/>
+    <cellStyle name="Total 8 6" xfId="1842" xr:uid="{158AC56D-D6D9-444F-B2E4-5628D2656DFD}"/>
+    <cellStyle name="Total 8 7" xfId="1843" xr:uid="{8AB6957E-8ABB-4A53-8289-DB63865F78C4}"/>
+    <cellStyle name="Total 8 8" xfId="1844" xr:uid="{8A00EE2E-62CE-40DD-9F54-EC5A2308123D}"/>
+    <cellStyle name="Total 8 9" xfId="1845" xr:uid="{863F7076-C212-42CE-AC24-D7640C0EB568}"/>
+    <cellStyle name="Total 9" xfId="1846" xr:uid="{385EC49D-A248-4400-94E5-A350B957930F}"/>
+    <cellStyle name="Total 9 10" xfId="1847" xr:uid="{EAA5B5D8-B795-4C3C-9596-BA24574F5F8E}"/>
+    <cellStyle name="Total 9 11" xfId="1848" xr:uid="{DA94356A-98DD-43BC-8C82-509A9E5D83CF}"/>
+    <cellStyle name="Total 9 12" xfId="1849" xr:uid="{E23588C9-C526-49F4-A836-3F7CBF91CFB1}"/>
+    <cellStyle name="Total 9 2" xfId="1850" xr:uid="{9BC2063E-28CC-4C0D-8914-164D9F36DD68}"/>
+    <cellStyle name="Total 9 2 10" xfId="1851" xr:uid="{9FE43490-637F-41AA-AB0B-C3FC6877D9E4}"/>
+    <cellStyle name="Total 9 2 2" xfId="1852" xr:uid="{8CF1FE26-F044-4DA1-94F6-A9F84274D796}"/>
+    <cellStyle name="Total 9 2 3" xfId="1853" xr:uid="{41FAA826-ED84-475B-840A-BA60547274BA}"/>
+    <cellStyle name="Total 9 2 4" xfId="1854" xr:uid="{EEE1F914-B83D-4B16-A8B9-4D42836AA519}"/>
+    <cellStyle name="Total 9 2 5" xfId="1855" xr:uid="{3BF336B3-B071-4214-9220-DA531BEEDA66}"/>
+    <cellStyle name="Total 9 2 6" xfId="1856" xr:uid="{611EC49F-5125-49FF-BE12-979D38B0A32A}"/>
+    <cellStyle name="Total 9 2 7" xfId="1857" xr:uid="{CB153EC3-2447-4268-88AC-B3C87584FE0C}"/>
+    <cellStyle name="Total 9 2 8" xfId="1858" xr:uid="{5CCAC7F3-4C4F-414A-95D9-7A5D5AA7A46D}"/>
+    <cellStyle name="Total 9 2 9" xfId="1859" xr:uid="{FE3A16B7-12D2-4A6D-926F-A563C140C824}"/>
+    <cellStyle name="Total 9 3" xfId="1860" xr:uid="{D2B4AC35-C862-44CA-B537-B2B46AD59C40}"/>
+    <cellStyle name="Total 9 3 10" xfId="1861" xr:uid="{B0D1C7CB-BEAA-4087-9B32-49AE264E6FE9}"/>
+    <cellStyle name="Total 9 3 2" xfId="1862" xr:uid="{D6203289-75E3-4855-A78C-45940FFF8B54}"/>
+    <cellStyle name="Total 9 3 3" xfId="1863" xr:uid="{F06280D3-26FE-4980-A333-3631D138D509}"/>
+    <cellStyle name="Total 9 3 4" xfId="1864" xr:uid="{0D9F83B1-D30C-40FD-BAF9-6F7BF1A22DA5}"/>
+    <cellStyle name="Total 9 3 5" xfId="1865" xr:uid="{59975B17-1620-48D0-9C9F-652982F69AE0}"/>
+    <cellStyle name="Total 9 3 6" xfId="1866" xr:uid="{C0076E6E-4068-4607-8DFA-6448BA24584A}"/>
+    <cellStyle name="Total 9 3 7" xfId="1867" xr:uid="{536C10B2-CE7C-419F-814A-2043C446D777}"/>
+    <cellStyle name="Total 9 3 8" xfId="1868" xr:uid="{3B2C106C-64BF-4248-92E2-A6A264D725C7}"/>
+    <cellStyle name="Total 9 3 9" xfId="1869" xr:uid="{C4DF62AA-E22E-4963-9863-57C4B8F6D4ED}"/>
+    <cellStyle name="Total 9 4" xfId="1870" xr:uid="{9D2F954A-E83A-42E3-9067-BF5C51751CEC}"/>
+    <cellStyle name="Total 9 5" xfId="1871" xr:uid="{C64CED96-5E2A-46A7-98B8-7F716F4CD473}"/>
+    <cellStyle name="Total 9 6" xfId="1872" xr:uid="{E6A80565-CF59-4AE1-95CF-B6662EE28104}"/>
+    <cellStyle name="Total 9 7" xfId="1873" xr:uid="{7C187F26-98AF-4B06-BB85-FB7877CA2A01}"/>
+    <cellStyle name="Total 9 8" xfId="1874" xr:uid="{71EBBE93-EF54-442D-A2FC-5076571E00A6}"/>
+    <cellStyle name="Total 9 9" xfId="1875" xr:uid="{78F45358-2EDC-4379-98AF-9F584984147D}"/>
+    <cellStyle name="Warning Text 10" xfId="1876" xr:uid="{1BE1EA24-05BA-41DD-93AD-16864CA34F7A}"/>
+    <cellStyle name="Warning Text 2" xfId="1877" xr:uid="{0569C916-439E-4F82-818E-2AACF953AC45}"/>
+    <cellStyle name="Warning Text 3" xfId="1878" xr:uid="{CDD7E112-2005-478E-A498-8DC80ECCDA5E}"/>
+    <cellStyle name="Warning Text 4" xfId="1879" xr:uid="{D315FC25-571A-48CE-BC42-A043FE35A613}"/>
+    <cellStyle name="Warning Text 5" xfId="1880" xr:uid="{7182AFB1-528A-422B-A456-D211FCF0974D}"/>
+    <cellStyle name="Warning Text 6" xfId="1881" xr:uid="{5FB5B7B4-045F-4F31-AE2E-664C88D9CB3C}"/>
+    <cellStyle name="Warning Text 7" xfId="1882" xr:uid="{438E74E5-D365-4943-B6F8-F7836BACC9ED}"/>
+    <cellStyle name="Warning Text 8" xfId="1883" xr:uid="{F79EDBA9-8477-47B1-B336-D5D0513D4656}"/>
+    <cellStyle name="Warning Text 9" xfId="1884" xr:uid="{D688D107-CA68-457A-A6D6-D69A21133911}"/>
+    <cellStyle name="Гиперссылка 2" xfId="17" xr:uid="{37CCEFBB-113A-4E9C-A568-7EE0E5B7D3CE}"/>
+    <cellStyle name="Обычный 2" xfId="18" xr:uid="{96999352-A6E9-46CA-9C78-7367A5386A5F}"/>
+    <cellStyle name="Обычный 2 2" xfId="19" xr:uid="{EF5AAA0C-4680-4B55-925C-8163A1FB49B6}"/>
+    <cellStyle name="Обычный 3" xfId="20" xr:uid="{41D706D9-D358-429F-ACF6-FFBB74A7B546}"/>
+    <cellStyle name="Обычный 4" xfId="21" xr:uid="{96BC593A-548D-4AE6-AF4D-5B650FF75567}"/>
+    <cellStyle name="Обычный 5" xfId="2" xr:uid="{3E82F3AB-6258-4046-9E66-7C2866636394}"/>
+    <cellStyle name="Обычный 5 2" xfId="24" xr:uid="{2DBE009F-218B-4039-96F3-6EEEC8D1ED21}"/>
+    <cellStyle name="Обычный 5 3" xfId="25" xr:uid="{AB5C295B-4B0F-48A7-9BAE-499FF21B3D41}"/>
+    <cellStyle name="Обычный 5 4" xfId="23" xr:uid="{FC0C08F7-5AFA-49D9-8EBB-9BF3BFBC22F2}"/>
+    <cellStyle name="Обычный 6" xfId="22" xr:uid="{93AEC9CB-3EB6-4C24-A6BB-6B7845415CD4}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -138,9 +4627,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Тема Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
-    <a:clrScheme name="Стандартная">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -178,7 +4667,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Стандартная">
+    <a:fontScheme name="Office">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -284,7 +4773,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Стандартная">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -434,20 +4923,23 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2C8AC155-EE7E-442B-97DD-276F3B80218B}">
-  <dimension ref="B2:V38"/>
+  <dimension ref="B2:W83"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="C35" sqref="C35"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E71" sqref="E71"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="3" max="3" width="18.42578125" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="2" spans="2:22" x14ac:dyDescent="0.35">
+    <row r="2" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="2:22" x14ac:dyDescent="0.35">
+    <row r="4" spans="2:23" x14ac:dyDescent="0.25">
       <c r="C4" t="s">
         <v>0</v>
       </c>
@@ -458,7 +4950,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="2:22" x14ac:dyDescent="0.35">
+    <row r="5" spans="2:23" x14ac:dyDescent="0.25">
       <c r="C5" t="s">
         <v>1</v>
       </c>
@@ -490,7 +4982,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="2:22" x14ac:dyDescent="0.35">
+    <row r="6" spans="2:23" x14ac:dyDescent="0.25">
       <c r="C6">
         <v>1</v>
       </c>
@@ -522,7 +5014,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="7" spans="2:22" x14ac:dyDescent="0.35">
+    <row r="7" spans="2:23" x14ac:dyDescent="0.25">
       <c r="C7">
         <v>2</v>
       </c>
@@ -554,285 +5046,1194 @@
         <v>1002</v>
       </c>
     </row>
-    <row r="12" spans="2:22" x14ac:dyDescent="0.35">
-      <c r="B12" t="s">
+    <row r="10" spans="2:23" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C10" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="K10" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="T10" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="11" spans="2:23" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C11" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="K11" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="L11" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="M11" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="N11" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="T11" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="U11" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="V11" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="W11" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="12" spans="2:23" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C12" s="1">
+        <v>1</v>
+      </c>
+      <c r="D12" s="1">
+        <v>100</v>
+      </c>
+      <c r="E12" s="1">
+        <v>1002</v>
+      </c>
+      <c r="K12" s="1">
+        <v>1</v>
+      </c>
+      <c r="L12" s="1">
+        <v>100</v>
+      </c>
+      <c r="M12" s="1">
+        <v>100</v>
+      </c>
+      <c r="N12" s="1">
+        <v>1002</v>
+      </c>
+      <c r="T12" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="U12" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="V12" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="W12" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="C13" s="1">
+        <v>2</v>
+      </c>
+      <c r="D13" s="1">
+        <v>200</v>
+      </c>
+      <c r="E13" s="1">
+        <v>2003</v>
+      </c>
+      <c r="F13" s="1"/>
+      <c r="G13" s="1"/>
+      <c r="H13" s="1"/>
+      <c r="I13" s="1"/>
+      <c r="J13" s="1"/>
+      <c r="K13" s="1">
+        <v>2</v>
+      </c>
+      <c r="L13" s="1">
+        <v>200</v>
+      </c>
+      <c r="M13" s="1">
+        <v>200</v>
+      </c>
+      <c r="N13" s="1">
+        <v>2003</v>
+      </c>
+      <c r="O13" s="1"/>
+      <c r="P13" s="1"/>
+      <c r="Q13" s="1"/>
+      <c r="R13" s="1"/>
+      <c r="S13" s="1"/>
+      <c r="T13" s="1">
+        <v>1</v>
+      </c>
+      <c r="U13" s="1">
+        <v>100</v>
+      </c>
+      <c r="V13" s="1">
+        <v>100</v>
+      </c>
+      <c r="W13" s="1">
+        <v>1002</v>
+      </c>
+    </row>
+    <row r="15" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="B15" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="13" spans="2:22" x14ac:dyDescent="0.35">
-      <c r="T13" t="s">
+    <row r="16" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="T16" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="14" spans="2:22" x14ac:dyDescent="0.35">
-      <c r="C14" t="s">
+    <row r="17" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="C17" t="s">
         <v>9</v>
       </c>
-      <c r="T14" t="s">
-        <v>1</v>
-      </c>
-      <c r="U14" t="s">
+      <c r="T17" t="s">
+        <v>1</v>
+      </c>
+      <c r="U17" t="s">
         <v>2</v>
       </c>
-      <c r="V14" t="s">
+      <c r="V17" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="15" spans="2:22" x14ac:dyDescent="0.35">
-      <c r="C15" t="s">
-        <v>1</v>
-      </c>
-      <c r="D15" t="s">
+    <row r="18" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="C18" t="s">
+        <v>1</v>
+      </c>
+      <c r="D18" t="s">
         <v>2</v>
       </c>
-      <c r="E15" t="s">
+      <c r="E18" t="s">
         <v>6</v>
       </c>
-      <c r="F15" t="s">
+      <c r="F18" t="s">
         <v>3</v>
       </c>
-      <c r="T15" t="s">
-        <v>1</v>
-      </c>
-      <c r="U15" t="s">
+      <c r="T18" t="s">
+        <v>1</v>
+      </c>
+      <c r="U18" t="s">
         <v>2</v>
       </c>
-      <c r="V15" t="s">
+      <c r="V18" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="16" spans="2:22" x14ac:dyDescent="0.35">
-      <c r="C16">
-        <v>1</v>
-      </c>
-      <c r="D16">
+    <row r="19" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="C19">
+        <v>1</v>
+      </c>
+      <c r="D19">
         <v>100</v>
       </c>
-      <c r="E16">
+      <c r="E19">
         <v>100</v>
       </c>
-      <c r="F16">
+      <c r="F19">
         <v>1002</v>
       </c>
-      <c r="T16">
-        <v>1</v>
-      </c>
-      <c r="U16">
+      <c r="T19">
+        <v>1</v>
+      </c>
+      <c r="U19">
         <v>100</v>
       </c>
-      <c r="V16">
+      <c r="V19">
         <v>1002</v>
       </c>
     </row>
-    <row r="17" spans="2:21" x14ac:dyDescent="0.35">
-      <c r="C17">
+    <row r="20" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="C20">
         <v>2</v>
       </c>
-      <c r="D17">
+      <c r="D20">
         <v>200</v>
       </c>
-      <c r="E17">
+      <c r="E20">
         <v>200</v>
       </c>
-      <c r="F17">
+      <c r="F20">
         <v>2003</v>
       </c>
     </row>
-    <row r="19" spans="2:21" x14ac:dyDescent="0.35">
-      <c r="C19" t="s">
+    <row r="22" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="C22" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="20" spans="2:21" x14ac:dyDescent="0.35">
-      <c r="C20" t="s">
-        <v>1</v>
-      </c>
-      <c r="D20" t="s">
+    <row r="23" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="C23" t="s">
+        <v>1</v>
+      </c>
+      <c r="D23" t="s">
         <v>2</v>
       </c>
-      <c r="E20" t="s">
+      <c r="E23" t="s">
         <v>6</v>
       </c>
-      <c r="F20" t="s">
+      <c r="F23" t="s">
         <v>12</v>
       </c>
-      <c r="G20" t="s">
+      <c r="G23" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="21" spans="2:21" x14ac:dyDescent="0.35">
-      <c r="C21">
-        <v>1</v>
-      </c>
-      <c r="D21">
+    <row r="24" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="C24">
+        <v>1</v>
+      </c>
+      <c r="D24">
         <v>100</v>
       </c>
-      <c r="E21">
+      <c r="E24">
         <v>100</v>
       </c>
-      <c r="F21">
+      <c r="F24">
         <v>100</v>
       </c>
-      <c r="G21">
+      <c r="G24">
         <v>1002</v>
       </c>
     </row>
-    <row r="22" spans="2:21" x14ac:dyDescent="0.35">
-      <c r="C22">
+    <row r="25" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="C25">
         <v>2</v>
       </c>
-      <c r="D22">
+      <c r="D25">
         <v>200</v>
       </c>
-      <c r="E22">
+      <c r="E25">
         <v>200</v>
       </c>
-      <c r="F22">
+      <c r="F25">
         <v>200</v>
       </c>
-      <c r="G22">
+      <c r="G25">
         <v>2003</v>
       </c>
     </row>
-    <row r="26" spans="2:21" x14ac:dyDescent="0.35">
-      <c r="B26" t="s">
+    <row r="29" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="B29" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="31" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="C31" t="s">
         <v>14</v>
       </c>
+      <c r="K31" t="s">
+        <v>15</v>
+      </c>
+      <c r="S31" t="s">
+        <v>16</v>
+      </c>
     </row>
-    <row r="28" spans="2:21" x14ac:dyDescent="0.35">
-      <c r="C28" t="s">
-        <v>15</v>
-      </c>
-      <c r="K28" t="s">
-        <v>16</v>
-      </c>
-      <c r="S28" t="s">
+    <row r="32" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="C32" t="s">
+        <v>1</v>
+      </c>
+      <c r="D32" t="s">
+        <v>2</v>
+      </c>
+      <c r="E32" t="s">
+        <v>3</v>
+      </c>
+      <c r="K32" t="s">
+        <v>1</v>
+      </c>
+      <c r="L32" t="s">
+        <v>2</v>
+      </c>
+      <c r="M32" t="s">
+        <v>3</v>
+      </c>
+      <c r="S32" t="s">
+        <v>1</v>
+      </c>
+      <c r="T32" t="s">
+        <v>2</v>
+      </c>
+      <c r="U32" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="33" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="C33">
+        <v>1</v>
+      </c>
+      <c r="D33">
+        <v>100</v>
+      </c>
+      <c r="E33">
+        <v>1002</v>
+      </c>
+      <c r="K33">
+        <v>1</v>
+      </c>
+      <c r="L33">
+        <v>100</v>
+      </c>
+      <c r="M33">
+        <v>1002</v>
+      </c>
+      <c r="S33" t="s">
+        <v>1</v>
+      </c>
+      <c r="T33" t="s">
+        <v>2</v>
+      </c>
+      <c r="U33" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="34" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="C34">
+        <v>2</v>
+      </c>
+      <c r="D34">
+        <v>200</v>
+      </c>
+      <c r="E34">
+        <v>2003</v>
+      </c>
+      <c r="K34">
+        <v>2</v>
+      </c>
+      <c r="L34">
+        <v>200</v>
+      </c>
+      <c r="M34">
+        <v>2003</v>
+      </c>
+      <c r="S34">
+        <v>1</v>
+      </c>
+      <c r="T34">
+        <v>100</v>
+      </c>
+      <c r="U34">
+        <v>1002</v>
+      </c>
+    </row>
+    <row r="38" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="C38" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="29" spans="2:21" x14ac:dyDescent="0.35">
-      <c r="C29" t="s">
-        <v>1</v>
-      </c>
-      <c r="D29" t="s">
+    <row r="39" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="C39" t="s">
+        <v>1</v>
+      </c>
+      <c r="D39" t="s">
         <v>2</v>
       </c>
-      <c r="E29" t="s">
+      <c r="E39" t="s">
         <v>3</v>
       </c>
-      <c r="K29" t="s">
-        <v>1</v>
-      </c>
-      <c r="L29" t="s">
+    </row>
+    <row r="40" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="C40">
+        <v>1</v>
+      </c>
+      <c r="D40">
+        <v>100</v>
+      </c>
+      <c r="E40">
+        <v>1002</v>
+      </c>
+    </row>
+    <row r="41" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="C41">
         <v>2</v>
       </c>
-      <c r="M29" t="s">
+      <c r="D41">
+        <v>200</v>
+      </c>
+      <c r="E41">
+        <v>2003</v>
+      </c>
+    </row>
+    <row r="44" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="B44" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="46" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="C46" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D46" s="1"/>
+      <c r="E46" s="1"/>
+      <c r="F46" s="1"/>
+      <c r="G46" s="1"/>
+      <c r="H46" s="1"/>
+      <c r="I46" s="1"/>
+      <c r="J46" s="1"/>
+      <c r="K46" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="L46" s="1"/>
+      <c r="M46" s="1"/>
+      <c r="N46" s="1"/>
+      <c r="O46" s="1"/>
+      <c r="P46" s="1"/>
+      <c r="Q46" s="1"/>
+      <c r="R46" s="1"/>
+      <c r="S46" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="T46" s="1"/>
+      <c r="U46" s="1"/>
+    </row>
+    <row r="47" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="C47" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D47" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E47" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="S29" t="s">
-        <v>1</v>
-      </c>
-      <c r="T29" t="s">
+      <c r="F47" s="1"/>
+      <c r="G47" s="1"/>
+      <c r="H47" s="1"/>
+      <c r="I47" s="1"/>
+      <c r="J47" s="1"/>
+      <c r="K47" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="L47" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="U29" t="s">
+      <c r="M47" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="N47" s="1"/>
+      <c r="O47" s="1"/>
+      <c r="P47" s="1"/>
+      <c r="Q47" s="1"/>
+      <c r="R47" s="1"/>
+      <c r="S47" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="T47" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="U47" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="30" spans="2:21" x14ac:dyDescent="0.35">
-      <c r="C30">
-        <v>1</v>
-      </c>
-      <c r="D30">
+    <row r="48" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="C48" s="1">
+        <v>1</v>
+      </c>
+      <c r="D48" s="1">
         <v>100</v>
       </c>
-      <c r="E30">
+      <c r="E48" s="1">
+        <v>1003</v>
+      </c>
+      <c r="F48" s="1"/>
+      <c r="G48" s="1"/>
+      <c r="H48" s="1"/>
+      <c r="I48" s="1"/>
+      <c r="J48" s="1"/>
+      <c r="K48" s="1">
+        <v>1</v>
+      </c>
+      <c r="L48" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="M48" s="1">
         <v>1002</v>
       </c>
-      <c r="K30">
-        <v>1</v>
-      </c>
-      <c r="L30">
+      <c r="N48" s="1"/>
+      <c r="O48" s="1"/>
+      <c r="P48" s="1"/>
+      <c r="Q48" s="1"/>
+      <c r="R48" s="1"/>
+      <c r="S48" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="T48" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="U48" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="49" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="C49" s="1">
+        <v>2</v>
+      </c>
+      <c r="D49" s="1">
+        <v>200</v>
+      </c>
+      <c r="E49" s="1">
+        <v>2003</v>
+      </c>
+      <c r="F49" s="1"/>
+      <c r="G49" s="1"/>
+      <c r="H49" s="1"/>
+      <c r="I49" s="1"/>
+      <c r="J49" s="1"/>
+      <c r="K49" s="1">
+        <v>2</v>
+      </c>
+      <c r="L49" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="M49" s="1">
+        <v>2003</v>
+      </c>
+      <c r="N49" s="1"/>
+      <c r="O49" s="1"/>
+      <c r="P49" s="1"/>
+      <c r="Q49" s="1"/>
+      <c r="R49" s="1"/>
+      <c r="S49" s="1">
+        <v>1</v>
+      </c>
+      <c r="T49" s="1">
         <v>100</v>
       </c>
-      <c r="M30">
+      <c r="U49" s="1">
+        <v>1003</v>
+      </c>
+    </row>
+    <row r="51" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="B51" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="52" spans="2:22" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="53" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="C53" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D53" s="1"/>
+      <c r="E53" s="1"/>
+      <c r="F53" s="1"/>
+      <c r="G53" s="1"/>
+      <c r="H53" s="1"/>
+      <c r="I53" s="1"/>
+      <c r="J53" s="1"/>
+      <c r="K53" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="L53" s="1"/>
+      <c r="M53" s="1"/>
+      <c r="N53" s="1"/>
+      <c r="O53" s="1"/>
+      <c r="P53" s="1"/>
+      <c r="Q53" s="1"/>
+      <c r="R53" s="1"/>
+      <c r="S53" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="T53" s="1"/>
+      <c r="U53" s="1"/>
+    </row>
+    <row r="54" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="C54" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D54" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E54" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F54" s="1"/>
+      <c r="G54" s="1"/>
+      <c r="H54" s="1"/>
+      <c r="I54" s="1"/>
+      <c r="J54" s="1"/>
+      <c r="K54" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="L54" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="M54" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="N54" s="1"/>
+      <c r="O54" s="1"/>
+      <c r="P54" s="1"/>
+      <c r="Q54" s="1"/>
+      <c r="R54" s="1"/>
+      <c r="S54" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="T54" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="U54" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="55" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="C55" s="1">
+        <v>1</v>
+      </c>
+      <c r="D55" s="1">
+        <v>100</v>
+      </c>
+      <c r="E55" s="1">
+        <v>1003</v>
+      </c>
+      <c r="F55" s="1"/>
+      <c r="G55" s="1"/>
+      <c r="H55" s="1"/>
+      <c r="I55" s="1"/>
+      <c r="J55" s="1"/>
+      <c r="K55" s="1">
+        <v>1</v>
+      </c>
+      <c r="L55" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="M55" s="1">
         <v>1002</v>
       </c>
-      <c r="S30" t="s">
-        <v>1</v>
-      </c>
-      <c r="T30" t="s">
+      <c r="N55" s="1"/>
+      <c r="O55" s="1"/>
+      <c r="P55" s="1"/>
+      <c r="Q55" s="1"/>
+      <c r="R55" s="1"/>
+      <c r="S55" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="T55" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="U30" t="s">
+      <c r="U55" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="31" spans="2:21" x14ac:dyDescent="0.35">
-      <c r="C31">
+    <row r="56" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="C56" s="1">
         <v>2</v>
       </c>
-      <c r="D31">
+      <c r="D56" s="1">
         <v>200</v>
       </c>
-      <c r="E31">
+      <c r="E56" s="1">
         <v>2003</v>
       </c>
-      <c r="K31">
+      <c r="F56" s="1"/>
+      <c r="G56" s="1"/>
+      <c r="H56" s="1"/>
+      <c r="I56" s="1"/>
+      <c r="J56" s="1"/>
+      <c r="K56" s="1">
         <v>2</v>
       </c>
-      <c r="L31">
+      <c r="L56" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="M56" s="1">
+        <v>2003</v>
+      </c>
+      <c r="N56" s="1"/>
+      <c r="O56" s="1"/>
+      <c r="P56" s="1"/>
+      <c r="Q56" s="1"/>
+      <c r="R56" s="1"/>
+      <c r="S56" s="1">
+        <v>1</v>
+      </c>
+      <c r="T56" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="U56" s="1">
+        <v>1002</v>
+      </c>
+    </row>
+    <row r="58" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="B58" s="1"/>
+    </row>
+    <row r="59" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="B59" s="2" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="60" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="B60" s="2"/>
+    </row>
+    <row r="61" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="B61" s="1"/>
+      <c r="C61" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D61" s="1"/>
+      <c r="E61" s="1"/>
+      <c r="F61" s="1"/>
+      <c r="G61" s="1"/>
+      <c r="H61" s="1"/>
+      <c r="I61" s="1"/>
+      <c r="J61" s="1"/>
+      <c r="K61" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="L61" s="1"/>
+      <c r="M61" s="1"/>
+      <c r="N61" s="1"/>
+      <c r="O61" s="1"/>
+      <c r="P61" s="1"/>
+      <c r="Q61" s="1"/>
+      <c r="R61" s="1"/>
+      <c r="S61" s="1"/>
+      <c r="T61" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="U61" s="1"/>
+      <c r="V61" s="1"/>
+    </row>
+    <row r="62" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="B62" s="1"/>
+      <c r="C62" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D62" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E62" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F62" s="1"/>
+      <c r="G62" s="1"/>
+      <c r="H62" s="1"/>
+      <c r="I62" s="1"/>
+      <c r="J62" s="1"/>
+      <c r="K62" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="L62" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="M62" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="N62" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="O62" s="1"/>
+      <c r="P62" s="1"/>
+      <c r="Q62" s="1"/>
+      <c r="R62" s="1"/>
+      <c r="S62" s="1"/>
+      <c r="T62" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="U62" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="V62" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="63" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="C63" s="1">
+        <v>1</v>
+      </c>
+      <c r="D63" s="1">
+        <v>100</v>
+      </c>
+      <c r="E63" s="1">
+        <v>1002</v>
+      </c>
+      <c r="F63" s="1"/>
+      <c r="G63" s="1"/>
+      <c r="H63" s="1"/>
+      <c r="I63" s="1"/>
+      <c r="J63" s="1"/>
+      <c r="K63" s="1">
+        <v>1</v>
+      </c>
+      <c r="L63" s="1">
+        <v>100</v>
+      </c>
+      <c r="M63" s="1">
+        <v>100</v>
+      </c>
+      <c r="N63" s="1">
+        <v>1002</v>
+      </c>
+      <c r="O63" s="1"/>
+      <c r="P63" s="1"/>
+      <c r="Q63" s="1"/>
+      <c r="R63" s="1"/>
+      <c r="S63" s="1"/>
+      <c r="T63" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="U63" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="V63" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="64" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="C64" s="1">
+        <v>2</v>
+      </c>
+      <c r="D64" s="1">
         <v>200</v>
       </c>
-      <c r="M31">
+      <c r="E64" s="1">
         <v>2003</v>
       </c>
-      <c r="S31">
-        <v>1</v>
-      </c>
-      <c r="T31">
+      <c r="F64" s="1"/>
+      <c r="G64" s="1"/>
+      <c r="H64" s="1"/>
+      <c r="I64" s="1"/>
+      <c r="J64" s="1"/>
+      <c r="K64" s="1">
+        <v>2</v>
+      </c>
+      <c r="L64" s="1">
+        <v>200</v>
+      </c>
+      <c r="M64" s="1">
+        <v>200</v>
+      </c>
+      <c r="N64" s="1">
+        <v>2003</v>
+      </c>
+      <c r="O64" s="1"/>
+      <c r="P64" s="1"/>
+      <c r="Q64" s="1"/>
+      <c r="R64" s="1"/>
+      <c r="S64" s="1"/>
+      <c r="T64" s="1">
+        <v>1</v>
+      </c>
+      <c r="U64" s="1">
         <v>100</v>
       </c>
-      <c r="U31">
+      <c r="V64" s="1">
         <v>1002</v>
       </c>
     </row>
-    <row r="35" spans="3:5" x14ac:dyDescent="0.35">
-      <c r="C35" t="s">
-        <v>18</v>
+    <row r="66" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="B66" s="2" t="s">
+        <v>40</v>
       </c>
     </row>
-    <row r="36" spans="3:5" x14ac:dyDescent="0.35">
-      <c r="C36" t="s">
-        <v>1</v>
-      </c>
-      <c r="D36" t="s">
+    <row r="68" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="C68" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="D68" s="2"/>
+      <c r="E68" s="2"/>
+      <c r="K68" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="L68" s="2"/>
+      <c r="M68" s="2"/>
+      <c r="N68" s="2"/>
+      <c r="O68" s="2"/>
+      <c r="T68" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="U68" s="2"/>
+      <c r="V68" s="2"/>
+    </row>
+    <row r="69" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="C69" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="D69" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="E69" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="K69" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="L69" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="M69" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="N69" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="O69" s="2"/>
+      <c r="T69" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="U69" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="E36" t="s">
+      <c r="V69" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="70" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="C70" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D70" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E70" s="2"/>
+      <c r="K70" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="L70" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="M70" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="N70" s="2"/>
+      <c r="O70" s="2"/>
+      <c r="T70" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="U70" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="V70" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="71" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="C71" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="D71" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="E71" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="K71" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="L71" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="M71" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="N71" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="O71" s="2"/>
+      <c r="T71" s="2">
+        <v>1</v>
+      </c>
+      <c r="U71" s="2">
+        <v>100</v>
+      </c>
+      <c r="V71" s="2">
+        <v>1002</v>
+      </c>
+    </row>
+    <row r="72" spans="2:22" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C72" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D72" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E72" s="2" t="s">
         <v>3</v>
       </c>
+      <c r="K72" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="L72" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="M72" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="N72" s="2" t="s">
+        <v>3</v>
+      </c>
     </row>
-    <row r="37" spans="3:5" x14ac:dyDescent="0.35">
-      <c r="C37">
-        <v>1</v>
-      </c>
-      <c r="D37">
+    <row r="73" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="C73" s="2">
+        <v>1</v>
+      </c>
+      <c r="D73" s="2">
         <v>100</v>
       </c>
-      <c r="E37">
+      <c r="E73" s="2">
         <v>1002</v>
       </c>
+      <c r="K73" s="2">
+        <v>1</v>
+      </c>
+      <c r="L73" s="2">
+        <v>100</v>
+      </c>
+      <c r="M73" s="2">
+        <v>100</v>
+      </c>
+      <c r="N73" s="2">
+        <v>1002</v>
+      </c>
+      <c r="O73" s="2"/>
     </row>
-    <row r="38" spans="3:5" x14ac:dyDescent="0.35">
-      <c r="C38">
+    <row r="74" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="C74" s="2">
         <v>2</v>
       </c>
-      <c r="D38">
+      <c r="D74" s="2">
         <v>200</v>
       </c>
-      <c r="E38">
+      <c r="E74" s="2">
         <v>2003</v>
+      </c>
+      <c r="K74" s="2">
+        <v>2</v>
+      </c>
+      <c r="L74" s="2">
+        <v>200</v>
+      </c>
+      <c r="M74" s="2">
+        <v>200</v>
+      </c>
+      <c r="N74" s="2">
+        <v>2003</v>
+      </c>
+      <c r="O74" s="2"/>
+    </row>
+    <row r="78" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="C78" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="D78" s="2"/>
+      <c r="K78" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="L78" s="2"/>
+      <c r="M78" s="2"/>
+      <c r="N78" s="2"/>
+      <c r="T78" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="U78" s="2"/>
+      <c r="V78" s="2"/>
+    </row>
+    <row r="79" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="C79" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="D79" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="K79" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="L79" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="M79" s="2"/>
+      <c r="N79" s="2"/>
+      <c r="O79" s="2"/>
+      <c r="T79" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="U79" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="V79" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="80" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="C80" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D80" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="E80" s="2"/>
+      <c r="F80" s="2"/>
+      <c r="K80" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="L80" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="M80" s="2"/>
+      <c r="N80" s="2"/>
+      <c r="O80" s="2"/>
+      <c r="T80" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="U80" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="V80" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="81" spans="3:22" x14ac:dyDescent="0.25">
+      <c r="C81" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D81" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="E81" s="2"/>
+      <c r="F81" s="2"/>
+      <c r="K81" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="L81" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="M81" s="2"/>
+      <c r="N81" s="2"/>
+      <c r="O81" s="2"/>
+      <c r="T81" s="2">
+        <v>1</v>
+      </c>
+      <c r="U81" s="2">
+        <v>100</v>
+      </c>
+      <c r="V81" s="2">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="82" spans="3:22" x14ac:dyDescent="0.25">
+      <c r="C82" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="D82" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="E82" s="2"/>
+      <c r="K82" t="s">
+        <v>6</v>
+      </c>
+      <c r="L82" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="M82" s="2"/>
+      <c r="N82" s="2"/>
+      <c r="O82" s="2"/>
+    </row>
+    <row r="83" spans="3:22" x14ac:dyDescent="0.25">
+      <c r="C83" s="2"/>
+      <c r="D83" s="2"/>
+      <c r="K83" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="L83" s="4" t="s">
+        <v>55</v>
       </c>
     </row>
   </sheetData>
